--- a/outputs/wl_retention_monthly.xlsx
+++ b/outputs/wl_retention_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>14711.96882380103</v>
       </c>
       <c r="D2" t="n">
-        <v>15628.96849500714</v>
+        <v>15542.98169758304</v>
       </c>
       <c r="E2" t="n">
-        <v>18111.39286110716</v>
+        <v>18114.8625893554</v>
       </c>
       <c r="F2" t="n">
         <v>14711.96882380103</v>
@@ -583,10 +583,10 @@
         <v>14710.79210380392</v>
       </c>
       <c r="D3" t="n">
-        <v>12440.7829299427</v>
+        <v>12647.86037376858</v>
       </c>
       <c r="E3" t="n">
-        <v>15008.27408602932</v>
+        <v>15080.14483977128</v>
       </c>
       <c r="F3" t="n">
         <v>14710.79210380392</v>
@@ -636,10 +636,10 @@
         <v>14709.69130122598</v>
       </c>
       <c r="D4" t="n">
-        <v>14775.76750673848</v>
+        <v>14818.39478269737</v>
       </c>
       <c r="E4" t="n">
-        <v>17333.31210704707</v>
+        <v>17418.55837895447</v>
       </c>
       <c r="F4" t="n">
         <v>14709.69130122598</v>
@@ -689,10 +689,10 @@
         <v>14708.51458151177</v>
       </c>
       <c r="D5" t="n">
-        <v>12524.60974691704</v>
+        <v>12491.22882491841</v>
       </c>
       <c r="E5" t="n">
-        <v>14958.2046799262</v>
+        <v>15023.5481012451</v>
       </c>
       <c r="F5" t="n">
         <v>14708.51458151177</v>
@@ -742,10 +742,10 @@
         <v>14707.37582049802</v>
       </c>
       <c r="D6" t="n">
-        <v>12908.42589077332</v>
+        <v>12910.27409740421</v>
       </c>
       <c r="E6" t="n">
-        <v>15452.86991088522</v>
+        <v>15486.27120179042</v>
       </c>
       <c r="F6" t="n">
         <v>14707.37582049802</v>
@@ -795,10 +795,10 @@
         <v>14706.1991006469</v>
       </c>
       <c r="D7" t="n">
-        <v>12999.31441834095</v>
+        <v>13007.82081330657</v>
       </c>
       <c r="E7" t="n">
-        <v>15580.66026528636</v>
+        <v>15459.69364941322</v>
       </c>
       <c r="F7" t="n">
         <v>14706.1991006469</v>
@@ -848,10 +848,10 @@
         <v>14705.06033950066</v>
       </c>
       <c r="D8" t="n">
-        <v>11915.31642416197</v>
+        <v>11951.09806612991</v>
       </c>
       <c r="E8" t="n">
-        <v>14420.88092372596</v>
+        <v>14476.79337149712</v>
       </c>
       <c r="F8" t="n">
         <v>14705.06033950066</v>
@@ -901,10 +901,10 @@
         <v>14703.88361936597</v>
       </c>
       <c r="D9" t="n">
-        <v>13311.85341289608</v>
+        <v>13436.19807106982</v>
       </c>
       <c r="E9" t="n">
-        <v>15864.4910159553</v>
+        <v>15927.30759114357</v>
       </c>
       <c r="F9" t="n">
         <v>14703.88361936597</v>
@@ -954,10 +954,10 @@
         <v>14702.70689923129</v>
       </c>
       <c r="D10" t="n">
-        <v>13320.79019386607</v>
+        <v>13376.25186821745</v>
       </c>
       <c r="E10" t="n">
-        <v>15950.71735509872</v>
+        <v>15894.44264823707</v>
       </c>
       <c r="F10" t="n">
         <v>14702.70689923129</v>
@@ -1007,10 +1007,10 @@
         <v>14701.56813783103</v>
       </c>
       <c r="D11" t="n">
-        <v>13946.69585915362</v>
+        <v>13894.5199254975</v>
       </c>
       <c r="E11" t="n">
-        <v>16522.76138257189</v>
+        <v>16521.17447745018</v>
       </c>
       <c r="F11" t="n">
         <v>14701.56813783103</v>
@@ -1060,10 +1060,10 @@
         <v>14700.39141771743</v>
       </c>
       <c r="D12" t="n">
-        <v>12869.01456503755</v>
+        <v>12860.67124793126</v>
       </c>
       <c r="E12" t="n">
-        <v>15306.85176091263</v>
+        <v>15280.62014223456</v>
       </c>
       <c r="F12" t="n">
         <v>14700.39141771743</v>
@@ -1113,10 +1113,10 @@
         <v>14699.25265613888</v>
       </c>
       <c r="D13" t="n">
-        <v>12859.60798672004</v>
+        <v>12844.97536705119</v>
       </c>
       <c r="E13" t="n">
-        <v>15424.25884638797</v>
+        <v>15298.75364955405</v>
       </c>
       <c r="F13" t="n">
         <v>14699.25265613888</v>
@@ -1166,10 +1166,10 @@
         <v>14698.07593584104</v>
       </c>
       <c r="D14" t="n">
-        <v>13350.88660255754</v>
+        <v>13275.04522576059</v>
       </c>
       <c r="E14" t="n">
-        <v>15861.10345317183</v>
+        <v>15858.21218648684</v>
       </c>
       <c r="F14" t="n">
         <v>14698.07593584104</v>
@@ -1219,10 +1219,10 @@
         <v>14696.89921513471</v>
       </c>
       <c r="D15" t="n">
-        <v>10386.49283586235</v>
+        <v>10518.48885638658</v>
       </c>
       <c r="E15" t="n">
-        <v>12958.31208950221</v>
+        <v>12912.06369399304</v>
       </c>
       <c r="F15" t="n">
         <v>14696.89921513471</v>
@@ -1272,10 +1272,10 @@
         <v>14695.83637031881</v>
       </c>
       <c r="D16" t="n">
-        <v>13746.42629502372</v>
+        <v>13749.36958041323</v>
       </c>
       <c r="E16" t="n">
-        <v>16227.034212873</v>
+        <v>16227.0354217269</v>
       </c>
       <c r="F16" t="n">
         <v>14695.83637031881</v>
@@ -1325,10 +1325,10 @@
         <v>14694.65964927264</v>
       </c>
       <c r="D17" t="n">
-        <v>12608.3250252995</v>
+        <v>12712.91652513849</v>
       </c>
       <c r="E17" t="n">
-        <v>15182.81792584698</v>
+        <v>15261.26009623402</v>
       </c>
       <c r="F17" t="n">
         <v>14694.65964927264</v>
@@ -1378,10 +1378,10 @@
         <v>14693.52222029842</v>
       </c>
       <c r="D18" t="n">
-        <v>12899.43862663505</v>
+        <v>12996.57422177999</v>
       </c>
       <c r="E18" t="n">
-        <v>15546.83988031973</v>
+        <v>15393.94769805205</v>
       </c>
       <c r="F18" t="n">
         <v>14693.52222029842</v>
@@ -1431,10 +1431,10 @@
         <v>14692.34687702507</v>
       </c>
       <c r="D19" t="n">
-        <v>12752.45556810157</v>
+        <v>12826.28021852133</v>
       </c>
       <c r="E19" t="n">
-        <v>15398.62791506044</v>
+        <v>15311.37119089202</v>
       </c>
       <c r="F19" t="n">
         <v>14692.34687702507</v>
@@ -1484,10 +1484,10 @@
         <v>14691.20944810698</v>
       </c>
       <c r="D20" t="n">
-        <v>12397.15453324743</v>
+        <v>12349.77027110874</v>
       </c>
       <c r="E20" t="n">
-        <v>14918.48214508717</v>
+        <v>14951.56724400819</v>
       </c>
       <c r="F20" t="n">
         <v>14691.20944810698</v>
@@ -1537,10 +1537,10 @@
         <v>14690.03410489163</v>
       </c>
       <c r="D21" t="n">
-        <v>13290.38380319531</v>
+        <v>13233.70920289488</v>
       </c>
       <c r="E21" t="n">
-        <v>15734.7949297075</v>
+        <v>15757.30250594291</v>
       </c>
       <c r="F21" t="n">
         <v>14690.03410489163</v>
@@ -1590,10 +1590,10 @@
         <v>14688.92533444202</v>
       </c>
       <c r="D22" t="n">
-        <v>12884.03234266012</v>
+        <v>12863.94484504074</v>
       </c>
       <c r="E22" t="n">
-        <v>15480.80023730114</v>
+        <v>15505.16832589165</v>
       </c>
       <c r="F22" t="n">
         <v>14688.92533444202</v>
@@ -1643,10 +1643,10 @@
         <v>14687.8523307811</v>
       </c>
       <c r="D23" t="n">
-        <v>14331.4112614066</v>
+        <v>14383.36348129943</v>
       </c>
       <c r="E23" t="n">
-        <v>16874.63068519716</v>
+        <v>16863.30603678325</v>
       </c>
       <c r="F23" t="n">
         <v>14687.8523307811</v>
@@ -1696,10 +1696,10 @@
         <v>14686.84959489215</v>
       </c>
       <c r="D24" t="n">
-        <v>12627.55805030153</v>
+        <v>12642.11464671219</v>
       </c>
       <c r="E24" t="n">
-        <v>15131.66141839196</v>
+        <v>15178.48719405097</v>
       </c>
       <c r="F24" t="n">
         <v>14686.84959489215</v>
@@ -1749,10 +1749,10 @@
         <v>14685.87920532219</v>
       </c>
       <c r="D25" t="n">
-        <v>12146.95551866032</v>
+        <v>12116.1456230267</v>
       </c>
       <c r="E25" t="n">
-        <v>14632.36222002851</v>
+        <v>14663.07836295586</v>
       </c>
       <c r="F25" t="n">
         <v>14685.87920532219</v>
@@ -1802,10 +1802,10 @@
         <v>14685.08322671396</v>
       </c>
       <c r="D26" t="n">
-        <v>14117.74883326016</v>
+        <v>14090.76123885811</v>
       </c>
       <c r="E26" t="n">
-        <v>16516.13330355883</v>
+        <v>16495.75994006235</v>
       </c>
       <c r="F26" t="n">
         <v>14685.08322671396</v>
@@ -1855,10 +1855,10 @@
         <v>14684.28724810573</v>
       </c>
       <c r="D27" t="n">
-        <v>11177.08792709974</v>
+        <v>11072.1180229253</v>
       </c>
       <c r="E27" t="n">
-        <v>13677.55031548649</v>
+        <v>13700.09548799446</v>
       </c>
       <c r="F27" t="n">
         <v>14684.28724810573</v>
@@ -1908,10 +1908,10 @@
         <v>14683.77624971051</v>
       </c>
       <c r="D28" t="n">
-        <v>12603.45439050999</v>
+        <v>12707.30521243442</v>
       </c>
       <c r="E28" t="n">
-        <v>15066.17109659119</v>
+        <v>15152.39323311105</v>
       </c>
       <c r="F28" t="n">
         <v>14683.77624971051</v>
@@ -1961,10 +1961,10 @@
         <v>14683.21050148723</v>
       </c>
       <c r="D29" t="n">
-        <v>12758.33518691508</v>
+        <v>12846.455911705</v>
       </c>
       <c r="E29" t="n">
-        <v>15361.1027413754</v>
+        <v>15420.89866650835</v>
       </c>
       <c r="F29" t="n">
         <v>14683.21050148723</v>
@@ -2014,10 +2014,10 @@
         <v>14682.9327453189</v>
       </c>
       <c r="D30" t="n">
-        <v>13148.72318805702</v>
+        <v>13123.55829663665</v>
       </c>
       <c r="E30" t="n">
-        <v>15613.10845625853</v>
+        <v>15559.94915400415</v>
       </c>
       <c r="F30" t="n">
         <v>14682.9327453189</v>
@@ -2067,10 +2067,10 @@
         <v>14682.64573061163</v>
       </c>
       <c r="D31" t="n">
-        <v>12623.90572081733</v>
+        <v>12560.78156969866</v>
       </c>
       <c r="E31" t="n">
-        <v>15139.86037417059</v>
+        <v>15193.30473070578</v>
       </c>
       <c r="F31" t="n">
         <v>14682.64573061163</v>
@@ -2120,10 +2120,10 @@
         <v>14873.02594046188</v>
       </c>
       <c r="D32" t="n">
-        <v>13158.01810053866</v>
+        <v>13218.0981901315</v>
       </c>
       <c r="E32" t="n">
-        <v>15701.74128946599</v>
+        <v>15795.87969901567</v>
       </c>
       <c r="F32" t="n">
         <v>14873.02594046188</v>
@@ -2173,10 +2173,10 @@
         <v>15069.75215730715</v>
       </c>
       <c r="D33" t="n">
-        <v>13524.27328333258</v>
+        <v>13435.60402284479</v>
       </c>
       <c r="E33" t="n">
-        <v>15964.72000676475</v>
+        <v>16000.20343706076</v>
       </c>
       <c r="F33" t="n">
         <v>15069.75215730715</v>
@@ -2226,10 +2226,10 @@
         <v>15266.62891947355</v>
       </c>
       <c r="D34" t="n">
-        <v>13081.433029876</v>
+        <v>13015.0886865708</v>
       </c>
       <c r="E34" t="n">
-        <v>15638.10437730236</v>
+        <v>15621.7802858739</v>
       </c>
       <c r="F34" t="n">
         <v>15266.62891947355</v>
@@ -2279,10 +2279,10 @@
         <v>15457.15481834427</v>
       </c>
       <c r="D35" t="n">
-        <v>15509.15283334374</v>
+        <v>15652.66058830021</v>
       </c>
       <c r="E35" t="n">
-        <v>18110.18933247724</v>
+        <v>18108.46994670052</v>
       </c>
       <c r="F35" t="n">
         <v>15457.15481834427</v>
@@ -2332,10 +2332,10 @@
         <v>15654.03239421042</v>
       </c>
       <c r="D36" t="n">
-        <v>13336.47616255821</v>
+        <v>13495.57475123417</v>
       </c>
       <c r="E36" t="n">
-        <v>15915.40979086799</v>
+        <v>16129.15720629594</v>
       </c>
       <c r="F36" t="n">
         <v>15654.03239421042</v>
@@ -2385,10 +2385,10 @@
         <v>15844.55908053251</v>
       </c>
       <c r="D37" t="n">
-        <v>12582.69960342584</v>
+        <v>12633.43022262889</v>
       </c>
       <c r="E37" t="n">
-        <v>15062.21902705804</v>
+        <v>15225.24219298093</v>
       </c>
       <c r="F37" t="n">
         <v>15844.55908053251</v>
@@ -2438,10 +2438,10 @@
         <v>16041.46542702068</v>
       </c>
       <c r="D38" t="n">
-        <v>16138.21945282952</v>
+        <v>16105.43005483273</v>
       </c>
       <c r="E38" t="n">
-        <v>18703.15641009385</v>
+        <v>18655.637076568</v>
       </c>
       <c r="F38" t="n">
         <v>16041.46542702068</v>
@@ -2491,10 +2491,10 @@
         <v>16238.4460920785</v>
       </c>
       <c r="D39" t="n">
-        <v>13297.48670807718</v>
+        <v>13370.60180856222</v>
       </c>
       <c r="E39" t="n">
-        <v>15923.236159477</v>
+        <v>15859.97841112019</v>
       </c>
       <c r="F39" t="n">
         <v>16238.4460920785</v>
@@ -2544,10 +2544,10 @@
         <v>16416.36411213072</v>
       </c>
       <c r="D40" t="n">
-        <v>13259.31589063521</v>
+        <v>13239.4472486224</v>
       </c>
       <c r="E40" t="n">
-        <v>15816.43271412915</v>
+        <v>15772.0796145244</v>
       </c>
       <c r="F40" t="n">
         <v>16416.36411213072</v>
@@ -2597,10 +2597,10 @@
         <v>16613.48516584269</v>
       </c>
       <c r="D41" t="n">
-        <v>14974.35396629288</v>
+        <v>14943.02561704911</v>
       </c>
       <c r="E41" t="n">
-        <v>17444.74909804114</v>
+        <v>17513.52030559639</v>
       </c>
       <c r="F41" t="n">
         <v>16613.48516584269</v>
@@ -2650,10 +2650,10 @@
         <v>16804.24747588654</v>
       </c>
       <c r="D42" t="n">
-        <v>15340.58550645564</v>
+        <v>15356.46184200841</v>
       </c>
       <c r="E42" t="n">
-        <v>17845.23993396046</v>
+        <v>17870.65781734945</v>
       </c>
       <c r="F42" t="n">
         <v>16804.24747588654</v>
@@ -2703,10 +2703,10 @@
         <v>17001.37275795263</v>
       </c>
       <c r="D43" t="n">
-        <v>14834.01061351351</v>
+        <v>14726.86992289552</v>
       </c>
       <c r="E43" t="n">
-        <v>17236.93524256898</v>
+        <v>17245.34130228754</v>
       </c>
       <c r="F43" t="n">
         <v>17001.37275795263</v>
@@ -2756,10 +2756,10 @@
         <v>17192.13915995207</v>
       </c>
       <c r="D44" t="n">
-        <v>15975.79470372271</v>
+        <v>16021.8903006705</v>
       </c>
       <c r="E44" t="n">
-        <v>18470.81442115086</v>
+        <v>18543.3533505319</v>
       </c>
       <c r="F44" t="n">
         <v>17192.13915995207</v>
@@ -2809,10 +2809,10 @@
         <v>17389.27526184685</v>
       </c>
       <c r="D45" t="n">
-        <v>15593.80815071506</v>
+        <v>15670.31072696567</v>
       </c>
       <c r="E45" t="n">
-        <v>18158.16132918058</v>
+        <v>18207.23951045819</v>
       </c>
       <c r="F45" t="n">
         <v>17389.27526184685</v>
@@ -2862,10 +2862,10 @@
         <v>17586.41136374163</v>
       </c>
       <c r="D46" t="n">
-        <v>15011.90791093043</v>
+        <v>14937.33877695687</v>
       </c>
       <c r="E46" t="n">
-        <v>17461.13965422596</v>
+        <v>17563.32366935648</v>
       </c>
       <c r="F46" t="n">
         <v>17586.41136374163</v>
@@ -2915,10 +2915,10 @@
         <v>17777.18823688477</v>
       </c>
       <c r="D47" t="n">
-        <v>18324.34187922221</v>
+        <v>18248.34683880693</v>
       </c>
       <c r="E47" t="n">
-        <v>20812.22896783223</v>
+        <v>20804.24801650751</v>
       </c>
       <c r="F47" t="n">
         <v>17777.18823688477</v>
@@ -2968,10 +2968,10 @@
         <v>17974.32433913268</v>
       </c>
       <c r="D48" t="n">
-        <v>15555.23237562011</v>
+        <v>15667.86317024569</v>
       </c>
       <c r="E48" t="n">
-        <v>18174.90390639206</v>
+        <v>18218.08256350821</v>
       </c>
       <c r="F48" t="n">
         <v>17974.32433913268</v>
@@ -3021,10 +3021,10 @@
         <v>18165.10121187942</v>
       </c>
       <c r="D49" t="n">
-        <v>14274.50801960407</v>
+        <v>14246.17841314533</v>
       </c>
       <c r="E49" t="n">
-        <v>16715.68075802139</v>
+        <v>16712.74289990334</v>
       </c>
       <c r="F49" t="n">
         <v>18165.10121187942</v>
@@ -3074,10 +3074,10 @@
         <v>18362.23731371773</v>
       </c>
       <c r="D50" t="n">
-        <v>19198.73571826748</v>
+        <v>19270.40215247483</v>
       </c>
       <c r="E50" t="n">
-        <v>21769.44842774387</v>
+        <v>21825.28202123266</v>
       </c>
       <c r="F50" t="n">
         <v>18362.23731371773</v>
@@ -3127,10 +3127,10 @@
         <v>18559.37341596885</v>
       </c>
       <c r="D51" t="n">
-        <v>16381.8245825041</v>
+        <v>16365.99139552527</v>
       </c>
       <c r="E51" t="n">
-        <v>19031.83365805821</v>
+        <v>18950.42736379231</v>
       </c>
       <c r="F51" t="n">
         <v>18559.37341596885</v>
@@ -3180,10 +3180,10 @@
         <v>18743.79106001022</v>
       </c>
       <c r="D52" t="n">
-        <v>18870.68396750141</v>
+        <v>18891.53089627937</v>
       </c>
       <c r="E52" t="n">
-        <v>21358.87554819518</v>
+        <v>21323.48722680451</v>
       </c>
       <c r="F52" t="n">
         <v>18743.79106001022</v>
@@ -3233,10 +3233,10 @@
         <v>18940.92716226134</v>
       </c>
       <c r="D53" t="n">
-        <v>16757.18132974182</v>
+        <v>16767.20990403377</v>
       </c>
       <c r="E53" t="n">
-        <v>19292.84770801714</v>
+        <v>19268.35891698654</v>
       </c>
       <c r="F53" t="n">
         <v>18940.92716226134</v>
@@ -3286,10 +3286,10 @@
         <v>19131.70403540758</v>
       </c>
       <c r="D54" t="n">
-        <v>17352.95306188707</v>
+        <v>17322.10950448854</v>
       </c>
       <c r="E54" t="n">
-        <v>19909.02908092805</v>
+        <v>19784.80968917385</v>
       </c>
       <c r="F54" t="n">
         <v>19131.70403540758</v>
@@ -3339,10 +3339,10 @@
         <v>19328.8401376587</v>
       </c>
       <c r="D55" t="n">
-        <v>17578.21650431727</v>
+        <v>17641.54315024001</v>
       </c>
       <c r="E55" t="n">
-        <v>19987.21630393422</v>
+        <v>20250.71685053607</v>
       </c>
       <c r="F55" t="n">
         <v>19328.8401376587</v>
@@ -3392,10 +3392,10 @@
         <v>19519.61701080494</v>
       </c>
       <c r="D56" t="n">
-        <v>16731.84421696775</v>
+        <v>16738.72493147093</v>
       </c>
       <c r="E56" t="n">
-        <v>19203.13458505735</v>
+        <v>19267.62963849922</v>
       </c>
       <c r="F56" t="n">
         <v>19519.61701080494</v>
@@ -3445,10 +3445,10 @@
         <v>19716.75311305606</v>
       </c>
       <c r="D57" t="n">
-        <v>18470.24828081537</v>
+        <v>18400.37695531417</v>
       </c>
       <c r="E57" t="n">
-        <v>20981.28024716277</v>
+        <v>20966.32852748417</v>
       </c>
       <c r="F57" t="n">
         <v>19716.75311305606</v>
@@ -3498,10 +3498,10 @@
         <v>19913.88921530718</v>
       </c>
       <c r="D58" t="n">
-        <v>18611.42676662875</v>
+        <v>18600.92516456878</v>
       </c>
       <c r="E58" t="n">
-        <v>21136.51281735422</v>
+        <v>21131.7776774259</v>
       </c>
       <c r="F58" t="n">
         <v>19913.88921530718</v>
@@ -3551,10 +3551,10 @@
         <v>20104.66608845342</v>
       </c>
       <c r="D59" t="n">
-        <v>19336.96669543037</v>
+        <v>19342.48755510569</v>
       </c>
       <c r="E59" t="n">
-        <v>21907.17105061475</v>
+        <v>21868.87152889712</v>
       </c>
       <c r="F59" t="n">
         <v>20104.66608845342</v>
@@ -3604,10 +3604,10 @@
         <v>20301.80219070454</v>
       </c>
       <c r="D60" t="n">
-        <v>18370.61162566036</v>
+        <v>18381.71006122891</v>
       </c>
       <c r="E60" t="n">
-        <v>20943.57943970239</v>
+        <v>20976.83307676126</v>
       </c>
       <c r="F60" t="n">
         <v>20301.80219070454</v>
@@ -3657,10 +3657,10 @@
         <v>20492.57906385079</v>
       </c>
       <c r="D61" t="n">
-        <v>18648.92576562941</v>
+        <v>18588.46035302522</v>
       </c>
       <c r="E61" t="n">
-        <v>21168.55859446009</v>
+        <v>21150.31528464601</v>
       </c>
       <c r="F61" t="n">
         <v>20492.57906385079</v>
@@ -3710,10 +3710,10 @@
         <v>20689.7151661019</v>
       </c>
       <c r="D62" t="n">
-        <v>19282.91958222977</v>
+        <v>19265.38486875035</v>
       </c>
       <c r="E62" t="n">
-        <v>21861.30273183868</v>
+        <v>21866.87323495973</v>
       </c>
       <c r="F62" t="n">
         <v>20689.7151661019</v>
@@ -3763,10 +3763,10 @@
         <v>20886.85126835302</v>
       </c>
       <c r="D63" t="n">
-        <v>16598.71575889144</v>
+        <v>16629.45965121802</v>
       </c>
       <c r="E63" t="n">
-        <v>19261.31551192107</v>
+        <v>19186.67874392785</v>
       </c>
       <c r="F63" t="n">
         <v>20886.85126835302</v>
@@ -3816,10 +3816,10 @@
         <v>21064.90968328952</v>
       </c>
       <c r="D64" t="n">
-        <v>20031.49386624191</v>
+        <v>20119.67927735315</v>
       </c>
       <c r="E64" t="n">
-        <v>22498.47549782078</v>
+        <v>22574.33772126333</v>
       </c>
       <c r="F64" t="n">
         <v>21064.90968328952</v>
@@ -3869,10 +3869,10 @@
         <v>21262.04578554063</v>
       </c>
       <c r="D65" t="n">
-        <v>19260.7917464042</v>
+        <v>19234.44255781373</v>
       </c>
       <c r="E65" t="n">
-        <v>21791.1570537674</v>
+        <v>21746.72745754517</v>
       </c>
       <c r="F65" t="n">
         <v>21262.04578554063</v>
@@ -3922,10 +3922,10 @@
         <v>21452.82265868688</v>
       </c>
       <c r="D66" t="n">
-        <v>19727.80992028383</v>
+        <v>19671.55429934461</v>
       </c>
       <c r="E66" t="n">
-        <v>22233.88552138754</v>
+        <v>22243.05271162822</v>
       </c>
       <c r="F66" t="n">
         <v>21452.82265868688</v>
@@ -3975,10 +3975,10 @@
         <v>21649.958760938</v>
       </c>
       <c r="D67" t="n">
-        <v>19717.61747650659</v>
+        <v>19745.24072346292</v>
       </c>
       <c r="E67" t="n">
-        <v>22222.10187309387</v>
+        <v>22298.75313814635</v>
       </c>
       <c r="F67" t="n">
         <v>21649.958760938</v>
@@ -4028,10 +4028,10 @@
         <v>21840.73563408424</v>
       </c>
       <c r="D68" t="n">
-        <v>19549.04653962476</v>
+        <v>19540.82326133951</v>
       </c>
       <c r="E68" t="n">
-        <v>22151.32144406163</v>
+        <v>22088.14106712647</v>
       </c>
       <c r="F68" t="n">
         <v>21840.73563408424</v>
@@ -4081,10 +4081,10 @@
         <v>22037.87173633536</v>
       </c>
       <c r="D69" t="n">
-        <v>20617.56865289814</v>
+        <v>20500.87914055024</v>
       </c>
       <c r="E69" t="n">
-        <v>23042.16924093532</v>
+        <v>23208.44712740297</v>
       </c>
       <c r="F69" t="n">
         <v>22037.87173633536</v>
@@ -4134,10 +4134,10 @@
         <v>22235.00783858648</v>
       </c>
       <c r="D70" t="n">
-        <v>20459.6168661696</v>
+        <v>20492.97421679135</v>
       </c>
       <c r="E70" t="n">
-        <v>22935.61345997671</v>
+        <v>23007.73340433775</v>
       </c>
       <c r="F70" t="n">
         <v>22235.00783858648</v>
@@ -4187,10 +4187,10 @@
         <v>22425.78471173272</v>
       </c>
       <c r="D71" t="n">
-        <v>22132.36838897348</v>
+        <v>22026.07447428061</v>
       </c>
       <c r="E71" t="n">
-        <v>24650.71855049911</v>
+        <v>24585.51327078551</v>
       </c>
       <c r="F71" t="n">
         <v>22425.78471173272</v>
@@ -4240,10 +4240,10 @@
         <v>22622.92081398384</v>
       </c>
       <c r="D72" t="n">
-        <v>20602.73858600468</v>
+        <v>20544.21063259965</v>
       </c>
       <c r="E72" t="n">
-        <v>23184.84696248704</v>
+        <v>23128.80987888564</v>
       </c>
       <c r="F72" t="n">
         <v>22622.92081398384</v>
@@ -4293,10 +4293,10 @@
         <v>22813.69768713008</v>
       </c>
       <c r="D73" t="n">
-        <v>20371.99827551475</v>
+        <v>20344.2219308345</v>
       </c>
       <c r="E73" t="n">
-        <v>22816.93553114454</v>
+        <v>22880.61318604263</v>
       </c>
       <c r="F73" t="n">
         <v>22813.69768713008</v>
@@ -4346,10 +4346,10 @@
         <v>23010.8337893812</v>
       </c>
       <c r="D74" t="n">
-        <v>22387.89749135979</v>
+        <v>22349.91225386367</v>
       </c>
       <c r="E74" t="n">
-        <v>24983.05275627056</v>
+        <v>24948.39239018571</v>
       </c>
       <c r="F74" t="n">
         <v>23010.8337893812</v>
@@ -4399,10 +4399,10 @@
         <v>23207.96989163232</v>
       </c>
       <c r="D75" t="n">
-        <v>19743.91263468054</v>
+        <v>19673.34628014567</v>
       </c>
       <c r="E75" t="n">
-        <v>22231.0271453008</v>
+        <v>22187.83296957189</v>
       </c>
       <c r="F75" t="n">
         <v>23207.96989163232</v>
@@ -4452,10 +4452,10 @@
         <v>23386.02830656882</v>
       </c>
       <c r="D76" t="n">
-        <v>21211.00512520361</v>
+        <v>21267.28745196088</v>
       </c>
       <c r="E76" t="n">
-        <v>23909.81440842458</v>
+        <v>23803.02739770537</v>
       </c>
       <c r="F76" t="n">
         <v>23386.02830656882</v>
@@ -4505,10 +4505,10 @@
         <v>23583.16440881993</v>
       </c>
       <c r="D77" t="n">
-        <v>21812.9480050305</v>
+        <v>21746.66826523183</v>
       </c>
       <c r="E77" t="n">
-        <v>24248.04464285381</v>
+        <v>24221.60458560975</v>
       </c>
       <c r="F77" t="n">
         <v>23583.16440881993</v>
@@ -4558,16 +4558,16 @@
         <v>23773.94128196618</v>
       </c>
       <c r="D78" t="n">
-        <v>22132.02722347837</v>
+        <v>22256.72278761355</v>
       </c>
       <c r="E78" t="n">
-        <v>24784.95689619466</v>
+        <v>24716.56273241379</v>
       </c>
       <c r="F78" t="n">
-        <v>23773.28773683038</v>
+        <v>23773.11708830964</v>
       </c>
       <c r="G78" t="n">
-        <v>23775.6223890829</v>
+        <v>23774.75929355581</v>
       </c>
       <c r="H78" t="n">
         <v>-346.4108234833383</v>
@@ -4611,16 +4611,16 @@
         <v>23971.0773842173</v>
       </c>
       <c r="D79" t="n">
-        <v>21839.26439728673</v>
+        <v>21822.13021299423</v>
       </c>
       <c r="E79" t="n">
-        <v>24461.79157883752</v>
+        <v>24494.64118647842</v>
       </c>
       <c r="F79" t="n">
-        <v>23963.63693217304</v>
+        <v>23964.36609399067</v>
       </c>
       <c r="G79" t="n">
-        <v>23979.11971579559</v>
+        <v>23976.9789077026</v>
       </c>
       <c r="H79" t="n">
         <v>-817.2283696427538</v>
@@ -4664,16 +4664,16 @@
         <v>24161.85425736354</v>
       </c>
       <c r="D80" t="n">
-        <v>22425.01728415569</v>
+        <v>22519.24950895168</v>
       </c>
       <c r="E80" t="n">
-        <v>24979.41324221225</v>
+        <v>24966.19145092939</v>
       </c>
       <c r="F80" t="n">
-        <v>24145.44642952063</v>
+        <v>24145.72087654576</v>
       </c>
       <c r="G80" t="n">
-        <v>24180.44162033036</v>
+        <v>24175.59974434161</v>
       </c>
       <c r="H80" t="n">
         <v>-453.3025085911792</v>
@@ -4717,16 +4717,16 @@
         <v>24358.99035961466</v>
       </c>
       <c r="D81" t="n">
-        <v>22768.93216958654</v>
+        <v>22766.30190508717</v>
       </c>
       <c r="E81" t="n">
-        <v>25233.10556607902</v>
+        <v>25342.87854952695</v>
       </c>
       <c r="F81" t="n">
-        <v>24329.38689503099</v>
+        <v>24329.67400541786</v>
       </c>
       <c r="G81" t="n">
-        <v>24388.99697233967</v>
+        <v>24383.95153378849</v>
       </c>
       <c r="H81" t="n">
         <v>-331.3605769706869</v>
@@ -4770,16 +4770,16 @@
         <v>24556.12646186578</v>
       </c>
       <c r="D82" t="n">
-        <v>22245.56302323692</v>
+        <v>22358.70779533817</v>
       </c>
       <c r="E82" t="n">
-        <v>24945.47164497191</v>
+        <v>24880.23049861998</v>
       </c>
       <c r="F82" t="n">
-        <v>24511.18074811184</v>
+        <v>24513.70299883795</v>
       </c>
       <c r="G82" t="n">
-        <v>24599.79409291132</v>
+        <v>24594.09258796845</v>
       </c>
       <c r="H82" t="n">
         <v>-940.613818251504</v>
@@ -4823,16 +4823,16 @@
         <v>24746.90333501202</v>
       </c>
       <c r="D83" t="n">
-        <v>24784.07279416999</v>
+        <v>24844.02879990573</v>
       </c>
       <c r="E83" t="n">
-        <v>27354.13165789214</v>
+        <v>27453.96679235338</v>
       </c>
       <c r="F83" t="n">
-        <v>24686.66601590376</v>
+        <v>24690.02304648695</v>
       </c>
       <c r="G83" t="n">
-        <v>24807.68177876926</v>
+        <v>24800.04857342663</v>
       </c>
       <c r="H83" t="n">
         <v>1344.514946102574</v>
@@ -4876,16 +4876,16 @@
         <v>24944.03943726314</v>
       </c>
       <c r="D84" t="n">
-        <v>22771.83548942145</v>
+        <v>22736.16018489804</v>
       </c>
       <c r="E84" t="n">
-        <v>25401.80871598607</v>
+        <v>25259.15129924278</v>
       </c>
       <c r="F84" t="n">
-        <v>24865.75056005295</v>
+        <v>24869.20539952824</v>
       </c>
       <c r="G84" t="n">
-        <v>25021.54258467045</v>
+        <v>25012.02132598081</v>
       </c>
       <c r="H84" t="n">
         <v>-911.2942107535624</v>
@@ -4929,16 +4929,16 @@
         <v>25134.81631040939</v>
       </c>
       <c r="D85" t="n">
-        <v>21857.78190545338</v>
+        <v>21839.09312978593</v>
       </c>
       <c r="E85" t="n">
-        <v>24460.25737732503</v>
+        <v>24501.67840384146</v>
       </c>
       <c r="F85" t="n">
-        <v>25035.6717150095</v>
+        <v>25046.17171202159</v>
       </c>
       <c r="G85" t="n">
-        <v>25230.7849462087</v>
+        <v>25220.07633017822</v>
       </c>
       <c r="H85" t="n">
         <v>-1961.799470250444</v>
@@ -4982,16 +4982,16 @@
         <v>25331.9524126605</v>
       </c>
       <c r="D86" t="n">
-        <v>25300.406015169</v>
+        <v>25399.94957868953</v>
       </c>
       <c r="E86" t="n">
-        <v>28019.678501203</v>
+        <v>28051.01276876735</v>
       </c>
       <c r="F86" t="n">
-        <v>25211.31208320165</v>
+        <v>25226.84986960005</v>
       </c>
       <c r="G86" t="n">
-        <v>25446.08622461557</v>
+        <v>25436.31693400845</v>
       </c>
       <c r="H86" t="n">
         <v>1364.876868105001</v>
@@ -5035,16 +5035,16 @@
         <v>25529.08851491162</v>
       </c>
       <c r="D87" t="n">
-        <v>22774.22052394643</v>
+        <v>22652.46732198083</v>
       </c>
       <c r="E87" t="n">
-        <v>25257.23746816894</v>
+        <v>25239.41357884391</v>
       </c>
       <c r="F87" t="n">
-        <v>25390.20177182412</v>
+        <v>25405.14595761237</v>
       </c>
       <c r="G87" t="n">
-        <v>25668.60432145292</v>
+        <v>25654.27001349586</v>
       </c>
       <c r="H87" t="n">
         <v>-1581.913722893457</v>
@@ -5088,16 +5088,16 @@
         <v>25707.14692984812</v>
       </c>
       <c r="D88" t="n">
-        <v>22531.01172041568</v>
+        <v>22648.58466052594</v>
       </c>
       <c r="E88" t="n">
-        <v>25018.14767758354</v>
+        <v>25125.94846072364</v>
       </c>
       <c r="F88" t="n">
-        <v>25549.10153389707</v>
+        <v>25564.04858029323</v>
       </c>
       <c r="G88" t="n">
-        <v>25864.38895885554</v>
+        <v>25850.69912120152</v>
       </c>
       <c r="H88" t="n">
         <v>-1878.342338206379</v>
@@ -5141,16 +5141,16 @@
         <v>25904.28303209923</v>
       </c>
       <c r="D89" t="n">
-        <v>24232.50262081195</v>
+        <v>24203.06221048048</v>
       </c>
       <c r="E89" t="n">
-        <v>26865.18503221776</v>
+        <v>26744.9643922106</v>
       </c>
       <c r="F89" t="n">
-        <v>25722.64643632494</v>
+        <v>25736.98169556718</v>
       </c>
       <c r="G89" t="n">
-        <v>26084.38137575941</v>
+        <v>26070.66157424571</v>
       </c>
       <c r="H89" t="n">
         <v>-366.1945477629178</v>
@@ -5194,16 +5194,16 @@
         <v>26095.05990524547</v>
       </c>
       <c r="D90" t="n">
-        <v>24652.7070233134</v>
+        <v>24515.4278603958</v>
       </c>
       <c r="E90" t="n">
-        <v>27163.50768992808</v>
+        <v>27150.55651263598</v>
       </c>
       <c r="F90" t="n">
-        <v>25891.30206958695</v>
+        <v>25903.8485297158</v>
       </c>
       <c r="G90" t="n">
-        <v>26300.13341377205</v>
+        <v>26285.08846439116</v>
       </c>
       <c r="H90" t="n">
         <v>-245.6985355192124</v>
@@ -5247,16 +5247,16 @@
         <v>26292.1960074966</v>
       </c>
       <c r="D91" t="n">
-        <v>24019.4817522881</v>
+        <v>23977.35472054234</v>
       </c>
       <c r="E91" t="n">
-        <v>26547.29939710179</v>
+        <v>26660.95348003259</v>
       </c>
       <c r="F91" t="n">
-        <v>26062.34243566966</v>
+        <v>26076.47667610177</v>
       </c>
       <c r="G91" t="n">
-        <v>26519.68100909175</v>
+        <v>26506.53999268081</v>
       </c>
       <c r="H91" t="n">
         <v>-990.5647524619419</v>
@@ -5300,16 +5300,16 @@
         <v>26482.97288064284</v>
       </c>
       <c r="D92" t="n">
-        <v>25291.22776348422</v>
+        <v>25297.14622677285</v>
       </c>
       <c r="E92" t="n">
-        <v>27847.03064285863</v>
+        <v>27849.27349745021</v>
       </c>
       <c r="F92" t="n">
-        <v>26226.31567009789</v>
+        <v>26242.76961287293</v>
       </c>
       <c r="G92" t="n">
-        <v>26735.58307595904</v>
+        <v>26721.3484672533</v>
       </c>
       <c r="H92" t="n">
         <v>88.50062680214582</v>
@@ -5353,16 +5353,16 @@
         <v>26680.10898289396</v>
       </c>
       <c r="D93" t="n">
-        <v>24972.65026335164</v>
+        <v>24850.54313853828</v>
       </c>
       <c r="E93" t="n">
-        <v>27599.96941139671</v>
+        <v>27537.30312879711</v>
       </c>
       <c r="F93" t="n">
-        <v>26396.18905636905</v>
+        <v>26414.16567139834</v>
       </c>
       <c r="G93" t="n">
-        <v>26970.2922995316</v>
+        <v>26950.01041953692</v>
       </c>
       <c r="H93" t="n">
         <v>-473.5440929079314</v>
@@ -5406,16 +5406,16 @@
         <v>26877.24508514508</v>
       </c>
       <c r="D94" t="n">
-        <v>24158.22575231677</v>
+        <v>24252.47272886184</v>
       </c>
       <c r="E94" t="n">
-        <v>26853.48653279972</v>
+        <v>26822.58095983329</v>
       </c>
       <c r="F94" t="n">
-        <v>26567.20933804772</v>
+        <v>26575.60000276616</v>
       </c>
       <c r="G94" t="n">
-        <v>27196.78395476486</v>
+        <v>27174.750117892</v>
       </c>
       <c r="H94" t="n">
         <v>-1356.99737684261</v>

--- a/outputs/wl_retention_monthly.xlsx
+++ b/outputs/wl_retention_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>14711.96882380103</v>
+        <v>5231.953880331452</v>
       </c>
       <c r="D2" t="n">
-        <v>15542.98169758304</v>
+        <v>5087.810271897674</v>
       </c>
       <c r="E2" t="n">
-        <v>18114.8625893554</v>
+        <v>8924.410712097124</v>
       </c>
       <c r="F2" t="n">
-        <v>14711.96882380103</v>
+        <v>5231.953880331452</v>
       </c>
       <c r="G2" t="n">
-        <v>14711.96882380103</v>
+        <v>5231.953880331452</v>
       </c>
       <c r="H2" t="n">
-        <v>2118.649779800357</v>
+        <v>1768.317335774776</v>
       </c>
       <c r="I2" t="n">
-        <v>2118.649779800357</v>
+        <v>1768.317335774776</v>
       </c>
       <c r="J2" t="n">
-        <v>2118.649779800357</v>
+        <v>1768.317335774776</v>
       </c>
       <c r="K2" t="n">
-        <v>2118.649779800357</v>
+        <v>1768.317335774776</v>
       </c>
       <c r="L2" t="n">
-        <v>2118.649779800357</v>
+        <v>1768.317335774776</v>
       </c>
       <c r="M2" t="n">
-        <v>2118.649779800357</v>
+        <v>1768.317335774776</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16830.61860360139</v>
+        <v>7000.271216106228</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>14710.79210380392</v>
+        <v>5644.661285420476</v>
       </c>
       <c r="D3" t="n">
-        <v>12647.86037376858</v>
+        <v>3693.445845205519</v>
       </c>
       <c r="E3" t="n">
-        <v>15080.14483977128</v>
+        <v>7556.407196347051</v>
       </c>
       <c r="F3" t="n">
-        <v>14710.79210380392</v>
+        <v>5644.661285420476</v>
       </c>
       <c r="G3" t="n">
-        <v>14710.79210380392</v>
+        <v>5644.661285420476</v>
       </c>
       <c r="H3" t="n">
-        <v>-902.6933215846643</v>
+        <v>-94.18204835858188</v>
       </c>
       <c r="I3" t="n">
-        <v>-902.6933215846643</v>
+        <v>-94.18204835858188</v>
       </c>
       <c r="J3" t="n">
-        <v>-902.6933215846643</v>
+        <v>-94.18204835858188</v>
       </c>
       <c r="K3" t="n">
-        <v>-902.6933215846643</v>
+        <v>-94.18204835858188</v>
       </c>
       <c r="L3" t="n">
-        <v>-902.6933215846643</v>
+        <v>-94.18204835858188</v>
       </c>
       <c r="M3" t="n">
-        <v>-902.6933215846643</v>
+        <v>-94.18204835858188</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>13808.09878221926</v>
+        <v>5550.479237061894</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>14709.69130122598</v>
+        <v>6017.429264210562</v>
       </c>
       <c r="D4" t="n">
-        <v>14818.39478269737</v>
+        <v>5282.498832076586</v>
       </c>
       <c r="E4" t="n">
-        <v>17418.55837895447</v>
+        <v>8928.460394179865</v>
       </c>
       <c r="F4" t="n">
-        <v>14709.69130122598</v>
+        <v>6017.429264210562</v>
       </c>
       <c r="G4" t="n">
-        <v>14709.69130122598</v>
+        <v>6017.429264210562</v>
       </c>
       <c r="H4" t="n">
-        <v>1337.121708909203</v>
+        <v>1040.89705581409</v>
       </c>
       <c r="I4" t="n">
-        <v>1337.121708909203</v>
+        <v>1040.89705581409</v>
       </c>
       <c r="J4" t="n">
-        <v>1337.121708909203</v>
+        <v>1040.89705581409</v>
       </c>
       <c r="K4" t="n">
-        <v>1337.121708909203</v>
+        <v>1040.89705581409</v>
       </c>
       <c r="L4" t="n">
-        <v>1337.121708909203</v>
+        <v>1040.89705581409</v>
       </c>
       <c r="M4" t="n">
-        <v>1337.121708909203</v>
+        <v>1040.89705581409</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>16046.81301013519</v>
+        <v>7058.326320024652</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>14708.51458151177</v>
+        <v>6430.136668998362</v>
       </c>
       <c r="D5" t="n">
-        <v>12491.22882491841</v>
+        <v>5089.543139523317</v>
       </c>
       <c r="E5" t="n">
-        <v>15023.5481012451</v>
+        <v>8758.947796438722</v>
       </c>
       <c r="F5" t="n">
-        <v>14708.51458151177</v>
+        <v>6430.136668998362</v>
       </c>
       <c r="G5" t="n">
-        <v>14708.51458151177</v>
+        <v>6430.136668998362</v>
       </c>
       <c r="H5" t="n">
-        <v>-933.384790015088</v>
+        <v>592.3680058258776</v>
       </c>
       <c r="I5" t="n">
-        <v>-933.384790015088</v>
+        <v>592.3680058258776</v>
       </c>
       <c r="J5" t="n">
-        <v>-933.384790015088</v>
+        <v>592.3680058258776</v>
       </c>
       <c r="K5" t="n">
-        <v>-933.384790015088</v>
+        <v>592.3680058258776</v>
       </c>
       <c r="L5" t="n">
-        <v>-933.384790015088</v>
+        <v>592.3680058258776</v>
       </c>
       <c r="M5" t="n">
-        <v>-933.384790015088</v>
+        <v>592.3680058258776</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>13775.12979149668</v>
+        <v>7022.504674824239</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>14707.37582049802</v>
+        <v>6829.530931696233</v>
       </c>
       <c r="D6" t="n">
-        <v>12910.27409740421</v>
+        <v>5103.409112293455</v>
       </c>
       <c r="E6" t="n">
-        <v>15486.27120179042</v>
+        <v>8793.093432723454</v>
       </c>
       <c r="F6" t="n">
-        <v>14707.37582049802</v>
+        <v>6829.530931696233</v>
       </c>
       <c r="G6" t="n">
-        <v>14707.37582049802</v>
+        <v>6829.530931696233</v>
       </c>
       <c r="H6" t="n">
-        <v>-544.2539923283615</v>
+        <v>182.2842723893554</v>
       </c>
       <c r="I6" t="n">
-        <v>-544.2539923283615</v>
+        <v>182.2842723893554</v>
       </c>
       <c r="J6" t="n">
-        <v>-544.2539923283615</v>
+        <v>182.2842723893554</v>
       </c>
       <c r="K6" t="n">
-        <v>-544.2539923283615</v>
+        <v>182.2842723893554</v>
       </c>
       <c r="L6" t="n">
-        <v>-544.2539923283615</v>
+        <v>182.2842723893554</v>
       </c>
       <c r="M6" t="n">
-        <v>-544.2539923283615</v>
+        <v>182.2842723893554</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14163.12182816966</v>
+        <v>7011.815204085588</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>14706.1991006469</v>
+        <v>7242.238336480499</v>
       </c>
       <c r="D7" t="n">
-        <v>13007.82081330657</v>
+        <v>5376.484670271967</v>
       </c>
       <c r="E7" t="n">
-        <v>15459.69364941322</v>
+        <v>9220.743350838244</v>
       </c>
       <c r="F7" t="n">
-        <v>14706.1991006469</v>
+        <v>7242.238336480499</v>
       </c>
       <c r="G7" t="n">
-        <v>14706.1991006469</v>
+        <v>7242.238336480499</v>
       </c>
       <c r="H7" t="n">
-        <v>-452.1165577253029</v>
+        <v>26.94864349949422</v>
       </c>
       <c r="I7" t="n">
-        <v>-452.1165577253029</v>
+        <v>26.94864349949422</v>
       </c>
       <c r="J7" t="n">
-        <v>-452.1165577253029</v>
+        <v>26.94864349949422</v>
       </c>
       <c r="K7" t="n">
-        <v>-452.1165577253029</v>
+        <v>26.94864349949422</v>
       </c>
       <c r="L7" t="n">
-        <v>-452.1165577253029</v>
+        <v>26.94864349949422</v>
       </c>
       <c r="M7" t="n">
-        <v>-452.1165577253029</v>
+        <v>26.94864349949422</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14254.0825429216</v>
+        <v>7269.186979979993</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>14705.06033950066</v>
+        <v>7641.632599174951</v>
       </c>
       <c r="D8" t="n">
-        <v>11951.09806612991</v>
+        <v>4844.632080123743</v>
       </c>
       <c r="E8" t="n">
-        <v>14476.79337149712</v>
+        <v>8653.835847687324</v>
       </c>
       <c r="F8" t="n">
-        <v>14705.06033950066</v>
+        <v>7641.632599174951</v>
       </c>
       <c r="G8" t="n">
-        <v>14705.06033950066</v>
+        <v>7641.632599174951</v>
       </c>
       <c r="H8" t="n">
-        <v>-1542.330320732008</v>
+        <v>-890.7431516130179</v>
       </c>
       <c r="I8" t="n">
-        <v>-1542.330320732008</v>
+        <v>-890.7431516130179</v>
       </c>
       <c r="J8" t="n">
-        <v>-1542.330320732008</v>
+        <v>-890.7431516130179</v>
       </c>
       <c r="K8" t="n">
-        <v>-1542.330320732008</v>
+        <v>-890.7431516130179</v>
       </c>
       <c r="L8" t="n">
-        <v>-1542.330320732008</v>
+        <v>-890.7431516130179</v>
       </c>
       <c r="M8" t="n">
-        <v>-1542.330320732008</v>
+        <v>-890.7431516130179</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>13162.73001876865</v>
+        <v>6750.889447561933</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>14703.88361936597</v>
+        <v>8054.340004051309</v>
       </c>
       <c r="D9" t="n">
-        <v>13436.19807106982</v>
+        <v>5359.613072473608</v>
       </c>
       <c r="E9" t="n">
-        <v>15927.30759114357</v>
+        <v>9175.494189761777</v>
       </c>
       <c r="F9" t="n">
-        <v>14703.88361936597</v>
+        <v>8054.340004051309</v>
       </c>
       <c r="G9" t="n">
-        <v>14703.88361936597</v>
+        <v>8054.340004051309</v>
       </c>
       <c r="H9" t="n">
-        <v>-83.90042084630277</v>
+        <v>-799.7352404113684</v>
       </c>
       <c r="I9" t="n">
-        <v>-83.90042084630277</v>
+        <v>-799.7352404113684</v>
       </c>
       <c r="J9" t="n">
-        <v>-83.90042084630277</v>
+        <v>-799.7352404113684</v>
       </c>
       <c r="K9" t="n">
-        <v>-83.90042084630277</v>
+        <v>-799.7352404113684</v>
       </c>
       <c r="L9" t="n">
-        <v>-83.90042084630277</v>
+        <v>-799.7352404113684</v>
       </c>
       <c r="M9" t="n">
-        <v>-83.90042084630277</v>
+        <v>-799.7352404113684</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14619.98319851967</v>
+        <v>7254.604763639941</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>14702.70689923129</v>
+        <v>8467.047408927667</v>
       </c>
       <c r="D10" t="n">
-        <v>13376.25186821745</v>
+        <v>5717.771584962952</v>
       </c>
       <c r="E10" t="n">
-        <v>15894.44264823707</v>
+        <v>9445.250567387979</v>
       </c>
       <c r="F10" t="n">
-        <v>14702.70689923129</v>
+        <v>8467.047408927667</v>
       </c>
       <c r="G10" t="n">
-        <v>14702.70689923129</v>
+        <v>8467.047408927667</v>
       </c>
       <c r="H10" t="n">
-        <v>-97.01193770802391</v>
+        <v>-902.2073013748823</v>
       </c>
       <c r="I10" t="n">
-        <v>-97.01193770802391</v>
+        <v>-902.2073013748823</v>
       </c>
       <c r="J10" t="n">
-        <v>-97.01193770802391</v>
+        <v>-902.2073013748823</v>
       </c>
       <c r="K10" t="n">
-        <v>-97.01193770802391</v>
+        <v>-902.2073013748823</v>
       </c>
       <c r="L10" t="n">
-        <v>-97.01193770802391</v>
+        <v>-902.2073013748823</v>
       </c>
       <c r="M10" t="n">
-        <v>-97.01193770802391</v>
+        <v>-902.2073013748823</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14605.69496152327</v>
+        <v>7564.840107552785</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>14701.56813783103</v>
+        <v>8866.441671373008</v>
       </c>
       <c r="D11" t="n">
-        <v>13894.5199254975</v>
+        <v>7988.29359337521</v>
       </c>
       <c r="E11" t="n">
-        <v>16521.17447745018</v>
+        <v>11799.79583403149</v>
       </c>
       <c r="F11" t="n">
-        <v>14701.56813783103</v>
+        <v>8866.441671373008</v>
       </c>
       <c r="G11" t="n">
-        <v>14701.56813783103</v>
+        <v>8866.441671373008</v>
       </c>
       <c r="H11" t="n">
-        <v>491.3329562366717</v>
+        <v>987.7083735812118</v>
       </c>
       <c r="I11" t="n">
-        <v>491.3329562366717</v>
+        <v>987.7083735812118</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3329562366717</v>
+        <v>987.7083735812118</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3329562366717</v>
+        <v>987.7083735812118</v>
       </c>
       <c r="L11" t="n">
-        <v>491.3329562366717</v>
+        <v>987.7083735812118</v>
       </c>
       <c r="M11" t="n">
-        <v>491.3329562366717</v>
+        <v>987.7083735812118</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>15192.90109406771</v>
+        <v>9854.15004495422</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>14700.39141771743</v>
+        <v>9279.149075899861</v>
       </c>
       <c r="D12" t="n">
-        <v>12860.67124793126</v>
+        <v>7105.499624625346</v>
       </c>
       <c r="E12" t="n">
-        <v>15280.62014223456</v>
+        <v>10762.8013796986</v>
       </c>
       <c r="F12" t="n">
-        <v>14700.39141771743</v>
+        <v>9279.149075899861</v>
       </c>
       <c r="G12" t="n">
-        <v>14700.39141771743</v>
+        <v>9279.149075899861</v>
       </c>
       <c r="H12" t="n">
-        <v>-627.3306942268835</v>
+        <v>-220.4701490778845</v>
       </c>
       <c r="I12" t="n">
-        <v>-627.3306942268835</v>
+        <v>-220.4701490778845</v>
       </c>
       <c r="J12" t="n">
-        <v>-627.3306942268835</v>
+        <v>-220.4701490778845</v>
       </c>
       <c r="K12" t="n">
-        <v>-627.3306942268835</v>
+        <v>-220.4701490778845</v>
       </c>
       <c r="L12" t="n">
-        <v>-627.3306942268835</v>
+        <v>-220.4701490778845</v>
       </c>
       <c r="M12" t="n">
-        <v>-627.3306942268835</v>
+        <v>-220.4701490778845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14073.06072349055</v>
+        <v>9058.678926821976</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>14699.25265613888</v>
+        <v>9678.543338355592</v>
       </c>
       <c r="D13" t="n">
-        <v>12844.97536705119</v>
+        <v>6688.441130968538</v>
       </c>
       <c r="E13" t="n">
-        <v>15298.75364955405</v>
+        <v>10436.67504550197</v>
       </c>
       <c r="F13" t="n">
-        <v>14699.25265613888</v>
+        <v>9678.543338355592</v>
       </c>
       <c r="G13" t="n">
-        <v>14699.25265613888</v>
+        <v>9678.543338355592</v>
       </c>
       <c r="H13" t="n">
-        <v>-571.6519776328657</v>
+        <v>-1168.206259491681</v>
       </c>
       <c r="I13" t="n">
-        <v>-571.6519776328657</v>
+        <v>-1168.206259491681</v>
       </c>
       <c r="J13" t="n">
-        <v>-571.6519776328657</v>
+        <v>-1168.206259491681</v>
       </c>
       <c r="K13" t="n">
-        <v>-571.6519776328657</v>
+        <v>-1168.206259491681</v>
       </c>
       <c r="L13" t="n">
-        <v>-571.6519776328657</v>
+        <v>-1168.206259491681</v>
       </c>
       <c r="M13" t="n">
-        <v>-571.6519776328657</v>
+        <v>-1168.206259491681</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>14127.60067850601</v>
+        <v>8510.337078863911</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>14698.07593584104</v>
+        <v>10091.25074289318</v>
       </c>
       <c r="D14" t="n">
-        <v>13275.04522576059</v>
+        <v>10781.68000219998</v>
       </c>
       <c r="E14" t="n">
-        <v>15858.21218648684</v>
+        <v>14658.49390797337</v>
       </c>
       <c r="F14" t="n">
-        <v>14698.07593584104</v>
+        <v>10091.25074289318</v>
       </c>
       <c r="G14" t="n">
-        <v>14698.07593584104</v>
+        <v>10091.25074289318</v>
       </c>
       <c r="H14" t="n">
-        <v>-97.71680305682807</v>
+        <v>2582.084750040797</v>
       </c>
       <c r="I14" t="n">
-        <v>-97.71680305682807</v>
+        <v>2582.084750040797</v>
       </c>
       <c r="J14" t="n">
-        <v>-97.71680305682807</v>
+        <v>2582.084750040797</v>
       </c>
       <c r="K14" t="n">
-        <v>-97.71680305682807</v>
+        <v>2582.084750040797</v>
       </c>
       <c r="L14" t="n">
-        <v>-97.71680305682807</v>
+        <v>2582.084750040797</v>
       </c>
       <c r="M14" t="n">
-        <v>-97.71680305682807</v>
+        <v>2582.084750040797</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>14600.35913278421</v>
+        <v>12673.33549293397</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>14696.89921513471</v>
+        <v>10503.957911928</v>
       </c>
       <c r="D15" t="n">
-        <v>10518.48885638658</v>
+        <v>8290.358888423394</v>
       </c>
       <c r="E15" t="n">
-        <v>12912.06369399304</v>
+        <v>11968.5195009248</v>
       </c>
       <c r="F15" t="n">
-        <v>14696.89921513471</v>
+        <v>10503.957911928</v>
       </c>
       <c r="G15" t="n">
-        <v>14696.89921513471</v>
+        <v>10503.957911928</v>
       </c>
       <c r="H15" t="n">
-        <v>-2995.638279178761</v>
+        <v>-335.6207698316458</v>
       </c>
       <c r="I15" t="n">
-        <v>-2995.638279178761</v>
+        <v>-335.6207698316458</v>
       </c>
       <c r="J15" t="n">
-        <v>-2995.638279178761</v>
+        <v>-335.6207698316458</v>
       </c>
       <c r="K15" t="n">
-        <v>-2995.638279178761</v>
+        <v>-335.6207698316458</v>
       </c>
       <c r="L15" t="n">
-        <v>-2995.638279178761</v>
+        <v>-335.6207698316458</v>
       </c>
       <c r="M15" t="n">
-        <v>-2995.638279178761</v>
+        <v>-335.6207698316458</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>11701.26093595595</v>
+        <v>10168.33714209635</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>14695.83637031881</v>
+        <v>10876.72567750783</v>
       </c>
       <c r="D16" t="n">
-        <v>13749.36958041323</v>
+        <v>9714.349508516942</v>
       </c>
       <c r="E16" t="n">
-        <v>16227.0354217269</v>
+        <v>13666.40152256628</v>
       </c>
       <c r="F16" t="n">
-        <v>14695.83637031881</v>
+        <v>10876.72567750783</v>
       </c>
       <c r="G16" t="n">
-        <v>14695.83637031881</v>
+        <v>10876.72567750783</v>
       </c>
       <c r="H16" t="n">
-        <v>271.7479242202714</v>
+        <v>848.4616199800141</v>
       </c>
       <c r="I16" t="n">
-        <v>271.7479242202714</v>
+        <v>848.4616199800141</v>
       </c>
       <c r="J16" t="n">
-        <v>271.7479242202714</v>
+        <v>848.4616199800141</v>
       </c>
       <c r="K16" t="n">
-        <v>271.7479242202714</v>
+        <v>848.4616199800141</v>
       </c>
       <c r="L16" t="n">
-        <v>271.7479242202714</v>
+        <v>848.4616199800141</v>
       </c>
       <c r="M16" t="n">
-        <v>271.7479242202714</v>
+        <v>848.4616199800141</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14967.58429453908</v>
+        <v>11725.18729748785</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>14694.65964927264</v>
+        <v>11289.34228090716</v>
       </c>
       <c r="D17" t="n">
-        <v>12712.91652513849</v>
+        <v>9963.383891536725</v>
       </c>
       <c r="E17" t="n">
-        <v>15261.26009623402</v>
+        <v>13619.662310747</v>
       </c>
       <c r="F17" t="n">
-        <v>14694.65964927264</v>
+        <v>11289.34228090716</v>
       </c>
       <c r="G17" t="n">
-        <v>14694.65964927264</v>
+        <v>11289.34228090716</v>
       </c>
       <c r="H17" t="n">
-        <v>-757.788939412966</v>
+        <v>542.8980745236527</v>
       </c>
       <c r="I17" t="n">
-        <v>-757.788939412966</v>
+        <v>542.8980745236527</v>
       </c>
       <c r="J17" t="n">
-        <v>-757.788939412966</v>
+        <v>542.8980745236527</v>
       </c>
       <c r="K17" t="n">
-        <v>-757.788939412966</v>
+        <v>542.8980745236527</v>
       </c>
       <c r="L17" t="n">
-        <v>-757.788939412966</v>
+        <v>542.8980745236527</v>
       </c>
       <c r="M17" t="n">
-        <v>-757.788939412966</v>
+        <v>542.8980745236527</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>13936.87070985967</v>
+        <v>11832.24035543081</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>14693.52222029842</v>
+        <v>11688.64867129361</v>
       </c>
       <c r="D18" t="n">
-        <v>12996.57422177999</v>
+        <v>10308.80475655955</v>
       </c>
       <c r="E18" t="n">
-        <v>15393.94769805205</v>
+        <v>14105.76549964292</v>
       </c>
       <c r="F18" t="n">
-        <v>14693.52222029842</v>
+        <v>11688.64867129361</v>
       </c>
       <c r="G18" t="n">
-        <v>14693.52222029842</v>
+        <v>11688.64867129361</v>
       </c>
       <c r="H18" t="n">
-        <v>-445.9663599328122</v>
+        <v>558.0344482979473</v>
       </c>
       <c r="I18" t="n">
-        <v>-445.9663599328122</v>
+        <v>558.0344482979473</v>
       </c>
       <c r="J18" t="n">
-        <v>-445.9663599328122</v>
+        <v>558.0344482979473</v>
       </c>
       <c r="K18" t="n">
-        <v>-445.9663599328122</v>
+        <v>558.0344482979473</v>
       </c>
       <c r="L18" t="n">
-        <v>-445.9663599328122</v>
+        <v>558.0344482979473</v>
       </c>
       <c r="M18" t="n">
-        <v>-445.9663599328122</v>
+        <v>558.0344482979473</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14247.55586036561</v>
+        <v>12246.68311959156</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>14692.34687702507</v>
+        <v>12101.25082156653</v>
       </c>
       <c r="D19" t="n">
-        <v>12826.28021852133</v>
+        <v>9901.789971505259</v>
       </c>
       <c r="E19" t="n">
-        <v>15311.37119089202</v>
+        <v>13611.8648338763</v>
       </c>
       <c r="F19" t="n">
-        <v>14692.34687702507</v>
+        <v>12101.25082156653</v>
       </c>
       <c r="G19" t="n">
-        <v>14692.34687702507</v>
+        <v>12101.25082156653</v>
       </c>
       <c r="H19" t="n">
-        <v>-637.7384323371011</v>
+        <v>-384.0767964774884</v>
       </c>
       <c r="I19" t="n">
-        <v>-637.7384323371011</v>
+        <v>-384.0767964774884</v>
       </c>
       <c r="J19" t="n">
-        <v>-637.7384323371011</v>
+        <v>-384.0767964774884</v>
       </c>
       <c r="K19" t="n">
-        <v>-637.7384323371011</v>
+        <v>-384.0767964774884</v>
       </c>
       <c r="L19" t="n">
-        <v>-637.7384323371011</v>
+        <v>-384.0767964774884</v>
       </c>
       <c r="M19" t="n">
-        <v>-637.7384323371011</v>
+        <v>-384.0767964774884</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>14054.60844468797</v>
+        <v>11717.17402508905</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>14691.20944810698</v>
+        <v>12500.54322505646</v>
       </c>
       <c r="D20" t="n">
-        <v>12349.77027110874</v>
+        <v>9906.324632231055</v>
       </c>
       <c r="E20" t="n">
-        <v>14951.56724400819</v>
+        <v>13608.4786016698</v>
       </c>
       <c r="F20" t="n">
-        <v>14691.20944810698</v>
+        <v>12500.54322505646</v>
       </c>
       <c r="G20" t="n">
-        <v>14691.20944810698</v>
+        <v>12500.54322505646</v>
       </c>
       <c r="H20" t="n">
-        <v>-997.1028579291614</v>
+        <v>-776.4067597918948</v>
       </c>
       <c r="I20" t="n">
-        <v>-997.1028579291614</v>
+        <v>-776.4067597918948</v>
       </c>
       <c r="J20" t="n">
-        <v>-997.1028579291614</v>
+        <v>-776.4067597918948</v>
       </c>
       <c r="K20" t="n">
-        <v>-997.1028579291614</v>
+        <v>-776.4067597918948</v>
       </c>
       <c r="L20" t="n">
-        <v>-997.1028579291614</v>
+        <v>-776.4067597918948</v>
       </c>
       <c r="M20" t="n">
-        <v>-997.1028579291614</v>
+        <v>-776.4067597918948</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>13694.10659017782</v>
+        <v>11724.13646526456</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>14690.03410489163</v>
+        <v>12913.0688381713</v>
       </c>
       <c r="D21" t="n">
-        <v>13233.70920289488</v>
+        <v>10537.13656053067</v>
       </c>
       <c r="E21" t="n">
-        <v>15757.30250594291</v>
+        <v>14343.57389737218</v>
       </c>
       <c r="F21" t="n">
-        <v>14690.03410489163</v>
+        <v>12913.0688381713</v>
       </c>
       <c r="G21" t="n">
-        <v>14690.03410489163</v>
+        <v>12913.0688381713</v>
       </c>
       <c r="H21" t="n">
-        <v>-201.4453513069533</v>
+        <v>-514.0053847813227</v>
       </c>
       <c r="I21" t="n">
-        <v>-201.4453513069533</v>
+        <v>-514.0053847813227</v>
       </c>
       <c r="J21" t="n">
-        <v>-201.4453513069533</v>
+        <v>-514.0053847813227</v>
       </c>
       <c r="K21" t="n">
-        <v>-201.4453513069533</v>
+        <v>-514.0053847813227</v>
       </c>
       <c r="L21" t="n">
-        <v>-201.4453513069533</v>
+        <v>-514.0053847813227</v>
       </c>
       <c r="M21" t="n">
-        <v>-201.4453513069533</v>
+        <v>-514.0053847813227</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14488.58875358467</v>
+        <v>12399.06345338998</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>14688.92533444202</v>
+        <v>13325.59445128614</v>
       </c>
       <c r="D22" t="n">
-        <v>12863.94484504074</v>
+        <v>10283.74637583051</v>
       </c>
       <c r="E22" t="n">
-        <v>15505.16832589165</v>
+        <v>14233.05492126286</v>
       </c>
       <c r="F22" t="n">
-        <v>14688.92533444202</v>
+        <v>13325.59445128614</v>
       </c>
       <c r="G22" t="n">
-        <v>14688.92533444202</v>
+        <v>13325.59445128614</v>
       </c>
       <c r="H22" t="n">
-        <v>-520.4837231550655</v>
+        <v>-1108.224449638651</v>
       </c>
       <c r="I22" t="n">
-        <v>-520.4837231550655</v>
+        <v>-1108.224449638651</v>
       </c>
       <c r="J22" t="n">
-        <v>-520.4837231550655</v>
+        <v>-1108.224449638651</v>
       </c>
       <c r="K22" t="n">
-        <v>-520.4837231550655</v>
+        <v>-1108.224449638651</v>
       </c>
       <c r="L22" t="n">
-        <v>-520.4837231550655</v>
+        <v>-1108.224449638651</v>
       </c>
       <c r="M22" t="n">
-        <v>-520.4837231550655</v>
+        <v>-1108.224449638651</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>14168.44161128695</v>
+        <v>12217.37000164749</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>14687.8523307811</v>
+        <v>13724.5512702679</v>
       </c>
       <c r="D23" t="n">
-        <v>14383.36348129943</v>
+        <v>13085.36932461063</v>
       </c>
       <c r="E23" t="n">
-        <v>16863.30603678325</v>
+        <v>16873.73491127739</v>
       </c>
       <c r="F23" t="n">
-        <v>14687.8523307811</v>
+        <v>13724.5512702679</v>
       </c>
       <c r="G23" t="n">
-        <v>14687.8523307811</v>
+        <v>13724.5512702679</v>
       </c>
       <c r="H23" t="n">
-        <v>917.5816523601151</v>
+        <v>1236.636846248279</v>
       </c>
       <c r="I23" t="n">
-        <v>917.5816523601151</v>
+        <v>1236.636846248279</v>
       </c>
       <c r="J23" t="n">
-        <v>917.5816523601151</v>
+        <v>1236.636846248279</v>
       </c>
       <c r="K23" t="n">
-        <v>917.5816523601151</v>
+        <v>1236.636846248279</v>
       </c>
       <c r="L23" t="n">
-        <v>917.5816523601151</v>
+        <v>1236.636846248279</v>
       </c>
       <c r="M23" t="n">
-        <v>917.5816523601151</v>
+        <v>1236.636846248279</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>15605.43398314122</v>
+        <v>14961.18811651618</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>14686.84959489215</v>
+        <v>14136.80664988239</v>
       </c>
       <c r="D24" t="n">
-        <v>12642.11464671219</v>
+        <v>11656.26058028984</v>
       </c>
       <c r="E24" t="n">
-        <v>15178.48719405097</v>
+        <v>15479.87565300543</v>
       </c>
       <c r="F24" t="n">
-        <v>14686.84959489215</v>
+        <v>14136.80664988239</v>
       </c>
       <c r="G24" t="n">
-        <v>14686.84959489215</v>
+        <v>14136.80664988239</v>
       </c>
       <c r="H24" t="n">
-        <v>-764.5059238499251</v>
+        <v>-689.3260664373928</v>
       </c>
       <c r="I24" t="n">
-        <v>-764.5059238499251</v>
+        <v>-689.3260664373928</v>
       </c>
       <c r="J24" t="n">
-        <v>-764.5059238499251</v>
+        <v>-689.3260664373928</v>
       </c>
       <c r="K24" t="n">
-        <v>-764.5059238499251</v>
+        <v>-689.3260664373928</v>
       </c>
       <c r="L24" t="n">
-        <v>-764.5059238499251</v>
+        <v>-689.3260664373928</v>
       </c>
       <c r="M24" t="n">
-        <v>-764.5059238499251</v>
+        <v>-689.3260664373928</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>13922.34367104222</v>
+        <v>13447.48058344499</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>14685.87920532219</v>
+        <v>14480.8853874011</v>
       </c>
       <c r="D25" t="n">
-        <v>12116.1456230267</v>
+        <v>11204.25927670926</v>
       </c>
       <c r="E25" t="n">
-        <v>14663.07836295586</v>
+        <v>15123.33176235508</v>
       </c>
       <c r="F25" t="n">
-        <v>14685.87920532219</v>
+        <v>14480.8853874011</v>
       </c>
       <c r="G25" t="n">
-        <v>14685.87920532219</v>
+        <v>14480.8853874011</v>
       </c>
       <c r="H25" t="n">
-        <v>-1274.000917650471</v>
+        <v>-1336.29663055527</v>
       </c>
       <c r="I25" t="n">
-        <v>-1274.000917650471</v>
+        <v>-1336.29663055527</v>
       </c>
       <c r="J25" t="n">
-        <v>-1274.000917650471</v>
+        <v>-1336.29663055527</v>
       </c>
       <c r="K25" t="n">
-        <v>-1274.000917650471</v>
+        <v>-1336.29663055527</v>
       </c>
       <c r="L25" t="n">
-        <v>-1274.000917650471</v>
+        <v>-1336.29663055527</v>
       </c>
       <c r="M25" t="n">
-        <v>-1274.000917650471</v>
+        <v>-1336.29663055527</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>13411.87828767172</v>
+        <v>13144.58875684583</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>14685.08322671396</v>
+        <v>14836.43341617043</v>
       </c>
       <c r="D26" t="n">
-        <v>14090.76123885811</v>
+        <v>16267.86713810698</v>
       </c>
       <c r="E26" t="n">
-        <v>16495.75994006235</v>
+        <v>20058.43365638314</v>
       </c>
       <c r="F26" t="n">
-        <v>14685.08322671396</v>
+        <v>14836.43341617043</v>
       </c>
       <c r="G26" t="n">
-        <v>14685.08322671396</v>
+        <v>14836.43341617043</v>
       </c>
       <c r="H26" t="n">
-        <v>625.7998378948039</v>
+        <v>3394.763158808647</v>
       </c>
       <c r="I26" t="n">
-        <v>625.7998378948039</v>
+        <v>3394.763158808647</v>
       </c>
       <c r="J26" t="n">
-        <v>625.7998378948039</v>
+        <v>3394.763158808647</v>
       </c>
       <c r="K26" t="n">
-        <v>625.7998378948039</v>
+        <v>3394.763158808647</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7998378948039</v>
+        <v>3394.763158808647</v>
       </c>
       <c r="M26" t="n">
-        <v>625.7998378948039</v>
+        <v>3394.763158808647</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>15310.88306460877</v>
+        <v>18231.19657497907</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>14684.28724810573</v>
+        <v>15191.66912792871</v>
       </c>
       <c r="D27" t="n">
-        <v>11072.1180229253</v>
+        <v>12750.85393713104</v>
       </c>
       <c r="E27" t="n">
-        <v>13700.09548799446</v>
+        <v>16464.44992479807</v>
       </c>
       <c r="F27" t="n">
-        <v>14684.28724810573</v>
+        <v>15191.66912792871</v>
       </c>
       <c r="G27" t="n">
-        <v>14684.28724810573</v>
+        <v>15191.66912792871</v>
       </c>
       <c r="H27" t="n">
-        <v>-2279.834531160287</v>
+        <v>-589.1808644374122</v>
       </c>
       <c r="I27" t="n">
-        <v>-2279.834531160287</v>
+        <v>-589.1808644374122</v>
       </c>
       <c r="J27" t="n">
-        <v>-2279.834531160287</v>
+        <v>-589.1808644374122</v>
       </c>
       <c r="K27" t="n">
-        <v>-2279.834531160287</v>
+        <v>-589.1808644374122</v>
       </c>
       <c r="L27" t="n">
-        <v>-2279.834531160287</v>
+        <v>-589.1808644374122</v>
       </c>
       <c r="M27" t="n">
-        <v>-2279.834531160287</v>
+        <v>-589.1808644374122</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>12404.45271694545</v>
+        <v>14602.4882634913</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>14683.77624971051</v>
+        <v>15512.527190162</v>
       </c>
       <c r="D28" t="n">
-        <v>12707.30521243442</v>
+        <v>14461.35756846881</v>
       </c>
       <c r="E28" t="n">
-        <v>15152.39323311105</v>
+        <v>18109.22251956865</v>
       </c>
       <c r="F28" t="n">
-        <v>14683.77624971051</v>
+        <v>15512.527190162</v>
       </c>
       <c r="G28" t="n">
-        <v>14683.77624971051</v>
+        <v>15512.527190162</v>
       </c>
       <c r="H28" t="n">
-        <v>-800.4386954943541</v>
+        <v>657.8181957161554</v>
       </c>
       <c r="I28" t="n">
-        <v>-800.4386954943541</v>
+        <v>657.8181957161554</v>
       </c>
       <c r="J28" t="n">
-        <v>-800.4386954943541</v>
+        <v>657.8181957161554</v>
       </c>
       <c r="K28" t="n">
-        <v>-800.4386954943541</v>
+        <v>657.8181957161554</v>
       </c>
       <c r="L28" t="n">
-        <v>-800.4386954943541</v>
+        <v>657.8181957161554</v>
       </c>
       <c r="M28" t="n">
-        <v>-800.4386954943541</v>
+        <v>657.8181957161554</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>13883.33755421616</v>
+        <v>16170.34538587816</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>14683.21050148723</v>
+        <v>15867.76290192028</v>
       </c>
       <c r="D29" t="n">
-        <v>12846.455911705</v>
+        <v>14411.77234986358</v>
       </c>
       <c r="E29" t="n">
-        <v>15420.89866650835</v>
+        <v>18184.20581245603</v>
       </c>
       <c r="F29" t="n">
-        <v>14683.21050148723</v>
+        <v>15867.76290192028</v>
       </c>
       <c r="G29" t="n">
-        <v>14683.21050148723</v>
+        <v>15867.76290192028</v>
       </c>
       <c r="H29" t="n">
-        <v>-568.7530782342967</v>
+        <v>500.2801528999286</v>
       </c>
       <c r="I29" t="n">
-        <v>-568.7530782342967</v>
+        <v>500.2801528999286</v>
       </c>
       <c r="J29" t="n">
-        <v>-568.7530782342967</v>
+        <v>500.2801528999286</v>
       </c>
       <c r="K29" t="n">
-        <v>-568.7530782342967</v>
+        <v>500.2801528999286</v>
       </c>
       <c r="L29" t="n">
-        <v>-568.7530782342967</v>
+        <v>500.2801528999286</v>
       </c>
       <c r="M29" t="n">
-        <v>-568.7530782342967</v>
+        <v>500.2801528999286</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>14114.45742325293</v>
+        <v>16368.04305482021</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>14682.9327453189</v>
+        <v>16211.47553433806</v>
       </c>
       <c r="D30" t="n">
-        <v>13123.55829663665</v>
+        <v>15317.18297470545</v>
       </c>
       <c r="E30" t="n">
-        <v>15559.94915400415</v>
+        <v>18932.12360661569</v>
       </c>
       <c r="F30" t="n">
-        <v>14682.9327453189</v>
+        <v>16211.47553433806</v>
       </c>
       <c r="G30" t="n">
-        <v>14682.9327453189</v>
+        <v>16211.47553433806</v>
       </c>
       <c r="H30" t="n">
-        <v>-346.4108234851608</v>
+        <v>930.2119565748264</v>
       </c>
       <c r="I30" t="n">
-        <v>-346.4108234851608</v>
+        <v>930.2119565748264</v>
       </c>
       <c r="J30" t="n">
-        <v>-346.4108234851608</v>
+        <v>930.2119565748264</v>
       </c>
       <c r="K30" t="n">
-        <v>-346.4108234851608</v>
+        <v>930.2119565748264</v>
       </c>
       <c r="L30" t="n">
-        <v>-346.4108234851608</v>
+        <v>930.2119565748264</v>
       </c>
       <c r="M30" t="n">
-        <v>-346.4108234851608</v>
+        <v>930.2119565748264</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14336.52192183374</v>
+        <v>17141.68749091288</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>14682.64573061163</v>
+        <v>16566.6452545031</v>
       </c>
       <c r="D31" t="n">
-        <v>12560.78156969866</v>
+        <v>13859.22575545435</v>
       </c>
       <c r="E31" t="n">
-        <v>15193.30473070578</v>
+        <v>17555.12919160697</v>
       </c>
       <c r="F31" t="n">
-        <v>14682.64573061163</v>
+        <v>16566.6452545031</v>
       </c>
       <c r="G31" t="n">
-        <v>14682.64573061163</v>
+        <v>16566.6452545031</v>
       </c>
       <c r="H31" t="n">
-        <v>-817.2283696462969</v>
+        <v>-797.1884661069869</v>
       </c>
       <c r="I31" t="n">
-        <v>-817.2283696462969</v>
+        <v>-797.1884661069869</v>
       </c>
       <c r="J31" t="n">
-        <v>-817.2283696462969</v>
+        <v>-797.1884661069869</v>
       </c>
       <c r="K31" t="n">
-        <v>-817.2283696462969</v>
+        <v>-797.1884661069869</v>
       </c>
       <c r="L31" t="n">
-        <v>-817.2283696462969</v>
+        <v>-797.1884661069869</v>
       </c>
       <c r="M31" t="n">
-        <v>-817.2283696462969</v>
+        <v>-797.1884661069869</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>13865.41736096533</v>
+        <v>15769.45678839611</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>14873.02594046188</v>
+        <v>16910.12365333386</v>
       </c>
       <c r="D32" t="n">
-        <v>13218.0981901315</v>
+        <v>14277.78679954239</v>
       </c>
       <c r="E32" t="n">
-        <v>15795.87969901567</v>
+        <v>18079.92872718829</v>
       </c>
       <c r="F32" t="n">
-        <v>14873.02594046188</v>
+        <v>16910.12365333386</v>
       </c>
       <c r="G32" t="n">
-        <v>14873.02594046188</v>
+        <v>16910.12365333386</v>
       </c>
       <c r="H32" t="n">
-        <v>-453.3025085882144</v>
+        <v>-654.4663415512872</v>
       </c>
       <c r="I32" t="n">
-        <v>-453.3025085882144</v>
+        <v>-654.4663415512872</v>
       </c>
       <c r="J32" t="n">
-        <v>-453.3025085882144</v>
+        <v>-654.4663415512872</v>
       </c>
       <c r="K32" t="n">
-        <v>-453.3025085882144</v>
+        <v>-654.4663415512872</v>
       </c>
       <c r="L32" t="n">
-        <v>-453.3025085882144</v>
+        <v>-654.4663415512872</v>
       </c>
       <c r="M32" t="n">
-        <v>-453.3025085882144</v>
+        <v>-654.4663415512872</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>14419.72343187367</v>
+        <v>16255.65731178258</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>15069.75215730715</v>
+        <v>17265.05133212566</v>
       </c>
       <c r="D33" t="n">
-        <v>13435.60402284479</v>
+        <v>15108.67277301346</v>
       </c>
       <c r="E33" t="n">
-        <v>16000.20343706076</v>
+        <v>18848.70683372174</v>
       </c>
       <c r="F33" t="n">
-        <v>15069.75215730715</v>
+        <v>17265.05133212566</v>
       </c>
       <c r="G33" t="n">
-        <v>15069.75215730715</v>
+        <v>17265.05133212566</v>
       </c>
       <c r="H33" t="n">
-        <v>-331.3605769716101</v>
+        <v>-231.2838736851787</v>
       </c>
       <c r="I33" t="n">
-        <v>-331.3605769716101</v>
+        <v>-231.2838736851787</v>
       </c>
       <c r="J33" t="n">
-        <v>-331.3605769716101</v>
+        <v>-231.2838736851787</v>
       </c>
       <c r="K33" t="n">
-        <v>-331.3605769716101</v>
+        <v>-231.2838736851787</v>
       </c>
       <c r="L33" t="n">
-        <v>-331.3605769716101</v>
+        <v>-231.2838736851787</v>
       </c>
       <c r="M33" t="n">
-        <v>-331.3605769716101</v>
+        <v>-231.2838736851787</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14738.39158033554</v>
+        <v>17033.76745844048</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>15266.62891947355</v>
+        <v>17619.70813518145</v>
       </c>
       <c r="D34" t="n">
-        <v>13015.0886865708</v>
+        <v>14384.91720858771</v>
       </c>
       <c r="E34" t="n">
-        <v>15621.7802858739</v>
+        <v>18283.67959214073</v>
       </c>
       <c r="F34" t="n">
-        <v>15266.62891947355</v>
+        <v>17619.70813518145</v>
       </c>
       <c r="G34" t="n">
-        <v>15266.62891947355</v>
+        <v>17619.70813518145</v>
       </c>
       <c r="H34" t="n">
-        <v>-940.6138182472783</v>
+        <v>-1316.771535813151</v>
       </c>
       <c r="I34" t="n">
-        <v>-940.6138182472783</v>
+        <v>-1316.771535813151</v>
       </c>
       <c r="J34" t="n">
-        <v>-940.6138182472783</v>
+        <v>-1316.771535813151</v>
       </c>
       <c r="K34" t="n">
-        <v>-940.6138182472783</v>
+        <v>-1316.771535813151</v>
       </c>
       <c r="L34" t="n">
-        <v>-940.6138182472783</v>
+        <v>-1316.771535813151</v>
       </c>
       <c r="M34" t="n">
-        <v>-940.6138182472783</v>
+        <v>-1316.771535813151</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>14326.01510122627</v>
+        <v>16302.9365993683</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>15457.15481834427</v>
+        <v>17962.92439620318</v>
       </c>
       <c r="D35" t="n">
-        <v>15652.66058830021</v>
+        <v>17718.25308233803</v>
       </c>
       <c r="E35" t="n">
-        <v>18108.46994670052</v>
+        <v>21286.78881722057</v>
       </c>
       <c r="F35" t="n">
-        <v>15457.15481834427</v>
+        <v>17962.92439620318</v>
       </c>
       <c r="G35" t="n">
-        <v>15457.15481834427</v>
+        <v>17962.92439620318</v>
       </c>
       <c r="H35" t="n">
-        <v>1344.514946107691</v>
+        <v>1479.716518009669</v>
       </c>
       <c r="I35" t="n">
-        <v>1344.514946107691</v>
+        <v>1479.716518009669</v>
       </c>
       <c r="J35" t="n">
-        <v>1344.514946107691</v>
+        <v>1479.716518009669</v>
       </c>
       <c r="K35" t="n">
-        <v>1344.514946107691</v>
+        <v>1479.716518009669</v>
       </c>
       <c r="L35" t="n">
-        <v>1344.514946107691</v>
+        <v>1479.716518009669</v>
       </c>
       <c r="M35" t="n">
-        <v>1344.514946107691</v>
+        <v>1479.716518009669</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>16801.66976445196</v>
+        <v>19442.64091421285</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>15654.03239421042</v>
+        <v>18317.35334352064</v>
       </c>
       <c r="D36" t="n">
-        <v>13495.57475123417</v>
+        <v>15165.73700412373</v>
       </c>
       <c r="E36" t="n">
-        <v>16129.15720629594</v>
+        <v>19024.85109601145</v>
       </c>
       <c r="F36" t="n">
-        <v>15654.03239421042</v>
+        <v>18317.35334352064</v>
       </c>
       <c r="G36" t="n">
-        <v>15654.03239421042</v>
+        <v>18317.35334352064</v>
       </c>
       <c r="H36" t="n">
-        <v>-911.2942107530617</v>
+        <v>-1160.29086128528</v>
       </c>
       <c r="I36" t="n">
-        <v>-911.2942107530617</v>
+        <v>-1160.29086128528</v>
       </c>
       <c r="J36" t="n">
-        <v>-911.2942107530617</v>
+        <v>-1160.29086128528</v>
       </c>
       <c r="K36" t="n">
-        <v>-911.2942107530617</v>
+        <v>-1160.29086128528</v>
       </c>
       <c r="L36" t="n">
-        <v>-911.2942107530617</v>
+        <v>-1160.29086128528</v>
       </c>
       <c r="M36" t="n">
-        <v>-911.2942107530617</v>
+        <v>-1160.29086128528</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14742.73818345736</v>
+        <v>17157.06248223536</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>15844.55908053251</v>
+        <v>18660.34909898915</v>
       </c>
       <c r="D37" t="n">
-        <v>12633.43022262889</v>
+        <v>15337.03386250547</v>
       </c>
       <c r="E37" t="n">
-        <v>15225.24219298093</v>
+        <v>18918.59167943961</v>
       </c>
       <c r="F37" t="n">
-        <v>15844.55908053251</v>
+        <v>18660.34909898915</v>
       </c>
       <c r="G37" t="n">
-        <v>15844.55908053251</v>
+        <v>18660.34909898915</v>
       </c>
       <c r="H37" t="n">
-        <v>-1961.799470254658</v>
+        <v>-1487.457567233734</v>
       </c>
       <c r="I37" t="n">
-        <v>-1961.799470254658</v>
+        <v>-1487.457567233734</v>
       </c>
       <c r="J37" t="n">
-        <v>-1961.799470254658</v>
+        <v>-1487.457567233734</v>
       </c>
       <c r="K37" t="n">
-        <v>-1961.799470254658</v>
+        <v>-1487.457567233734</v>
       </c>
       <c r="L37" t="n">
-        <v>-1961.799470254658</v>
+        <v>-1487.457567233734</v>
       </c>
       <c r="M37" t="n">
-        <v>-1961.799470254658</v>
+        <v>-1487.457567233734</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>13882.75961027785</v>
+        <v>17172.89153175541</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>16041.46542702068</v>
+        <v>18942.8184855258</v>
       </c>
       <c r="D38" t="n">
-        <v>16105.43005483273</v>
+        <v>21403.20922442886</v>
       </c>
       <c r="E38" t="n">
-        <v>18655.637076568</v>
+        <v>25016.55659290686</v>
       </c>
       <c r="F38" t="n">
-        <v>16041.46542702068</v>
+        <v>18942.8184855258</v>
       </c>
       <c r="G38" t="n">
-        <v>16041.46542702068</v>
+        <v>18942.8184855258</v>
       </c>
       <c r="H38" t="n">
-        <v>1364.876868104387</v>
+        <v>4205.521379896642</v>
       </c>
       <c r="I38" t="n">
-        <v>1364.876868104387</v>
+        <v>4205.521379896642</v>
       </c>
       <c r="J38" t="n">
-        <v>1364.876868104387</v>
+        <v>4205.521379896642</v>
       </c>
       <c r="K38" t="n">
-        <v>1364.876868104387</v>
+        <v>4205.521379896642</v>
       </c>
       <c r="L38" t="n">
-        <v>1364.876868104387</v>
+        <v>4205.521379896642</v>
       </c>
       <c r="M38" t="n">
-        <v>1364.876868104387</v>
+        <v>4205.521379896642</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>17406.34229512507</v>
+        <v>23148.33986542244</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>16238.4460920785</v>
+        <v>19225.28787206246</v>
       </c>
       <c r="D39" t="n">
-        <v>13370.60180856222</v>
+        <v>16473.58069929749</v>
       </c>
       <c r="E39" t="n">
-        <v>15859.97841112019</v>
+        <v>20215.73364136718</v>
       </c>
       <c r="F39" t="n">
-        <v>16238.4460920785</v>
+        <v>19225.28787206246</v>
       </c>
       <c r="G39" t="n">
-        <v>16238.4460920785</v>
+        <v>19225.28787206246</v>
       </c>
       <c r="H39" t="n">
-        <v>-1581.913722897615</v>
+        <v>-854.7477876263762</v>
       </c>
       <c r="I39" t="n">
-        <v>-1581.913722897615</v>
+        <v>-854.7477876263762</v>
       </c>
       <c r="J39" t="n">
-        <v>-1581.913722897615</v>
+        <v>-854.7477876263762</v>
       </c>
       <c r="K39" t="n">
-        <v>-1581.913722897615</v>
+        <v>-854.7477876263762</v>
       </c>
       <c r="L39" t="n">
-        <v>-1581.913722897615</v>
+        <v>-854.7477876263762</v>
       </c>
       <c r="M39" t="n">
-        <v>-1581.913722897615</v>
+        <v>-854.7477876263762</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14656.53236918088</v>
+        <v>18370.54008443608</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>16416.36411213072</v>
+        <v>19489.32959458007</v>
       </c>
       <c r="D40" t="n">
-        <v>13239.4472486224</v>
+        <v>18893.15900159206</v>
       </c>
       <c r="E40" t="n">
-        <v>15772.0796145244</v>
+        <v>22712.3917855291</v>
       </c>
       <c r="F40" t="n">
-        <v>16416.36411213072</v>
+        <v>19489.32959458007</v>
       </c>
       <c r="G40" t="n">
-        <v>16416.36411213072</v>
+        <v>19489.32959458007</v>
       </c>
       <c r="H40" t="n">
-        <v>-1878.342338204914</v>
+        <v>1234.820457464585</v>
       </c>
       <c r="I40" t="n">
-        <v>-1878.342338204914</v>
+        <v>1234.820457464585</v>
       </c>
       <c r="J40" t="n">
-        <v>-1878.342338204914</v>
+        <v>1234.820457464585</v>
       </c>
       <c r="K40" t="n">
-        <v>-1878.342338204914</v>
+        <v>1234.820457464585</v>
       </c>
       <c r="L40" t="n">
-        <v>-1878.342338204914</v>
+        <v>1234.820457464585</v>
       </c>
       <c r="M40" t="n">
-        <v>-1878.342338204914</v>
+        <v>1234.820457464585</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>14538.0217739258</v>
+        <v>20724.15005204466</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>16613.48516584269</v>
+        <v>19771.58109106441</v>
       </c>
       <c r="D41" t="n">
-        <v>14943.02561704911</v>
+        <v>18491.55044439595</v>
       </c>
       <c r="E41" t="n">
-        <v>17513.52030559639</v>
+        <v>22302.71030422835</v>
       </c>
       <c r="F41" t="n">
-        <v>16613.48516584269</v>
+        <v>19771.58109106441</v>
       </c>
       <c r="G41" t="n">
-        <v>16613.48516584269</v>
+        <v>19771.58109106441</v>
       </c>
       <c r="H41" t="n">
-        <v>-366.1945477662572</v>
+        <v>648.6491204720527</v>
       </c>
       <c r="I41" t="n">
-        <v>-366.1945477662572</v>
+        <v>648.6491204720527</v>
       </c>
       <c r="J41" t="n">
-        <v>-366.1945477662572</v>
+        <v>648.6491204720527</v>
       </c>
       <c r="K41" t="n">
-        <v>-366.1945477662572</v>
+        <v>648.6491204720527</v>
       </c>
       <c r="L41" t="n">
-        <v>-366.1945477662572</v>
+        <v>648.6491204720527</v>
       </c>
       <c r="M41" t="n">
-        <v>-366.1945477662572</v>
+        <v>648.6491204720527</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>16247.29061807643</v>
+        <v>20420.23021153646</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>16804.24747588654</v>
+        <v>20044.48127596171</v>
       </c>
       <c r="D42" t="n">
-        <v>15356.46184200841</v>
+        <v>17919.39868132826</v>
       </c>
       <c r="E42" t="n">
-        <v>17870.65781734945</v>
+        <v>21607.60999169675</v>
       </c>
       <c r="F42" t="n">
-        <v>16804.24747588654</v>
+        <v>20044.48127596171</v>
       </c>
       <c r="G42" t="n">
-        <v>16804.24747588654</v>
+        <v>20044.48127596171</v>
       </c>
       <c r="H42" t="n">
-        <v>-245.6985355171541</v>
+        <v>-196.7349521228051</v>
       </c>
       <c r="I42" t="n">
-        <v>-245.6985355171541</v>
+        <v>-196.7349521228051</v>
       </c>
       <c r="J42" t="n">
-        <v>-245.6985355171541</v>
+        <v>-196.7349521228051</v>
       </c>
       <c r="K42" t="n">
-        <v>-245.6985355171541</v>
+        <v>-196.7349521228051</v>
       </c>
       <c r="L42" t="n">
-        <v>-245.6985355171541</v>
+        <v>-196.7349521228051</v>
       </c>
       <c r="M42" t="n">
-        <v>-245.6985355171541</v>
+        <v>-196.7349521228051</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>16558.54894036939</v>
+        <v>19847.7463238389</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>17001.37275795263</v>
+        <v>20326.47813368891</v>
       </c>
       <c r="D43" t="n">
-        <v>14726.86992289552</v>
+        <v>18877.62699346932</v>
       </c>
       <c r="E43" t="n">
-        <v>17245.34130228754</v>
+        <v>22740.30390107101</v>
       </c>
       <c r="F43" t="n">
-        <v>17001.37275795263</v>
+        <v>20326.47813368891</v>
       </c>
       <c r="G43" t="n">
-        <v>17001.37275795263</v>
+        <v>20326.47813368891</v>
       </c>
       <c r="H43" t="n">
-        <v>-990.5647524684413</v>
+        <v>435.5376015540957</v>
       </c>
       <c r="I43" t="n">
-        <v>-990.5647524684413</v>
+        <v>435.5376015540957</v>
       </c>
       <c r="J43" t="n">
-        <v>-990.5647524684413</v>
+        <v>435.5376015540957</v>
       </c>
       <c r="K43" t="n">
-        <v>-990.5647524684413</v>
+        <v>435.5376015540957</v>
       </c>
       <c r="L43" t="n">
-        <v>-990.5647524684413</v>
+        <v>435.5376015540957</v>
       </c>
       <c r="M43" t="n">
-        <v>-990.5647524684413</v>
+        <v>435.5376015540957</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16010.80800548419</v>
+        <v>20762.01573524301</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>17192.13915995207</v>
+        <v>20599.36312234664</v>
       </c>
       <c r="D44" t="n">
-        <v>16021.8903006705</v>
+        <v>17842.59634984911</v>
       </c>
       <c r="E44" t="n">
-        <v>18543.3533505319</v>
+        <v>21515.28170654548</v>
       </c>
       <c r="F44" t="n">
-        <v>17192.13915995207</v>
+        <v>20599.36312234664</v>
       </c>
       <c r="G44" t="n">
-        <v>17192.13915995207</v>
+        <v>20599.36312234664</v>
       </c>
       <c r="H44" t="n">
-        <v>88.50062680079756</v>
+        <v>-997.3622374677534</v>
       </c>
       <c r="I44" t="n">
-        <v>88.50062680079756</v>
+        <v>-997.3622374677534</v>
       </c>
       <c r="J44" t="n">
-        <v>88.50062680079756</v>
+        <v>-997.3622374677534</v>
       </c>
       <c r="K44" t="n">
-        <v>88.50062680079756</v>
+        <v>-997.3622374677534</v>
       </c>
       <c r="L44" t="n">
-        <v>88.50062680079756</v>
+        <v>-997.3622374677534</v>
       </c>
       <c r="M44" t="n">
-        <v>88.50062680079756</v>
+        <v>-997.3622374677534</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>17280.63978675286</v>
+        <v>19602.00088487889</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>17389.27526184685</v>
+        <v>20881.34427729297</v>
       </c>
       <c r="D45" t="n">
-        <v>15670.31072696567</v>
+        <v>17988.70676002332</v>
       </c>
       <c r="E45" t="n">
-        <v>18207.23951045819</v>
+        <v>21700.54417992786</v>
       </c>
       <c r="F45" t="n">
-        <v>17389.27526184685</v>
+        <v>20881.34427729297</v>
       </c>
       <c r="G45" t="n">
-        <v>17389.27526184685</v>
+        <v>20881.34427729297</v>
       </c>
       <c r="H45" t="n">
-        <v>-473.544092908811</v>
+        <v>-1088.161417180896</v>
       </c>
       <c r="I45" t="n">
-        <v>-473.544092908811</v>
+        <v>-1088.161417180896</v>
       </c>
       <c r="J45" t="n">
-        <v>-473.544092908811</v>
+        <v>-1088.161417180896</v>
       </c>
       <c r="K45" t="n">
-        <v>-473.544092908811</v>
+        <v>-1088.161417180896</v>
       </c>
       <c r="L45" t="n">
-        <v>-473.544092908811</v>
+        <v>-1088.161417180896</v>
       </c>
       <c r="M45" t="n">
-        <v>-473.544092908811</v>
+        <v>-1088.161417180896</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>16915.73116893804</v>
+        <v>19793.18286011207</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>17586.41136374163</v>
+        <v>21015.03535999482</v>
       </c>
       <c r="D46" t="n">
-        <v>14937.33877695687</v>
+        <v>18521.26428657647</v>
       </c>
       <c r="E46" t="n">
-        <v>17563.32366935648</v>
+        <v>22197.42462392535</v>
       </c>
       <c r="F46" t="n">
-        <v>17586.41136374163</v>
+        <v>21015.03535999482</v>
       </c>
       <c r="G46" t="n">
-        <v>17586.41136374163</v>
+        <v>21015.03535999482</v>
       </c>
       <c r="H46" t="n">
-        <v>-1356.997376849015</v>
+        <v>-698.8030615761563</v>
       </c>
       <c r="I46" t="n">
-        <v>-1356.997376849015</v>
+        <v>-698.8030615761563</v>
       </c>
       <c r="J46" t="n">
-        <v>-1356.997376849015</v>
+        <v>-698.8030615761563</v>
       </c>
       <c r="K46" t="n">
-        <v>-1356.997376849015</v>
+        <v>-698.8030615761563</v>
       </c>
       <c r="L46" t="n">
-        <v>-1356.997376849015</v>
+        <v>-698.8030615761563</v>
       </c>
       <c r="M46" t="n">
-        <v>-1356.997376849015</v>
+        <v>-698.8030615761563</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16229.41398689262</v>
+        <v>20316.23229841866</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>17777.18823688477</v>
+        <v>21144.41382712565</v>
       </c>
       <c r="D47" t="n">
-        <v>18248.34683880693</v>
+        <v>19956.22984771287</v>
       </c>
       <c r="E47" t="n">
-        <v>20804.24801650751</v>
+        <v>23707.22307279234</v>
       </c>
       <c r="F47" t="n">
-        <v>17777.18823688477</v>
+        <v>21144.41382712565</v>
       </c>
       <c r="G47" t="n">
-        <v>17777.18823688477</v>
+        <v>21144.41382712565</v>
       </c>
       <c r="H47" t="n">
-        <v>1771.822972769717</v>
+        <v>733.0232326210408</v>
       </c>
       <c r="I47" t="n">
-        <v>1771.822972769717</v>
+        <v>733.0232326210408</v>
       </c>
       <c r="J47" t="n">
-        <v>1771.822972769717</v>
+        <v>733.0232326210408</v>
       </c>
       <c r="K47" t="n">
-        <v>1771.822972769717</v>
+        <v>733.0232326210408</v>
       </c>
       <c r="L47" t="n">
-        <v>1771.822972769717</v>
+        <v>733.0232326210408</v>
       </c>
       <c r="M47" t="n">
-        <v>1771.822972769717</v>
+        <v>733.0232326210408</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>19549.01120965449</v>
+        <v>21877.43705974669</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>17974.32433913268</v>
+        <v>21278.08494687601</v>
       </c>
       <c r="D48" t="n">
-        <v>15667.86317024569</v>
+        <v>19604.96255281433</v>
       </c>
       <c r="E48" t="n">
-        <v>18218.08256350821</v>
+        <v>23539.0179742915</v>
       </c>
       <c r="F48" t="n">
-        <v>17974.32433913268</v>
+        <v>21278.08494687601</v>
       </c>
       <c r="G48" t="n">
-        <v>17974.32433913268</v>
+        <v>21278.08494687601</v>
       </c>
       <c r="H48" t="n">
-        <v>-1067.427976962844</v>
+        <v>245.7288321843641</v>
       </c>
       <c r="I48" t="n">
-        <v>-1067.427976962844</v>
+        <v>245.7288321843641</v>
       </c>
       <c r="J48" t="n">
-        <v>-1067.427976962844</v>
+        <v>245.7288321843641</v>
       </c>
       <c r="K48" t="n">
-        <v>-1067.427976962844</v>
+        <v>245.7288321843641</v>
       </c>
       <c r="L48" t="n">
-        <v>-1067.427976962844</v>
+        <v>245.7288321843641</v>
       </c>
       <c r="M48" t="n">
-        <v>-1067.427976962844</v>
+        <v>245.7288321843641</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>16906.89636216983</v>
+        <v>21523.81377906038</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>18165.10121187942</v>
+        <v>21407.44409502154</v>
       </c>
       <c r="D49" t="n">
-        <v>14246.17841314533</v>
+        <v>18634.85026635812</v>
       </c>
       <c r="E49" t="n">
-        <v>16712.74289990334</v>
+        <v>22281.90615616099</v>
       </c>
       <c r="F49" t="n">
-        <v>18165.10121187942</v>
+        <v>21407.44409502154</v>
       </c>
       <c r="G49" t="n">
-        <v>18165.10121187942</v>
+        <v>21407.44409502154</v>
       </c>
       <c r="H49" t="n">
-        <v>-2634.453567963622</v>
+        <v>-983.251386679653</v>
       </c>
       <c r="I49" t="n">
-        <v>-2634.453567963622</v>
+        <v>-983.251386679653</v>
       </c>
       <c r="J49" t="n">
-        <v>-2634.453567963622</v>
+        <v>-983.251386679653</v>
       </c>
       <c r="K49" t="n">
-        <v>-2634.453567963622</v>
+        <v>-983.251386679653</v>
       </c>
       <c r="L49" t="n">
-        <v>-2634.453567963622</v>
+        <v>-983.251386679653</v>
       </c>
       <c r="M49" t="n">
-        <v>-2634.453567963622</v>
+        <v>-983.251386679653</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>15530.6476439158</v>
+        <v>20424.19270834189</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>18362.23731371773</v>
+        <v>21540.82145229776</v>
       </c>
       <c r="D50" t="n">
-        <v>19270.40215247483</v>
+        <v>21623.66299877377</v>
       </c>
       <c r="E50" t="n">
-        <v>21825.28202123266</v>
+        <v>25202.67923795258</v>
       </c>
       <c r="F50" t="n">
-        <v>18362.23731371773</v>
+        <v>21540.82145229776</v>
       </c>
       <c r="G50" t="n">
-        <v>18362.23731371773</v>
+        <v>21540.82145229776</v>
       </c>
       <c r="H50" t="n">
-        <v>2118.649779796273</v>
+        <v>1768.317335774158</v>
       </c>
       <c r="I50" t="n">
-        <v>2118.649779796273</v>
+        <v>1768.317335774158</v>
       </c>
       <c r="J50" t="n">
-        <v>2118.649779796273</v>
+        <v>1768.317335774158</v>
       </c>
       <c r="K50" t="n">
-        <v>2118.649779796273</v>
+        <v>1768.317335774158</v>
       </c>
       <c r="L50" t="n">
-        <v>2118.649779796273</v>
+        <v>1768.317335774158</v>
       </c>
       <c r="M50" t="n">
-        <v>2118.649779796273</v>
+        <v>1768.317335774158</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>20480.887093514</v>
+        <v>23309.13878807192</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>18559.37341596885</v>
+        <v>21674.19880957398</v>
       </c>
       <c r="D51" t="n">
-        <v>16365.99139552527</v>
+        <v>19792.55247131084</v>
       </c>
       <c r="E51" t="n">
-        <v>18950.42736379231</v>
+        <v>23427.50107986879</v>
       </c>
       <c r="F51" t="n">
-        <v>18559.37341596885</v>
+        <v>21674.19880957398</v>
       </c>
       <c r="G51" t="n">
-        <v>18559.37341596885</v>
+        <v>21674.19880957398</v>
       </c>
       <c r="H51" t="n">
-        <v>-902.6933215837482</v>
+        <v>-94.18204835935558</v>
       </c>
       <c r="I51" t="n">
-        <v>-902.6933215837482</v>
+        <v>-94.18204835935558</v>
       </c>
       <c r="J51" t="n">
-        <v>-902.6933215837482</v>
+        <v>-94.18204835935558</v>
       </c>
       <c r="K51" t="n">
-        <v>-902.6933215837482</v>
+        <v>-94.18204835935558</v>
       </c>
       <c r="L51" t="n">
-        <v>-902.6933215837482</v>
+        <v>-94.18204835935558</v>
       </c>
       <c r="M51" t="n">
-        <v>-902.6933215837482</v>
+        <v>-94.18204835935558</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>17656.6800943851</v>
+        <v>21580.01676121462</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>18743.79106001022</v>
+        <v>21794.57624191857</v>
       </c>
       <c r="D52" t="n">
-        <v>18891.53089627937</v>
+        <v>21008.52726533206</v>
       </c>
       <c r="E52" t="n">
-        <v>21323.48722680451</v>
+        <v>24818.62872620518</v>
       </c>
       <c r="F52" t="n">
-        <v>18743.79106001022</v>
+        <v>21794.57624191857</v>
       </c>
       <c r="G52" t="n">
-        <v>18743.79106001022</v>
+        <v>21794.57624191857</v>
       </c>
       <c r="H52" t="n">
-        <v>1337.121708902207</v>
+        <v>1040.897055812313</v>
       </c>
       <c r="I52" t="n">
-        <v>1337.121708902207</v>
+        <v>1040.897055812313</v>
       </c>
       <c r="J52" t="n">
-        <v>1337.121708902207</v>
+        <v>1040.897055812313</v>
       </c>
       <c r="K52" t="n">
-        <v>1337.121708902207</v>
+        <v>1040.897055812313</v>
       </c>
       <c r="L52" t="n">
-        <v>1337.121708902207</v>
+        <v>1040.897055812313</v>
       </c>
       <c r="M52" t="n">
-        <v>1337.121708902207</v>
+        <v>1040.897055812313</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>20080.91276891243</v>
+        <v>22835.47329773088</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>18940.92716226134</v>
+        <v>21927.85125630009</v>
       </c>
       <c r="D53" t="n">
-        <v>16767.20990403377</v>
+        <v>20690.02119110156</v>
       </c>
       <c r="E53" t="n">
-        <v>19268.35891698654</v>
+        <v>24435.89737800149</v>
       </c>
       <c r="F53" t="n">
-        <v>18940.92716226134</v>
+        <v>21927.85125630009</v>
       </c>
       <c r="G53" t="n">
-        <v>18940.92716226134</v>
+        <v>21927.85125630009</v>
       </c>
       <c r="H53" t="n">
-        <v>-933.3847900112539</v>
+        <v>592.3680058250364</v>
       </c>
       <c r="I53" t="n">
-        <v>-933.3847900112539</v>
+        <v>592.3680058250364</v>
       </c>
       <c r="J53" t="n">
-        <v>-933.3847900112539</v>
+        <v>592.3680058250364</v>
       </c>
       <c r="K53" t="n">
-        <v>-933.3847900112539</v>
+        <v>592.3680058250364</v>
       </c>
       <c r="L53" t="n">
-        <v>-933.3847900112539</v>
+        <v>592.3680058250364</v>
       </c>
       <c r="M53" t="n">
-        <v>-933.3847900112539</v>
+        <v>592.3680058250364</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>18007.54237225009</v>
+        <v>22520.21926212513</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>19131.70403540758</v>
+        <v>22056.7719767392</v>
       </c>
       <c r="D54" t="n">
-        <v>17322.10950448854</v>
+        <v>20361.82881587032</v>
       </c>
       <c r="E54" t="n">
-        <v>19784.80968917385</v>
+        <v>24098.47172403042</v>
       </c>
       <c r="F54" t="n">
-        <v>19131.70403540758</v>
+        <v>22056.7719767392</v>
       </c>
       <c r="G54" t="n">
-        <v>19131.70403540758</v>
+        <v>22056.7719767392</v>
       </c>
       <c r="H54" t="n">
-        <v>-544.2539923315187</v>
+        <v>182.2842723920193</v>
       </c>
       <c r="I54" t="n">
-        <v>-544.2539923315187</v>
+        <v>182.2842723920193</v>
       </c>
       <c r="J54" t="n">
-        <v>-544.2539923315187</v>
+        <v>182.2842723920193</v>
       </c>
       <c r="K54" t="n">
-        <v>-544.2539923315187</v>
+        <v>182.2842723920193</v>
       </c>
       <c r="L54" t="n">
-        <v>-544.2539923315187</v>
+        <v>182.2842723920193</v>
       </c>
       <c r="M54" t="n">
-        <v>-544.2539923315187</v>
+        <v>182.2842723920193</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>18587.45004307606</v>
+        <v>22239.05624913122</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>19328.8401376587</v>
+        <v>22189.99005452628</v>
       </c>
       <c r="D55" t="n">
-        <v>17641.54315024001</v>
+        <v>20358.86993910109</v>
       </c>
       <c r="E55" t="n">
-        <v>20250.71685053607</v>
+        <v>24046.37520977527</v>
       </c>
       <c r="F55" t="n">
-        <v>19328.8401376587</v>
+        <v>22189.99005452628</v>
       </c>
       <c r="G55" t="n">
-        <v>19328.8401376587</v>
+        <v>22189.99005452628</v>
       </c>
       <c r="H55" t="n">
-        <v>-452.1165577264066</v>
+        <v>26.9486434974116</v>
       </c>
       <c r="I55" t="n">
-        <v>-452.1165577264066</v>
+        <v>26.9486434974116</v>
       </c>
       <c r="J55" t="n">
-        <v>-452.1165577264066</v>
+        <v>26.9486434974116</v>
       </c>
       <c r="K55" t="n">
-        <v>-452.1165577264066</v>
+        <v>26.9486434974116</v>
       </c>
       <c r="L55" t="n">
-        <v>-452.1165577264066</v>
+        <v>26.9486434974116</v>
       </c>
       <c r="M55" t="n">
-        <v>-452.1165577264066</v>
+        <v>26.9486434974116</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>18876.72357993229</v>
+        <v>22216.93869802369</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>19519.61701080494</v>
+        <v>22318.91077496538</v>
       </c>
       <c r="D56" t="n">
-        <v>16738.72493147093</v>
+        <v>19607.74994861296</v>
       </c>
       <c r="E56" t="n">
-        <v>19267.62963849922</v>
+        <v>23238.00995010022</v>
       </c>
       <c r="F56" t="n">
-        <v>19519.61701080494</v>
+        <v>22318.91077496538</v>
       </c>
       <c r="G56" t="n">
-        <v>19519.61701080494</v>
+        <v>22318.91077496538</v>
       </c>
       <c r="H56" t="n">
-        <v>-1542.330320726013</v>
+        <v>-890.7431516118029</v>
       </c>
       <c r="I56" t="n">
-        <v>-1542.330320726013</v>
+        <v>-890.7431516118029</v>
       </c>
       <c r="J56" t="n">
-        <v>-1542.330320726013</v>
+        <v>-890.7431516118029</v>
       </c>
       <c r="K56" t="n">
-        <v>-1542.330320726013</v>
+        <v>-890.7431516118029</v>
       </c>
       <c r="L56" t="n">
-        <v>-1542.330320726013</v>
+        <v>-890.7431516118029</v>
       </c>
       <c r="M56" t="n">
-        <v>-1542.330320726013</v>
+        <v>-890.7431516118029</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>17977.28669007893</v>
+        <v>21428.16762335358</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>19716.75311305606</v>
+        <v>22452.12885275246</v>
       </c>
       <c r="D57" t="n">
-        <v>18400.37695531417</v>
+        <v>19699.07652860772</v>
       </c>
       <c r="E57" t="n">
-        <v>20966.32852748417</v>
+        <v>23589.5330354828</v>
       </c>
       <c r="F57" t="n">
-        <v>19716.75311305606</v>
+        <v>22452.12885275246</v>
       </c>
       <c r="G57" t="n">
-        <v>19716.75311305606</v>
+        <v>22452.12885275246</v>
       </c>
       <c r="H57" t="n">
-        <v>-83.90042084745369</v>
+        <v>-799.7352404105125</v>
       </c>
       <c r="I57" t="n">
-        <v>-83.90042084745369</v>
+        <v>-799.7352404105125</v>
       </c>
       <c r="J57" t="n">
-        <v>-83.90042084745369</v>
+        <v>-799.7352404105125</v>
       </c>
       <c r="K57" t="n">
-        <v>-83.90042084745369</v>
+        <v>-799.7352404105125</v>
       </c>
       <c r="L57" t="n">
-        <v>-83.90042084745369</v>
+        <v>-799.7352404105125</v>
       </c>
       <c r="M57" t="n">
-        <v>-83.90042084745369</v>
+        <v>-799.7352404105125</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>19632.85269220861</v>
+        <v>21652.39361234195</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>19913.88921530718</v>
+        <v>22585.34693053954</v>
       </c>
       <c r="D58" t="n">
-        <v>18600.92516456878</v>
+        <v>19822.02925334727</v>
       </c>
       <c r="E58" t="n">
-        <v>21131.7776774259</v>
+        <v>23623.01027175307</v>
       </c>
       <c r="F58" t="n">
-        <v>19913.88921530718</v>
+        <v>22585.34693053954</v>
       </c>
       <c r="G58" t="n">
-        <v>19913.88921530718</v>
+        <v>22585.34693053954</v>
       </c>
       <c r="H58" t="n">
-        <v>-97.01193771079764</v>
+        <v>-902.2073013776817</v>
       </c>
       <c r="I58" t="n">
-        <v>-97.01193771079764</v>
+        <v>-902.2073013776817</v>
       </c>
       <c r="J58" t="n">
-        <v>-97.01193771079764</v>
+        <v>-902.2073013776817</v>
       </c>
       <c r="K58" t="n">
-        <v>-97.01193771079764</v>
+        <v>-902.2073013776817</v>
       </c>
       <c r="L58" t="n">
-        <v>-97.01193771079764</v>
+        <v>-902.2073013776817</v>
       </c>
       <c r="M58" t="n">
-        <v>-97.01193771079764</v>
+        <v>-902.2073013776817</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>19816.87727759638</v>
+        <v>21683.13962916185</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>20104.66608845342</v>
+        <v>22714.26765097864</v>
       </c>
       <c r="D59" t="n">
-        <v>19342.48755510569</v>
+        <v>21880.7937308654</v>
       </c>
       <c r="E59" t="n">
-        <v>21868.87152889712</v>
+        <v>25455.55079975219</v>
       </c>
       <c r="F59" t="n">
-        <v>20104.66608845342</v>
+        <v>22714.26765097864</v>
       </c>
       <c r="G59" t="n">
-        <v>20104.66608845342</v>
+        <v>22714.26765097864</v>
       </c>
       <c r="H59" t="n">
-        <v>491.3329562384285</v>
+        <v>987.7083735779912</v>
       </c>
       <c r="I59" t="n">
-        <v>491.3329562384285</v>
+        <v>987.7083735779912</v>
       </c>
       <c r="J59" t="n">
-        <v>491.3329562384285</v>
+        <v>987.7083735779912</v>
       </c>
       <c r="K59" t="n">
-        <v>491.3329562384285</v>
+        <v>987.7083735779912</v>
       </c>
       <c r="L59" t="n">
-        <v>491.3329562384285</v>
+        <v>987.7083735779912</v>
       </c>
       <c r="M59" t="n">
-        <v>491.3329562384285</v>
+        <v>987.7083735779912</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>20595.99904469185</v>
+        <v>23701.97602455664</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>20301.80219070454</v>
+        <v>22847.48572876572</v>
       </c>
       <c r="D60" t="n">
-        <v>18381.71006122891</v>
+        <v>20705.9696323312</v>
       </c>
       <c r="E60" t="n">
-        <v>20976.83307676126</v>
+        <v>24552.25437143015</v>
       </c>
       <c r="F60" t="n">
-        <v>20301.80219070454</v>
+        <v>22847.48572876572</v>
       </c>
       <c r="G60" t="n">
-        <v>20301.80219070454</v>
+        <v>22847.48572876572</v>
       </c>
       <c r="H60" t="n">
-        <v>-627.3306942251369</v>
+        <v>-220.4701490799225</v>
       </c>
       <c r="I60" t="n">
-        <v>-627.3306942251369</v>
+        <v>-220.4701490799225</v>
       </c>
       <c r="J60" t="n">
-        <v>-627.3306942251369</v>
+        <v>-220.4701490799225</v>
       </c>
       <c r="K60" t="n">
-        <v>-627.3306942251369</v>
+        <v>-220.4701490799225</v>
       </c>
       <c r="L60" t="n">
-        <v>-627.3306942251369</v>
+        <v>-220.4701490799225</v>
       </c>
       <c r="M60" t="n">
-        <v>-627.3306942251369</v>
+        <v>-220.4701490799225</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>19674.4714964794</v>
+        <v>22627.01557968579</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>20492.57906385079</v>
+        <v>22976.40644920482</v>
       </c>
       <c r="D61" t="n">
-        <v>18588.46035302522</v>
+        <v>19932.03043083853</v>
       </c>
       <c r="E61" t="n">
-        <v>21150.31528464601</v>
+        <v>23689.53549350781</v>
       </c>
       <c r="F61" t="n">
-        <v>20492.57906385079</v>
+        <v>22976.40644920482</v>
       </c>
       <c r="G61" t="n">
-        <v>20492.57906385079</v>
+        <v>22976.40644920482</v>
       </c>
       <c r="H61" t="n">
-        <v>-571.6519776368482</v>
+        <v>-1168.206259488852</v>
       </c>
       <c r="I61" t="n">
-        <v>-571.6519776368482</v>
+        <v>-1168.206259488852</v>
       </c>
       <c r="J61" t="n">
-        <v>-571.6519776368482</v>
+        <v>-1168.206259488852</v>
       </c>
       <c r="K61" t="n">
-        <v>-571.6519776368482</v>
+        <v>-1168.206259488852</v>
       </c>
       <c r="L61" t="n">
-        <v>-571.6519776368482</v>
+        <v>-1168.206259488852</v>
       </c>
       <c r="M61" t="n">
-        <v>-571.6519776368482</v>
+        <v>-1168.206259488852</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>19920.92708621394</v>
+        <v>21808.20018971597</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>20689.7151661019</v>
+        <v>23109.6245269919</v>
       </c>
       <c r="D62" t="n">
-        <v>19265.38486875035</v>
+        <v>23812.55501103951</v>
       </c>
       <c r="E62" t="n">
-        <v>21866.87323495973</v>
+        <v>27518.54131859567</v>
       </c>
       <c r="F62" t="n">
-        <v>20689.7151661019</v>
+        <v>23109.6245269919</v>
       </c>
       <c r="G62" t="n">
-        <v>20689.7151661019</v>
+        <v>23109.6245269919</v>
       </c>
       <c r="H62" t="n">
-        <v>-97.71680305885519</v>
+        <v>2582.084750040365</v>
       </c>
       <c r="I62" t="n">
-        <v>-97.71680305885519</v>
+        <v>2582.084750040365</v>
       </c>
       <c r="J62" t="n">
-        <v>-97.71680305885519</v>
+        <v>2582.084750040365</v>
       </c>
       <c r="K62" t="n">
-        <v>-97.71680305885519</v>
+        <v>2582.084750040365</v>
       </c>
       <c r="L62" t="n">
-        <v>-97.71680305885519</v>
+        <v>2582.084750040365</v>
       </c>
       <c r="M62" t="n">
-        <v>-97.71680305885519</v>
+        <v>2582.084750040365</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>20591.99836304305</v>
+        <v>25691.70927703227</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>20886.85126835302</v>
+        <v>23242.84260477898</v>
       </c>
       <c r="D63" t="n">
-        <v>16629.45965121802</v>
+        <v>20961.71336788609</v>
       </c>
       <c r="E63" t="n">
-        <v>19186.67874392785</v>
+        <v>24780.83557850359</v>
       </c>
       <c r="F63" t="n">
-        <v>20886.85126835302</v>
+        <v>23242.84260477898</v>
       </c>
       <c r="G63" t="n">
-        <v>20886.85126835302</v>
+        <v>23242.84260477898</v>
       </c>
       <c r="H63" t="n">
-        <v>-2995.638279177901</v>
+        <v>-335.6207698328119</v>
       </c>
       <c r="I63" t="n">
-        <v>-2995.638279177901</v>
+        <v>-335.6207698328119</v>
       </c>
       <c r="J63" t="n">
-        <v>-2995.638279177901</v>
+        <v>-335.6207698328119</v>
       </c>
       <c r="K63" t="n">
-        <v>-2995.638279177901</v>
+        <v>-335.6207698328119</v>
       </c>
       <c r="L63" t="n">
-        <v>-2995.638279177901</v>
+        <v>-335.6207698328119</v>
       </c>
       <c r="M63" t="n">
-        <v>-2995.638279177901</v>
+        <v>-335.6207698328119</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>17891.21298917512</v>
+        <v>22907.22183494617</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>21064.90968328952</v>
+        <v>23363.16861052215</v>
       </c>
       <c r="D64" t="n">
-        <v>20119.67927735315</v>
+        <v>22407.08260700712</v>
       </c>
       <c r="E64" t="n">
-        <v>22574.33772126333</v>
+        <v>26048.25264068567</v>
       </c>
       <c r="F64" t="n">
-        <v>21064.90968328952</v>
+        <v>23363.16861052215</v>
       </c>
       <c r="G64" t="n">
-        <v>21064.90968328952</v>
+        <v>23363.16861052215</v>
       </c>
       <c r="H64" t="n">
-        <v>271.7479242232742</v>
+        <v>848.4616199834013</v>
       </c>
       <c r="I64" t="n">
-        <v>271.7479242232742</v>
+        <v>848.4616199834013</v>
       </c>
       <c r="J64" t="n">
-        <v>271.7479242232742</v>
+        <v>848.4616199834013</v>
       </c>
       <c r="K64" t="n">
-        <v>271.7479242232742</v>
+        <v>848.4616199834013</v>
       </c>
       <c r="L64" t="n">
-        <v>271.7479242232742</v>
+        <v>848.4616199834013</v>
       </c>
       <c r="M64" t="n">
-        <v>271.7479242232742</v>
+        <v>848.4616199834013</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>21336.65760751279</v>
+        <v>24211.63023050555</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>21262.04578554063</v>
+        <v>23496.38668830922</v>
       </c>
       <c r="D65" t="n">
-        <v>19234.44255781373</v>
+        <v>22202.00614476352</v>
       </c>
       <c r="E65" t="n">
-        <v>21746.72745754517</v>
+        <v>26145.35021555363</v>
       </c>
       <c r="F65" t="n">
-        <v>21262.04578554063</v>
+        <v>23496.38668830922</v>
       </c>
       <c r="G65" t="n">
-        <v>21262.04578554063</v>
+        <v>23496.38668830922</v>
       </c>
       <c r="H65" t="n">
-        <v>-757.7889394136672</v>
+        <v>542.8980745238123</v>
       </c>
       <c r="I65" t="n">
-        <v>-757.7889394136672</v>
+        <v>542.8980745238123</v>
       </c>
       <c r="J65" t="n">
-        <v>-757.7889394136672</v>
+        <v>542.8980745238123</v>
       </c>
       <c r="K65" t="n">
-        <v>-757.7889394136672</v>
+        <v>542.8980745238123</v>
       </c>
       <c r="L65" t="n">
-        <v>-757.7889394136672</v>
+        <v>542.8980745238123</v>
       </c>
       <c r="M65" t="n">
-        <v>-757.7889394136672</v>
+        <v>542.8980745238123</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>20504.25684612697</v>
+        <v>24039.28476283303</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>21452.82265868688</v>
+        <v>23625.30740874833</v>
       </c>
       <c r="D66" t="n">
-        <v>19671.55429934461</v>
+        <v>22163.84396131918</v>
       </c>
       <c r="E66" t="n">
-        <v>22243.05271162822</v>
+        <v>26094.81928020793</v>
       </c>
       <c r="F66" t="n">
-        <v>21452.82265868688</v>
+        <v>23625.30740874833</v>
       </c>
       <c r="G66" t="n">
-        <v>21452.82265868688</v>
+        <v>23625.30740874833</v>
       </c>
       <c r="H66" t="n">
-        <v>-445.9663599330032</v>
+        <v>558.0344483029555</v>
       </c>
       <c r="I66" t="n">
-        <v>-445.9663599330032</v>
+        <v>558.0344483029555</v>
       </c>
       <c r="J66" t="n">
-        <v>-445.9663599330032</v>
+        <v>558.0344483029555</v>
       </c>
       <c r="K66" t="n">
-        <v>-445.9663599330032</v>
+        <v>558.0344483029555</v>
       </c>
       <c r="L66" t="n">
-        <v>-445.9663599330032</v>
+        <v>558.0344483029555</v>
       </c>
       <c r="M66" t="n">
-        <v>-445.9663599330032</v>
+        <v>558.0344483029555</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>21006.85629875388</v>
+        <v>24183.34185705128</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>21649.958760938</v>
+        <v>23758.5254865354</v>
       </c>
       <c r="D67" t="n">
-        <v>19745.24072346292</v>
+        <v>21547.91423524182</v>
       </c>
       <c r="E67" t="n">
-        <v>22298.75313814635</v>
+        <v>25173.70598391916</v>
       </c>
       <c r="F67" t="n">
-        <v>21649.958760938</v>
+        <v>23755.96123834702</v>
       </c>
       <c r="G67" t="n">
-        <v>21649.958760938</v>
+        <v>23761.3422847707</v>
       </c>
       <c r="H67" t="n">
-        <v>-637.738432342763</v>
+        <v>-384.0767964750327</v>
       </c>
       <c r="I67" t="n">
-        <v>-637.738432342763</v>
+        <v>-384.0767964750327</v>
       </c>
       <c r="J67" t="n">
-        <v>-637.738432342763</v>
+        <v>-384.0767964750327</v>
       </c>
       <c r="K67" t="n">
-        <v>-637.738432342763</v>
+        <v>-384.0767964750327</v>
       </c>
       <c r="L67" t="n">
-        <v>-637.738432342763</v>
+        <v>-384.0767964750327</v>
       </c>
       <c r="M67" t="n">
-        <v>-637.738432342763</v>
+        <v>-384.0767964750327</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>21012.22032859523</v>
+        <v>23374.44869006037</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>21840.73563408424</v>
+        <v>23887.44620697451</v>
       </c>
       <c r="D68" t="n">
-        <v>19540.82326133951</v>
+        <v>21303.63302622065</v>
       </c>
       <c r="E68" t="n">
-        <v>22088.14106712647</v>
+        <v>24881.70468028114</v>
       </c>
       <c r="F68" t="n">
-        <v>21840.73563408424</v>
+        <v>23873.56865056164</v>
       </c>
       <c r="G68" t="n">
-        <v>21840.73563408424</v>
+        <v>23902.62652755027</v>
       </c>
       <c r="H68" t="n">
-        <v>-997.1028579280041</v>
+        <v>-776.4067597933416</v>
       </c>
       <c r="I68" t="n">
-        <v>-997.1028579280041</v>
+        <v>-776.4067597933416</v>
       </c>
       <c r="J68" t="n">
-        <v>-997.1028579280041</v>
+        <v>-776.4067597933416</v>
       </c>
       <c r="K68" t="n">
-        <v>-997.1028579280041</v>
+        <v>-776.4067597933416</v>
       </c>
       <c r="L68" t="n">
-        <v>-997.1028579280041</v>
+        <v>-776.4067597933416</v>
       </c>
       <c r="M68" t="n">
-        <v>-997.1028579280041</v>
+        <v>-776.4067597933416</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>20843.63277615624</v>
+        <v>23111.03944718117</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>22037.87173633536</v>
+        <v>24020.66428476159</v>
       </c>
       <c r="D69" t="n">
-        <v>20500.87914055024</v>
+        <v>21696.79793169294</v>
       </c>
       <c r="E69" t="n">
-        <v>23208.44712740297</v>
+        <v>25464.57004967643</v>
       </c>
       <c r="F69" t="n">
-        <v>22037.87173633536</v>
+        <v>23991.27819873367</v>
       </c>
       <c r="G69" t="n">
-        <v>22037.87173633536</v>
+        <v>24051.56139650628</v>
       </c>
       <c r="H69" t="n">
-        <v>-201.4453513081579</v>
+        <v>-514.0053847814459</v>
       </c>
       <c r="I69" t="n">
-        <v>-201.4453513081579</v>
+        <v>-514.0053847814459</v>
       </c>
       <c r="J69" t="n">
-        <v>-201.4453513081579</v>
+        <v>-514.0053847814459</v>
       </c>
       <c r="K69" t="n">
-        <v>-201.4453513081579</v>
+        <v>-514.0053847814459</v>
       </c>
       <c r="L69" t="n">
-        <v>-201.4453513081579</v>
+        <v>-514.0053847814459</v>
       </c>
       <c r="M69" t="n">
-        <v>-201.4453513081579</v>
+        <v>-514.0053847814459</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>21836.4263850272</v>
+        <v>23506.65889998014</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>22235.00783858648</v>
+        <v>24153.88236254867</v>
       </c>
       <c r="D70" t="n">
-        <v>20492.97421679135</v>
+        <v>21239.14034154734</v>
       </c>
       <c r="E70" t="n">
-        <v>23007.73340433775</v>
+        <v>24977.10242226312</v>
       </c>
       <c r="F70" t="n">
-        <v>22235.00783858648</v>
+        <v>24106.80385734624</v>
       </c>
       <c r="G70" t="n">
-        <v>22235.00783858648</v>
+        <v>24201.66165158401</v>
       </c>
       <c r="H70" t="n">
-        <v>-520.4837231580276</v>
+        <v>-1108.224449641457</v>
       </c>
       <c r="I70" t="n">
-        <v>-520.4837231580276</v>
+        <v>-1108.224449641457</v>
       </c>
       <c r="J70" t="n">
-        <v>-520.4837231580276</v>
+        <v>-1108.224449641457</v>
       </c>
       <c r="K70" t="n">
-        <v>-520.4837231580276</v>
+        <v>-1108.224449641457</v>
       </c>
       <c r="L70" t="n">
-        <v>-520.4837231580276</v>
+        <v>-1108.224449641457</v>
       </c>
       <c r="M70" t="n">
-        <v>-520.4837231580276</v>
+        <v>-1108.224449641457</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>21714.52411542845</v>
+        <v>23045.65791290721</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>22425.78471173272</v>
+        <v>24282.80308298777</v>
       </c>
       <c r="D71" t="n">
-        <v>22026.07447428061</v>
+        <v>23535.51153640826</v>
       </c>
       <c r="E71" t="n">
-        <v>24585.51327078551</v>
+        <v>27286.42883337665</v>
       </c>
       <c r="F71" t="n">
-        <v>22425.78471173272</v>
+        <v>24215.71003657184</v>
       </c>
       <c r="G71" t="n">
-        <v>22425.78471173272</v>
+        <v>24351.16274542426</v>
       </c>
       <c r="H71" t="n">
-        <v>917.5816523576427</v>
+        <v>1236.636846244948</v>
       </c>
       <c r="I71" t="n">
-        <v>917.5816523576427</v>
+        <v>1236.636846244948</v>
       </c>
       <c r="J71" t="n">
-        <v>917.5816523576427</v>
+        <v>1236.636846244948</v>
       </c>
       <c r="K71" t="n">
-        <v>917.5816523576427</v>
+        <v>1236.636846244948</v>
       </c>
       <c r="L71" t="n">
-        <v>917.5816523576427</v>
+        <v>1236.636846244948</v>
       </c>
       <c r="M71" t="n">
-        <v>917.5816523576427</v>
+        <v>1236.636846244948</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>23343.36636409037</v>
+        <v>25519.43992923272</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>22622.92081398384</v>
+        <v>24416.02116077485</v>
       </c>
       <c r="D72" t="n">
-        <v>20544.21063259965</v>
+        <v>21820.06994253566</v>
       </c>
       <c r="E72" t="n">
-        <v>23128.80987888564</v>
+        <v>25665.11315137413</v>
       </c>
       <c r="F72" t="n">
-        <v>22622.92081398384</v>
+        <v>24322.52173950384</v>
       </c>
       <c r="G72" t="n">
-        <v>22622.92081398384</v>
+        <v>24512.4368437254</v>
       </c>
       <c r="H72" t="n">
-        <v>-764.5059238511053</v>
+        <v>-689.3260664397335</v>
       </c>
       <c r="I72" t="n">
-        <v>-764.5059238511053</v>
+        <v>-689.3260664397335</v>
       </c>
       <c r="J72" t="n">
-        <v>-764.5059238511053</v>
+        <v>-689.3260664397335</v>
       </c>
       <c r="K72" t="n">
-        <v>-764.5059238511053</v>
+        <v>-689.3260664397335</v>
       </c>
       <c r="L72" t="n">
-        <v>-764.5059238511053</v>
+        <v>-689.3260664397335</v>
       </c>
       <c r="M72" t="n">
-        <v>-764.5059238511053</v>
+        <v>-689.3260664397335</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>21858.41489013274</v>
+        <v>23726.69509433511</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>22813.69768713008</v>
+        <v>24544.94188121396</v>
       </c>
       <c r="D73" t="n">
-        <v>20344.2219308345</v>
+        <v>21342.96243083365</v>
       </c>
       <c r="E73" t="n">
-        <v>22880.61318604263</v>
+        <v>24876.50486471794</v>
       </c>
       <c r="F73" t="n">
-        <v>22813.69768713008</v>
+        <v>24421.19195900507</v>
       </c>
       <c r="G73" t="n">
-        <v>22813.69768713008</v>
+        <v>24667.21119336223</v>
       </c>
       <c r="H73" t="n">
-        <v>-1274.000917647395</v>
+        <v>-1336.29663055392</v>
       </c>
       <c r="I73" t="n">
-        <v>-1274.000917647395</v>
+        <v>-1336.29663055392</v>
       </c>
       <c r="J73" t="n">
-        <v>-1274.000917647395</v>
+        <v>-1336.29663055392</v>
       </c>
       <c r="K73" t="n">
-        <v>-1274.000917647395</v>
+        <v>-1336.29663055392</v>
       </c>
       <c r="L73" t="n">
-        <v>-1274.000917647395</v>
+        <v>-1336.29663055392</v>
       </c>
       <c r="M73" t="n">
-        <v>-1274.000917647395</v>
+        <v>-1336.29663055392</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>21539.69676948269</v>
+        <v>23208.64525066004</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>23010.8337893812</v>
+        <v>24678.15995900103</v>
       </c>
       <c r="D74" t="n">
-        <v>22349.91225386367</v>
+        <v>26165.23282995825</v>
       </c>
       <c r="E74" t="n">
-        <v>24948.39239018571</v>
+        <v>29965.85828953571</v>
       </c>
       <c r="F74" t="n">
-        <v>23010.8337893812</v>
+        <v>24524.3623623678</v>
       </c>
       <c r="G74" t="n">
-        <v>23010.8337893812</v>
+        <v>24828.46723726358</v>
       </c>
       <c r="H74" t="n">
-        <v>625.7998378975315</v>
+        <v>3394.763158808949</v>
       </c>
       <c r="I74" t="n">
-        <v>625.7998378975315</v>
+        <v>3394.763158808949</v>
       </c>
       <c r="J74" t="n">
-        <v>625.7998378975315</v>
+        <v>3394.763158808949</v>
       </c>
       <c r="K74" t="n">
-        <v>625.7998378975315</v>
+        <v>3394.763158808949</v>
       </c>
       <c r="L74" t="n">
-        <v>625.7998378975315</v>
+        <v>3394.763158808949</v>
       </c>
       <c r="M74" t="n">
-        <v>625.7998378975315</v>
+        <v>3394.763158808949</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>23636.63362727873</v>
+        <v>28072.92311780998</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>23207.96989163232</v>
+        <v>24811.37803678811</v>
       </c>
       <c r="D75" t="n">
-        <v>19673.34628014567</v>
+        <v>22236.11970515253</v>
       </c>
       <c r="E75" t="n">
-        <v>22187.83296957189</v>
+        <v>26076.28871587449</v>
       </c>
       <c r="F75" t="n">
-        <v>23207.96989163232</v>
+        <v>24630.74632496236</v>
       </c>
       <c r="G75" t="n">
-        <v>23207.96989163232</v>
+        <v>24995.65981075987</v>
       </c>
       <c r="H75" t="n">
-        <v>-2279.834531158755</v>
+        <v>-589.1808644369902</v>
       </c>
       <c r="I75" t="n">
-        <v>-2279.834531158755</v>
+        <v>-589.1808644369902</v>
       </c>
       <c r="J75" t="n">
-        <v>-2279.834531158755</v>
+        <v>-589.1808644369902</v>
       </c>
       <c r="K75" t="n">
-        <v>-2279.834531158755</v>
+        <v>-589.1808644369902</v>
       </c>
       <c r="L75" t="n">
-        <v>-2279.834531158755</v>
+        <v>-589.1808644369902</v>
       </c>
       <c r="M75" t="n">
-        <v>-2279.834531158755</v>
+        <v>-589.1808644369902</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>20928.13536047357</v>
+        <v>24222.19717235112</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>23386.02830656882</v>
+        <v>24931.70404253127</v>
       </c>
       <c r="D76" t="n">
-        <v>21267.28745196088</v>
+        <v>23647.0088729784</v>
       </c>
       <c r="E76" t="n">
-        <v>23803.02739770537</v>
+        <v>27539.26122354799</v>
       </c>
       <c r="F76" t="n">
-        <v>23386.02830656882</v>
+        <v>24728.06683723046</v>
       </c>
       <c r="G76" t="n">
-        <v>23386.02830656882</v>
+        <v>25144.11047072504</v>
       </c>
       <c r="H76" t="n">
-        <v>-800.4386954918067</v>
+        <v>657.8181957154397</v>
       </c>
       <c r="I76" t="n">
-        <v>-800.4386954918067</v>
+        <v>657.8181957154397</v>
       </c>
       <c r="J76" t="n">
-        <v>-800.4386954918067</v>
+        <v>657.8181957154397</v>
       </c>
       <c r="K76" t="n">
-        <v>-800.4386954918067</v>
+        <v>657.8181957154397</v>
       </c>
       <c r="L76" t="n">
-        <v>-800.4386954918067</v>
+        <v>657.8181957154397</v>
       </c>
       <c r="M76" t="n">
-        <v>-800.4386954918067</v>
+        <v>657.8181957154397</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>22585.58961107701</v>
+        <v>25589.52223824671</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>23583.16440881993</v>
+        <v>25064.92212031835</v>
       </c>
       <c r="D77" t="n">
-        <v>21746.66826523183</v>
+        <v>23584.05927828245</v>
       </c>
       <c r="E77" t="n">
-        <v>24221.60458560975</v>
+        <v>27485.74117299067</v>
       </c>
       <c r="F77" t="n">
-        <v>23583.16440881993</v>
+        <v>24823.81459054588</v>
       </c>
       <c r="G77" t="n">
-        <v>23583.16440881993</v>
+        <v>25313.86376638466</v>
       </c>
       <c r="H77" t="n">
-        <v>-568.7530782370636</v>
+        <v>500.2801529031661</v>
       </c>
       <c r="I77" t="n">
-        <v>-568.7530782370636</v>
+        <v>500.2801529031661</v>
       </c>
       <c r="J77" t="n">
-        <v>-568.7530782370636</v>
+        <v>500.2801529031661</v>
       </c>
       <c r="K77" t="n">
-        <v>-568.7530782370636</v>
+        <v>500.2801529031661</v>
       </c>
       <c r="L77" t="n">
-        <v>-568.7530782370636</v>
+        <v>500.2801529031661</v>
       </c>
       <c r="M77" t="n">
-        <v>-568.7530782370636</v>
+        <v>500.2801529031661</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>23014.41133058287</v>
+        <v>25565.20227322152</v>
       </c>
     </row>
     <row r="78">
@@ -4552,40 +4552,40 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>23773.94128196618</v>
+        <v>25193.84284075746</v>
       </c>
       <c r="D78" t="n">
-        <v>22256.72278761355</v>
+        <v>24249.33558707974</v>
       </c>
       <c r="E78" t="n">
-        <v>24716.56273241379</v>
+        <v>28030.74122949868</v>
       </c>
       <c r="F78" t="n">
-        <v>23773.11708830964</v>
+        <v>24923.72927194604</v>
       </c>
       <c r="G78" t="n">
-        <v>23774.75929355581</v>
+        <v>25479.56038587475</v>
       </c>
       <c r="H78" t="n">
-        <v>-346.4108234833383</v>
+        <v>930.2119565706605</v>
       </c>
       <c r="I78" t="n">
-        <v>-346.4108234833383</v>
+        <v>930.2119565706605</v>
       </c>
       <c r="J78" t="n">
-        <v>-346.4108234833383</v>
+        <v>930.2119565706605</v>
       </c>
       <c r="K78" t="n">
-        <v>-346.4108234833383</v>
+        <v>930.2119565706605</v>
       </c>
       <c r="L78" t="n">
-        <v>-346.4108234833383</v>
+        <v>930.2119565706605</v>
       </c>
       <c r="M78" t="n">
-        <v>-346.4108234833383</v>
+        <v>930.2119565706605</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>23427.53045848284</v>
+        <v>26124.05479732812</v>
       </c>
     </row>
     <row r="79">
@@ -4605,40 +4605,40 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>23971.0773842173</v>
+        <v>25327.06091854453</v>
       </c>
       <c r="D79" t="n">
-        <v>21822.13021299423</v>
+        <v>22725.0637436539</v>
       </c>
       <c r="E79" t="n">
-        <v>24494.64118647842</v>
+        <v>26403.8584406682</v>
       </c>
       <c r="F79" t="n">
-        <v>23964.36609399067</v>
+        <v>25016.53202829338</v>
       </c>
       <c r="G79" t="n">
-        <v>23976.9789077026</v>
+        <v>25649.22005721757</v>
       </c>
       <c r="H79" t="n">
-        <v>-817.2283696427538</v>
+        <v>-797.188466105583</v>
       </c>
       <c r="I79" t="n">
-        <v>-817.2283696427538</v>
+        <v>-797.188466105583</v>
       </c>
       <c r="J79" t="n">
-        <v>-817.2283696427538</v>
+        <v>-797.188466105583</v>
       </c>
       <c r="K79" t="n">
-        <v>-817.2283696427538</v>
+        <v>-797.188466105583</v>
       </c>
       <c r="L79" t="n">
-        <v>-817.2283696427538</v>
+        <v>-797.188466105583</v>
       </c>
       <c r="M79" t="n">
-        <v>-817.2283696427538</v>
+        <v>-797.188466105583</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>23153.84901457454</v>
+        <v>24529.87245243895</v>
       </c>
     </row>
     <row r="80">
@@ -4658,40 +4658,40 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>24161.85425736354</v>
+        <v>25455.98163898364</v>
       </c>
       <c r="D80" t="n">
-        <v>22519.24950895168</v>
+        <v>22957.24385122368</v>
       </c>
       <c r="E80" t="n">
-        <v>24966.19145092939</v>
+        <v>26569.20402374114</v>
       </c>
       <c r="F80" t="n">
-        <v>24145.72087654576</v>
+        <v>25096.29149871624</v>
       </c>
       <c r="G80" t="n">
-        <v>24175.59974434161</v>
+        <v>25811.81693585143</v>
       </c>
       <c r="H80" t="n">
-        <v>-453.3025085911792</v>
+        <v>-654.4663415505269</v>
       </c>
       <c r="I80" t="n">
-        <v>-453.3025085911792</v>
+        <v>-654.4663415505269</v>
       </c>
       <c r="J80" t="n">
-        <v>-453.3025085911792</v>
+        <v>-654.4663415505269</v>
       </c>
       <c r="K80" t="n">
-        <v>-453.3025085911792</v>
+        <v>-654.4663415505269</v>
       </c>
       <c r="L80" t="n">
-        <v>-453.3025085911792</v>
+        <v>-654.4663415505269</v>
       </c>
       <c r="M80" t="n">
-        <v>-453.3025085911792</v>
+        <v>-654.4663415505269</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>23708.55174877236</v>
+        <v>24801.51529743311</v>
       </c>
     </row>
     <row r="81">
@@ -4711,40 +4711,40 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>24358.99035961466</v>
+        <v>25589.19971677072</v>
       </c>
       <c r="D81" t="n">
-        <v>22766.30190508717</v>
+        <v>23504.88849098119</v>
       </c>
       <c r="E81" t="n">
-        <v>25342.87854952695</v>
+        <v>27358.76774147067</v>
       </c>
       <c r="F81" t="n">
-        <v>24329.67400541786</v>
+        <v>25201.15985674111</v>
       </c>
       <c r="G81" t="n">
-        <v>24383.95153378849</v>
+        <v>25991.12128042808</v>
       </c>
       <c r="H81" t="n">
-        <v>-331.3605769706869</v>
+        <v>-231.2838736852863</v>
       </c>
       <c r="I81" t="n">
-        <v>-331.3605769706869</v>
+        <v>-231.2838736852863</v>
       </c>
       <c r="J81" t="n">
-        <v>-331.3605769706869</v>
+        <v>-231.2838736852863</v>
       </c>
       <c r="K81" t="n">
-        <v>-331.3605769706869</v>
+        <v>-231.2838736852863</v>
       </c>
       <c r="L81" t="n">
-        <v>-331.3605769706869</v>
+        <v>-231.2838736852863</v>
       </c>
       <c r="M81" t="n">
-        <v>-331.3605769706869</v>
+        <v>-231.2838736852863</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>24027.62978264397</v>
+        <v>25357.91584308543</v>
       </c>
     </row>
     <row r="82">
@@ -4764,40 +4764,40 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>24556.12646186578</v>
+        <v>25722.41779455779</v>
       </c>
       <c r="D82" t="n">
-        <v>22358.70779533817</v>
+        <v>22276.80863330062</v>
       </c>
       <c r="E82" t="n">
-        <v>24880.23049861998</v>
+        <v>26310.78168164194</v>
       </c>
       <c r="F82" t="n">
-        <v>24513.70299883795</v>
+        <v>25279.72918607389</v>
       </c>
       <c r="G82" t="n">
-        <v>24594.09258796845</v>
+        <v>26159.45264454977</v>
       </c>
       <c r="H82" t="n">
-        <v>-940.613818251504</v>
+        <v>-1316.771535814011</v>
       </c>
       <c r="I82" t="n">
-        <v>-940.613818251504</v>
+        <v>-1316.771535814011</v>
       </c>
       <c r="J82" t="n">
-        <v>-940.613818251504</v>
+        <v>-1316.771535814011</v>
       </c>
       <c r="K82" t="n">
-        <v>-940.613818251504</v>
+        <v>-1316.771535814011</v>
       </c>
       <c r="L82" t="n">
-        <v>-940.613818251504</v>
+        <v>-1316.771535814011</v>
       </c>
       <c r="M82" t="n">
-        <v>-940.613818251504</v>
+        <v>-1316.771535814011</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>23615.51264361428</v>
+        <v>24405.64625874378</v>
       </c>
     </row>
     <row r="83">
@@ -4817,40 +4817,40 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>24746.90333501202</v>
+        <v>25851.3385149969</v>
       </c>
       <c r="D83" t="n">
-        <v>24844.02879990573</v>
+        <v>25218.53833404229</v>
       </c>
       <c r="E83" t="n">
-        <v>27453.96679235338</v>
+        <v>29204.80349262882</v>
       </c>
       <c r="F83" t="n">
-        <v>24690.02304648695</v>
+        <v>25369.29063412395</v>
       </c>
       <c r="G83" t="n">
-        <v>24800.04857342663</v>
+        <v>26339.82692879755</v>
       </c>
       <c r="H83" t="n">
-        <v>1344.514946102574</v>
+        <v>1479.716518007132</v>
       </c>
       <c r="I83" t="n">
-        <v>1344.514946102574</v>
+        <v>1479.716518007132</v>
       </c>
       <c r="J83" t="n">
-        <v>1344.514946102574</v>
+        <v>1479.716518007132</v>
       </c>
       <c r="K83" t="n">
-        <v>1344.514946102574</v>
+        <v>1479.716518007132</v>
       </c>
       <c r="L83" t="n">
-        <v>1344.514946102574</v>
+        <v>1479.716518007132</v>
       </c>
       <c r="M83" t="n">
-        <v>1344.514946102574</v>
+        <v>1479.716518007132</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,590 +4862,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>26091.41828111459</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>24944.03943726314</v>
-      </c>
-      <c r="D84" t="n">
-        <v>22736.16018489804</v>
-      </c>
-      <c r="E84" t="n">
-        <v>25259.15129924278</v>
-      </c>
-      <c r="F84" t="n">
-        <v>24869.20539952824</v>
-      </c>
-      <c r="G84" t="n">
-        <v>25012.02132598081</v>
-      </c>
-      <c r="H84" t="n">
-        <v>-911.2942107535624</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-911.2942107535624</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-911.2942107535624</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-911.2942107535624</v>
-      </c>
-      <c r="L84" t="n">
-        <v>-911.2942107535624</v>
-      </c>
-      <c r="M84" t="n">
-        <v>-911.2942107535624</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>24032.74522650957</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>25134.81631040939</v>
-      </c>
-      <c r="D85" t="n">
-        <v>21839.09312978593</v>
-      </c>
-      <c r="E85" t="n">
-        <v>24501.67840384146</v>
-      </c>
-      <c r="F85" t="n">
-        <v>25046.17171202159</v>
-      </c>
-      <c r="G85" t="n">
-        <v>25220.07633017822</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-1961.799470250444</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-1961.799470250444</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-1961.799470250444</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-1961.799470250444</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-1961.799470250444</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-1961.799470250444</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>23173.01684015894</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>25331.9524126605</v>
-      </c>
-      <c r="D86" t="n">
-        <v>25399.94957868953</v>
-      </c>
-      <c r="E86" t="n">
-        <v>28051.01276876735</v>
-      </c>
-      <c r="F86" t="n">
-        <v>25226.84986960005</v>
-      </c>
-      <c r="G86" t="n">
-        <v>25436.31693400845</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1364.876868105001</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1364.876868105001</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1364.876868105001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1364.876868105001</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1364.876868105001</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1364.876868105001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>26696.8292807655</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>25529.08851491162</v>
-      </c>
-      <c r="D87" t="n">
-        <v>22652.46732198083</v>
-      </c>
-      <c r="E87" t="n">
-        <v>25239.41357884391</v>
-      </c>
-      <c r="F87" t="n">
-        <v>25405.14595761237</v>
-      </c>
-      <c r="G87" t="n">
-        <v>25654.27001349586</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-1581.913722893457</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-1581.913722893457</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-1581.913722893457</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-1581.913722893457</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-1581.913722893457</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-1581.913722893457</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>23947.17479201817</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>25707.14692984812</v>
-      </c>
-      <c r="D88" t="n">
-        <v>22648.58466052594</v>
-      </c>
-      <c r="E88" t="n">
-        <v>25125.94846072364</v>
-      </c>
-      <c r="F88" t="n">
-        <v>25564.04858029323</v>
-      </c>
-      <c r="G88" t="n">
-        <v>25850.69912120152</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-1878.342338206379</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-1878.342338206379</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-1878.342338206379</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-1878.342338206379</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-1878.342338206379</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-1878.342338206379</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>23828.80459164174</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>25904.28303209923</v>
-      </c>
-      <c r="D89" t="n">
-        <v>24203.06221048048</v>
-      </c>
-      <c r="E89" t="n">
-        <v>26744.9643922106</v>
-      </c>
-      <c r="F89" t="n">
-        <v>25736.98169556718</v>
-      </c>
-      <c r="G89" t="n">
-        <v>26070.66157424571</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-366.1945477629178</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-366.1945477629178</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-366.1945477629178</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-366.1945477629178</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-366.1945477629178</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-366.1945477629178</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>25538.08848433632</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>26095.05990524547</v>
-      </c>
-      <c r="D90" t="n">
-        <v>24515.4278603958</v>
-      </c>
-      <c r="E90" t="n">
-        <v>27150.55651263598</v>
-      </c>
-      <c r="F90" t="n">
-        <v>25903.8485297158</v>
-      </c>
-      <c r="G90" t="n">
-        <v>26285.08846439116</v>
-      </c>
-      <c r="H90" t="n">
-        <v>-245.6985355192124</v>
-      </c>
-      <c r="I90" t="n">
-        <v>-245.6985355192124</v>
-      </c>
-      <c r="J90" t="n">
-        <v>-245.6985355192124</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-245.6985355192124</v>
-      </c>
-      <c r="L90" t="n">
-        <v>-245.6985355192124</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-245.6985355192124</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>25849.36136972626</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>26292.1960074966</v>
-      </c>
-      <c r="D91" t="n">
-        <v>23977.35472054234</v>
-      </c>
-      <c r="E91" t="n">
-        <v>26660.95348003259</v>
-      </c>
-      <c r="F91" t="n">
-        <v>26076.47667610177</v>
-      </c>
-      <c r="G91" t="n">
-        <v>26506.53999268081</v>
-      </c>
-      <c r="H91" t="n">
-        <v>-990.5647524619419</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-990.5647524619419</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-990.5647524619419</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-990.5647524619419</v>
-      </c>
-      <c r="L91" t="n">
-        <v>-990.5647524619419</v>
-      </c>
-      <c r="M91" t="n">
-        <v>-990.5647524619419</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>25301.63125503466</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>26482.97288064284</v>
-      </c>
-      <c r="D92" t="n">
-        <v>25297.14622677285</v>
-      </c>
-      <c r="E92" t="n">
-        <v>27849.27349745021</v>
-      </c>
-      <c r="F92" t="n">
-        <v>26242.76961287293</v>
-      </c>
-      <c r="G92" t="n">
-        <v>26721.3484672533</v>
-      </c>
-      <c r="H92" t="n">
-        <v>88.50062680214582</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88.50062680214582</v>
-      </c>
-      <c r="J92" t="n">
-        <v>88.50062680214582</v>
-      </c>
-      <c r="K92" t="n">
-        <v>88.50062680214582</v>
-      </c>
-      <c r="L92" t="n">
-        <v>88.50062680214582</v>
-      </c>
-      <c r="M92" t="n">
-        <v>88.50062680214582</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>26571.47350744499</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>26680.10898289396</v>
-      </c>
-      <c r="D93" t="n">
-        <v>24850.54313853828</v>
-      </c>
-      <c r="E93" t="n">
-        <v>27537.30312879711</v>
-      </c>
-      <c r="F93" t="n">
-        <v>26414.16567139834</v>
-      </c>
-      <c r="G93" t="n">
-        <v>26950.01041953692</v>
-      </c>
-      <c r="H93" t="n">
-        <v>-473.5440929079314</v>
-      </c>
-      <c r="I93" t="n">
-        <v>-473.5440929079314</v>
-      </c>
-      <c r="J93" t="n">
-        <v>-473.5440929079314</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-473.5440929079314</v>
-      </c>
-      <c r="L93" t="n">
-        <v>-473.5440929079314</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-473.5440929079314</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>26206.56488998603</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>26877.24508514508</v>
-      </c>
-      <c r="D94" t="n">
-        <v>24252.47272886184</v>
-      </c>
-      <c r="E94" t="n">
-        <v>26822.58095983329</v>
-      </c>
-      <c r="F94" t="n">
-        <v>26575.60000276616</v>
-      </c>
-      <c r="G94" t="n">
-        <v>27174.750117892</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-1356.99737684261</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-1356.99737684261</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-1356.99737684261</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-1356.99737684261</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-1356.99737684261</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-1356.99737684261</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>25520.24770830247</v>
+        <v>27331.05503300403</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/wl_retention_monthly.xlsx
+++ b/outputs/wl_retention_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42736</v>
       </c>
       <c r="C2" t="n">
-        <v>5231.953880331452</v>
+        <v>5491.198784703556</v>
       </c>
       <c r="D2" t="n">
-        <v>5087.810271897674</v>
+        <v>5129.738520309349</v>
       </c>
       <c r="E2" t="n">
-        <v>8924.410712097124</v>
+        <v>9242.40153049115</v>
       </c>
       <c r="F2" t="n">
-        <v>5231.953880331452</v>
+        <v>5491.198784703556</v>
       </c>
       <c r="G2" t="n">
-        <v>5231.953880331452</v>
+        <v>5491.198784703556</v>
       </c>
       <c r="H2" t="n">
-        <v>1768.317335774776</v>
+        <v>1672.268550601499</v>
       </c>
       <c r="I2" t="n">
-        <v>1768.317335774776</v>
+        <v>1672.268550601499</v>
       </c>
       <c r="J2" t="n">
-        <v>1768.317335774776</v>
+        <v>1672.268550601499</v>
       </c>
       <c r="K2" t="n">
-        <v>1768.317335774776</v>
+        <v>1672.268550601499</v>
       </c>
       <c r="L2" t="n">
-        <v>1768.317335774776</v>
+        <v>1672.268550601499</v>
       </c>
       <c r="M2" t="n">
-        <v>1768.317335774776</v>
+        <v>1672.268550601499</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>7000.271216106228</v>
+        <v>7163.467335305055</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42767</v>
       </c>
       <c r="C3" t="n">
-        <v>5644.661285420476</v>
+        <v>5879.293488940998</v>
       </c>
       <c r="D3" t="n">
-        <v>3693.445845205519</v>
+        <v>3654.603414097243</v>
       </c>
       <c r="E3" t="n">
-        <v>7556.407196347051</v>
+        <v>7760.012395460205</v>
       </c>
       <c r="F3" t="n">
-        <v>5644.661285420476</v>
+        <v>5879.293488940998</v>
       </c>
       <c r="G3" t="n">
-        <v>5644.661285420476</v>
+        <v>5879.293488940998</v>
       </c>
       <c r="H3" t="n">
-        <v>-94.18204835858188</v>
+        <v>-148.8963905053303</v>
       </c>
       <c r="I3" t="n">
-        <v>-94.18204835858188</v>
+        <v>-148.8963905053303</v>
       </c>
       <c r="J3" t="n">
-        <v>-94.18204835858188</v>
+        <v>-148.8963905053303</v>
       </c>
       <c r="K3" t="n">
-        <v>-94.18204835858188</v>
+        <v>-148.8963905053303</v>
       </c>
       <c r="L3" t="n">
-        <v>-94.18204835858188</v>
+        <v>-148.8963905053303</v>
       </c>
       <c r="M3" t="n">
-        <v>-94.18204835858188</v>
+        <v>-148.8963905053303</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5550.479237061894</v>
+        <v>5730.397098435667</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42795</v>
       </c>
       <c r="C4" t="n">
-        <v>6017.429264210562</v>
+        <v>6229.830641155461</v>
       </c>
       <c r="D4" t="n">
-        <v>5282.498832076586</v>
+        <v>5171.582241334822</v>
       </c>
       <c r="E4" t="n">
-        <v>8928.460394179865</v>
+        <v>9131.460012842046</v>
       </c>
       <c r="F4" t="n">
-        <v>6017.429264210562</v>
+        <v>6229.830641155461</v>
       </c>
       <c r="G4" t="n">
-        <v>6017.429264210562</v>
+        <v>6229.830641155461</v>
       </c>
       <c r="H4" t="n">
-        <v>1040.89705581409</v>
+        <v>921.4553564870268</v>
       </c>
       <c r="I4" t="n">
-        <v>1040.89705581409</v>
+        <v>921.4553564870268</v>
       </c>
       <c r="J4" t="n">
-        <v>1040.89705581409</v>
+        <v>921.4553564870268</v>
       </c>
       <c r="K4" t="n">
-        <v>1040.89705581409</v>
+        <v>921.4553564870268</v>
       </c>
       <c r="L4" t="n">
-        <v>1040.89705581409</v>
+        <v>921.4553564870268</v>
       </c>
       <c r="M4" t="n">
-        <v>1040.89705581409</v>
+        <v>921.4553564870268</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>7058.326320024652</v>
+        <v>7151.285997642488</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>42826</v>
       </c>
       <c r="C5" t="n">
-        <v>6430.136668998362</v>
+        <v>6617.925345386457</v>
       </c>
       <c r="D5" t="n">
-        <v>5089.543139523317</v>
+        <v>5245.512855392437</v>
       </c>
       <c r="E5" t="n">
-        <v>8758.947796438722</v>
+        <v>9101.491580962058</v>
       </c>
       <c r="F5" t="n">
-        <v>6430.136668998362</v>
+        <v>6617.925345386457</v>
       </c>
       <c r="G5" t="n">
-        <v>6430.136668998362</v>
+        <v>6617.925345386457</v>
       </c>
       <c r="H5" t="n">
-        <v>592.3680058258776</v>
+        <v>509.5008837405531</v>
       </c>
       <c r="I5" t="n">
-        <v>592.3680058258776</v>
+        <v>509.5008837405531</v>
       </c>
       <c r="J5" t="n">
-        <v>592.3680058258776</v>
+        <v>509.5008837405531</v>
       </c>
       <c r="K5" t="n">
-        <v>592.3680058258776</v>
+        <v>509.5008837405531</v>
       </c>
       <c r="L5" t="n">
-        <v>592.3680058258776</v>
+        <v>509.5008837405531</v>
       </c>
       <c r="M5" t="n">
-        <v>592.3680058258776</v>
+        <v>509.5008837405531</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>7022.504674824239</v>
+        <v>7127.42622912701</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>42856</v>
       </c>
       <c r="C6" t="n">
-        <v>6829.530931696233</v>
+        <v>6993.50086561</v>
       </c>
       <c r="D6" t="n">
-        <v>5103.409112293455</v>
+        <v>5002.846398100723</v>
       </c>
       <c r="E6" t="n">
-        <v>8793.093432723454</v>
+        <v>8953.128023344845</v>
       </c>
       <c r="F6" t="n">
-        <v>6829.530931696233</v>
+        <v>6993.50086561</v>
       </c>
       <c r="G6" t="n">
-        <v>6829.530931696233</v>
+        <v>6993.50086561</v>
       </c>
       <c r="H6" t="n">
-        <v>182.2842723893554</v>
+        <v>125.6931892134152</v>
       </c>
       <c r="I6" t="n">
-        <v>182.2842723893554</v>
+        <v>125.6931892134152</v>
       </c>
       <c r="J6" t="n">
-        <v>182.2842723893554</v>
+        <v>125.6931892134152</v>
       </c>
       <c r="K6" t="n">
-        <v>182.2842723893554</v>
+        <v>125.6931892134152</v>
       </c>
       <c r="L6" t="n">
-        <v>182.2842723893554</v>
+        <v>125.6931892134152</v>
       </c>
       <c r="M6" t="n">
-        <v>182.2842723893554</v>
+        <v>125.6931892134152</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7011.815204085588</v>
+        <v>7119.194054823415</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>42887</v>
       </c>
       <c r="C7" t="n">
-        <v>7242.238336480499</v>
+        <v>7381.595569876401</v>
       </c>
       <c r="D7" t="n">
-        <v>5376.484670271967</v>
+        <v>5792.777966678344</v>
       </c>
       <c r="E7" t="n">
-        <v>9220.743350838244</v>
+        <v>9678.480592142731</v>
       </c>
       <c r="F7" t="n">
-        <v>7242.238336480499</v>
+        <v>7381.595569876401</v>
       </c>
       <c r="G7" t="n">
-        <v>7242.238336480499</v>
+        <v>7381.595569876401</v>
       </c>
       <c r="H7" t="n">
-        <v>26.94864349949422</v>
+        <v>341.9760160047825</v>
       </c>
       <c r="I7" t="n">
-        <v>26.94864349949422</v>
+        <v>341.9760160047825</v>
       </c>
       <c r="J7" t="n">
-        <v>26.94864349949422</v>
+        <v>341.9760160047825</v>
       </c>
       <c r="K7" t="n">
-        <v>26.94864349949422</v>
+        <v>341.9760160047825</v>
       </c>
       <c r="L7" t="n">
-        <v>26.94864349949422</v>
+        <v>341.9760160047825</v>
       </c>
       <c r="M7" t="n">
-        <v>26.94864349949422</v>
+        <v>341.9760160047825</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7269.186979979993</v>
+        <v>7723.571585881184</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>42917</v>
       </c>
       <c r="C8" t="n">
-        <v>7641.632599174951</v>
+        <v>7757.171090134209</v>
       </c>
       <c r="D8" t="n">
-        <v>4844.632080123743</v>
+        <v>4927.763086834595</v>
       </c>
       <c r="E8" t="n">
-        <v>8653.835847687324</v>
+        <v>8726.717886887493</v>
       </c>
       <c r="F8" t="n">
-        <v>7641.632599174951</v>
+        <v>7757.171090134209</v>
       </c>
       <c r="G8" t="n">
-        <v>7641.632599174951</v>
+        <v>7757.171090134209</v>
       </c>
       <c r="H8" t="n">
-        <v>-890.7431516130179</v>
+        <v>-837.6530470639673</v>
       </c>
       <c r="I8" t="n">
-        <v>-890.7431516130179</v>
+        <v>-837.6530470639673</v>
       </c>
       <c r="J8" t="n">
-        <v>-890.7431516130179</v>
+        <v>-837.6530470639673</v>
       </c>
       <c r="K8" t="n">
-        <v>-890.7431516130179</v>
+        <v>-837.6530470639673</v>
       </c>
       <c r="L8" t="n">
-        <v>-890.7431516130179</v>
+        <v>-837.6530470639673</v>
       </c>
       <c r="M8" t="n">
-        <v>-890.7431516130179</v>
+        <v>-837.6530470639673</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6750.889447561933</v>
+        <v>6919.518043070242</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>42948</v>
       </c>
       <c r="C9" t="n">
-        <v>8054.340004051309</v>
+        <v>8145.26579442133</v>
       </c>
       <c r="D9" t="n">
-        <v>5359.613072473608</v>
+        <v>5520.169869563691</v>
       </c>
       <c r="E9" t="n">
-        <v>9175.494189761777</v>
+        <v>9526.133923808042</v>
       </c>
       <c r="F9" t="n">
-        <v>8054.340004051309</v>
+        <v>8145.26579442133</v>
       </c>
       <c r="G9" t="n">
-        <v>8054.340004051309</v>
+        <v>8145.26579442133</v>
       </c>
       <c r="H9" t="n">
-        <v>-799.7352404113684</v>
+        <v>-730.4874825567002</v>
       </c>
       <c r="I9" t="n">
-        <v>-799.7352404113684</v>
+        <v>-730.4874825567002</v>
       </c>
       <c r="J9" t="n">
-        <v>-799.7352404113684</v>
+        <v>-730.4874825567002</v>
       </c>
       <c r="K9" t="n">
-        <v>-799.7352404113684</v>
+        <v>-730.4874825567002</v>
       </c>
       <c r="L9" t="n">
-        <v>-799.7352404113684</v>
+        <v>-730.4874825567002</v>
       </c>
       <c r="M9" t="n">
-        <v>-799.7352404113684</v>
+        <v>-730.4874825567002</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7254.604763639941</v>
+        <v>7414.778311864629</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>42979</v>
       </c>
       <c r="C10" t="n">
-        <v>8467.047408927667</v>
+        <v>8533.360498708449</v>
       </c>
       <c r="D10" t="n">
-        <v>5717.771584962952</v>
+        <v>5763.254938243848</v>
       </c>
       <c r="E10" t="n">
-        <v>9445.250567387979</v>
+        <v>9704.048397312998</v>
       </c>
       <c r="F10" t="n">
-        <v>8467.047408927667</v>
+        <v>8533.360498708449</v>
       </c>
       <c r="G10" t="n">
-        <v>8467.047408927667</v>
+        <v>8533.360498708449</v>
       </c>
       <c r="H10" t="n">
-        <v>-902.2073013748823</v>
+        <v>-860.7464024572816</v>
       </c>
       <c r="I10" t="n">
-        <v>-902.2073013748823</v>
+        <v>-860.7464024572816</v>
       </c>
       <c r="J10" t="n">
-        <v>-902.2073013748823</v>
+        <v>-860.7464024572816</v>
       </c>
       <c r="K10" t="n">
-        <v>-902.2073013748823</v>
+        <v>-860.7464024572816</v>
       </c>
       <c r="L10" t="n">
-        <v>-902.2073013748823</v>
+        <v>-860.7464024572816</v>
       </c>
       <c r="M10" t="n">
-        <v>-902.2073013748823</v>
+        <v>-860.7464024572816</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>7564.840107552785</v>
+        <v>7672.614096251167</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43009</v>
       </c>
       <c r="C11" t="n">
-        <v>8866.441671373008</v>
+        <v>8908.936018945931</v>
       </c>
       <c r="D11" t="n">
-        <v>7988.29359337521</v>
+        <v>8017.937150079912</v>
       </c>
       <c r="E11" t="n">
-        <v>11799.79583403149</v>
+        <v>12005.14732864861</v>
       </c>
       <c r="F11" t="n">
-        <v>8866.441671373008</v>
+        <v>8908.936018945931</v>
       </c>
       <c r="G11" t="n">
-        <v>8866.441671373008</v>
+        <v>8908.936018945931</v>
       </c>
       <c r="H11" t="n">
-        <v>987.7083735812118</v>
+        <v>1006.596811377343</v>
       </c>
       <c r="I11" t="n">
-        <v>987.7083735812118</v>
+        <v>1006.596811377343</v>
       </c>
       <c r="J11" t="n">
-        <v>987.7083735812118</v>
+        <v>1006.596811377343</v>
       </c>
       <c r="K11" t="n">
-        <v>987.7083735812118</v>
+        <v>1006.596811377343</v>
       </c>
       <c r="L11" t="n">
-        <v>987.7083735812118</v>
+        <v>1006.596811377343</v>
       </c>
       <c r="M11" t="n">
-        <v>987.7083735812118</v>
+        <v>1006.596811377343</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9854.15004495422</v>
+        <v>9915.532830323275</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43040</v>
       </c>
       <c r="C12" t="n">
-        <v>9279.149075899861</v>
+        <v>9297.030723191327</v>
       </c>
       <c r="D12" t="n">
-        <v>7105.499624625346</v>
+        <v>7004.485751928129</v>
       </c>
       <c r="E12" t="n">
-        <v>10762.8013796986</v>
+        <v>11232.80392516676</v>
       </c>
       <c r="F12" t="n">
-        <v>9279.149075899861</v>
+        <v>9297.030723191327</v>
       </c>
       <c r="G12" t="n">
-        <v>9279.149075899861</v>
+        <v>9297.030723191327</v>
       </c>
       <c r="H12" t="n">
-        <v>-220.4701490778845</v>
+        <v>-219.4047196237983</v>
       </c>
       <c r="I12" t="n">
-        <v>-220.4701490778845</v>
+        <v>-219.4047196237983</v>
       </c>
       <c r="J12" t="n">
-        <v>-220.4701490778845</v>
+        <v>-219.4047196237983</v>
       </c>
       <c r="K12" t="n">
-        <v>-220.4701490778845</v>
+        <v>-219.4047196237983</v>
       </c>
       <c r="L12" t="n">
-        <v>-220.4701490778845</v>
+        <v>-219.4047196237983</v>
       </c>
       <c r="M12" t="n">
-        <v>-220.4701490778845</v>
+        <v>-219.4047196237983</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9058.678926821976</v>
+        <v>9077.626003567528</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43070</v>
       </c>
       <c r="C13" t="n">
-        <v>9678.543338355592</v>
+        <v>9672.606243469347</v>
       </c>
       <c r="D13" t="n">
-        <v>6688.441130968538</v>
+        <v>6469.103143132168</v>
       </c>
       <c r="E13" t="n">
-        <v>10436.67504550197</v>
+        <v>10577.34924424232</v>
       </c>
       <c r="F13" t="n">
-        <v>9678.543338355592</v>
+        <v>9672.606243469347</v>
       </c>
       <c r="G13" t="n">
-        <v>9678.543338355592</v>
+        <v>9672.606243469347</v>
       </c>
       <c r="H13" t="n">
-        <v>-1168.206259491681</v>
+        <v>-1185.503752373044</v>
       </c>
       <c r="I13" t="n">
-        <v>-1168.206259491681</v>
+        <v>-1185.503752373044</v>
       </c>
       <c r="J13" t="n">
-        <v>-1168.206259491681</v>
+        <v>-1185.503752373044</v>
       </c>
       <c r="K13" t="n">
-        <v>-1168.206259491681</v>
+        <v>-1185.503752373044</v>
       </c>
       <c r="L13" t="n">
-        <v>-1168.206259491681</v>
+        <v>-1185.503752373044</v>
       </c>
       <c r="M13" t="n">
-        <v>-1168.206259491681</v>
+        <v>-1185.503752373044</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8510.337078863911</v>
+        <v>8487.102491096302</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43101</v>
       </c>
       <c r="C14" t="n">
-        <v>10091.25074289318</v>
+        <v>10060.70094775664</v>
       </c>
       <c r="D14" t="n">
-        <v>10781.68000219998</v>
+        <v>10718.90271286839</v>
       </c>
       <c r="E14" t="n">
-        <v>14658.49390797337</v>
+        <v>14462.42410741729</v>
       </c>
       <c r="F14" t="n">
-        <v>10091.25074289318</v>
+        <v>10060.70094775664</v>
       </c>
       <c r="G14" t="n">
-        <v>10091.25074289318</v>
+        <v>10060.70094775664</v>
       </c>
       <c r="H14" t="n">
-        <v>2582.084750040797</v>
+        <v>2497.878926045596</v>
       </c>
       <c r="I14" t="n">
-        <v>2582.084750040797</v>
+        <v>2497.878926045596</v>
       </c>
       <c r="J14" t="n">
-        <v>2582.084750040797</v>
+        <v>2497.878926045596</v>
       </c>
       <c r="K14" t="n">
-        <v>2582.084750040797</v>
+        <v>2497.878926045596</v>
       </c>
       <c r="L14" t="n">
-        <v>2582.084750040797</v>
+        <v>2497.878926045596</v>
       </c>
       <c r="M14" t="n">
-        <v>2582.084750040797</v>
+        <v>2497.878926045596</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12673.33549293397</v>
+        <v>12558.57987380223</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43132</v>
       </c>
       <c r="C15" t="n">
-        <v>10503.957911928</v>
+        <v>10448.77100888165</v>
       </c>
       <c r="D15" t="n">
-        <v>8290.358888423394</v>
+        <v>7936.177435938808</v>
       </c>
       <c r="E15" t="n">
-        <v>11968.5195009248</v>
+        <v>12088.01926351599</v>
       </c>
       <c r="F15" t="n">
-        <v>10503.957911928</v>
+        <v>10448.77100888165</v>
       </c>
       <c r="G15" t="n">
-        <v>10503.957911928</v>
+        <v>10448.77100888165</v>
       </c>
       <c r="H15" t="n">
-        <v>-335.6207698316458</v>
+        <v>-438.6618370833672</v>
       </c>
       <c r="I15" t="n">
-        <v>-335.6207698316458</v>
+        <v>-438.6618370833672</v>
       </c>
       <c r="J15" t="n">
-        <v>-335.6207698316458</v>
+        <v>-438.6618370833672</v>
       </c>
       <c r="K15" t="n">
-        <v>-335.6207698316458</v>
+        <v>-438.6618370833672</v>
       </c>
       <c r="L15" t="n">
-        <v>-335.6207698316458</v>
+        <v>-438.6618370833672</v>
       </c>
       <c r="M15" t="n">
-        <v>-335.6207698316458</v>
+        <v>-438.6618370833672</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>10168.33714209635</v>
+        <v>10010.10917179829</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43160</v>
       </c>
       <c r="C16" t="n">
-        <v>10876.72567750783</v>
+        <v>10799.28590280103</v>
       </c>
       <c r="D16" t="n">
-        <v>9714.349508516942</v>
+        <v>9632.066633425215</v>
       </c>
       <c r="E16" t="n">
-        <v>13666.40152256628</v>
+        <v>13509.91830483224</v>
       </c>
       <c r="F16" t="n">
-        <v>10876.72567750783</v>
+        <v>10799.28590280103</v>
       </c>
       <c r="G16" t="n">
-        <v>10876.72567750783</v>
+        <v>10799.28590280103</v>
       </c>
       <c r="H16" t="n">
-        <v>848.4616199800141</v>
+        <v>761.2152364188564</v>
       </c>
       <c r="I16" t="n">
-        <v>848.4616199800141</v>
+        <v>761.2152364188564</v>
       </c>
       <c r="J16" t="n">
-        <v>848.4616199800141</v>
+        <v>761.2152364188564</v>
       </c>
       <c r="K16" t="n">
-        <v>848.4616199800141</v>
+        <v>761.2152364188564</v>
       </c>
       <c r="L16" t="n">
-        <v>848.4616199800141</v>
+        <v>761.2152364188564</v>
       </c>
       <c r="M16" t="n">
-        <v>848.4616199800141</v>
+        <v>761.2152364188564</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>11725.18729748785</v>
+        <v>11560.50113921988</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43191</v>
       </c>
       <c r="C17" t="n">
-        <v>11289.34228090716</v>
+        <v>11187.33029235343</v>
       </c>
       <c r="D17" t="n">
-        <v>9963.383891536725</v>
+        <v>9681.832106505801</v>
       </c>
       <c r="E17" t="n">
-        <v>13619.662310747</v>
+        <v>13458.72710437464</v>
       </c>
       <c r="F17" t="n">
-        <v>11289.34228090716</v>
+        <v>11187.33029235343</v>
       </c>
       <c r="G17" t="n">
-        <v>11289.34228090716</v>
+        <v>11187.33029235343</v>
       </c>
       <c r="H17" t="n">
-        <v>542.8980745236527</v>
+        <v>435.0535516538416</v>
       </c>
       <c r="I17" t="n">
-        <v>542.8980745236527</v>
+        <v>435.0535516538416</v>
       </c>
       <c r="J17" t="n">
-        <v>542.8980745236527</v>
+        <v>435.0535516538416</v>
       </c>
       <c r="K17" t="n">
-        <v>542.8980745236527</v>
+        <v>435.0535516538416</v>
       </c>
       <c r="L17" t="n">
-        <v>542.8980745236527</v>
+        <v>435.0535516538416</v>
       </c>
       <c r="M17" t="n">
-        <v>542.8980745236527</v>
+        <v>435.0535516538416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>11832.24035543081</v>
+        <v>11622.38384400727</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43221</v>
       </c>
       <c r="C18" t="n">
-        <v>11688.64867129361</v>
+        <v>11562.85712095253</v>
       </c>
       <c r="D18" t="n">
-        <v>10308.80475655955</v>
+        <v>10075.99441658829</v>
       </c>
       <c r="E18" t="n">
-        <v>14105.76549964292</v>
+        <v>13857.94166142852</v>
       </c>
       <c r="F18" t="n">
-        <v>11688.64867129361</v>
+        <v>11562.85712095253</v>
       </c>
       <c r="G18" t="n">
-        <v>11688.64867129361</v>
+        <v>11562.85712095253</v>
       </c>
       <c r="H18" t="n">
-        <v>558.0344482979473</v>
+        <v>436.5936965392672</v>
       </c>
       <c r="I18" t="n">
-        <v>558.0344482979473</v>
+        <v>436.5936965392672</v>
       </c>
       <c r="J18" t="n">
-        <v>558.0344482979473</v>
+        <v>436.5936965392672</v>
       </c>
       <c r="K18" t="n">
-        <v>558.0344482979473</v>
+        <v>436.5936965392672</v>
       </c>
       <c r="L18" t="n">
-        <v>558.0344482979473</v>
+        <v>436.5936965392672</v>
       </c>
       <c r="M18" t="n">
-        <v>558.0344482979473</v>
+        <v>436.5936965392672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>12246.68311959156</v>
+        <v>11999.45081749179</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43252</v>
       </c>
       <c r="C19" t="n">
-        <v>12101.25082156653</v>
+        <v>11950.46421538553</v>
       </c>
       <c r="D19" t="n">
-        <v>9901.789971505259</v>
+        <v>10051.45731400148</v>
       </c>
       <c r="E19" t="n">
-        <v>13611.8648338763</v>
+        <v>14088.98255974543</v>
       </c>
       <c r="F19" t="n">
-        <v>12101.25082156653</v>
+        <v>11950.46421538553</v>
       </c>
       <c r="G19" t="n">
-        <v>12101.25082156653</v>
+        <v>11950.46421538553</v>
       </c>
       <c r="H19" t="n">
-        <v>-384.0767964774884</v>
+        <v>98.22302984757189</v>
       </c>
       <c r="I19" t="n">
-        <v>-384.0767964774884</v>
+        <v>98.22302984757189</v>
       </c>
       <c r="J19" t="n">
-        <v>-384.0767964774884</v>
+        <v>98.22302984757189</v>
       </c>
       <c r="K19" t="n">
-        <v>-384.0767964774884</v>
+        <v>98.22302984757189</v>
       </c>
       <c r="L19" t="n">
-        <v>-384.0767964774884</v>
+        <v>98.22302984757189</v>
       </c>
       <c r="M19" t="n">
-        <v>-384.0767964774884</v>
+        <v>98.22302984757189</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>11717.17402508905</v>
+        <v>12048.6872452331</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43282</v>
       </c>
       <c r="C20" t="n">
-        <v>12500.54322505646</v>
+        <v>12325.56785515941</v>
       </c>
       <c r="D20" t="n">
-        <v>9906.324632231055</v>
+        <v>9699.673006402169</v>
       </c>
       <c r="E20" t="n">
-        <v>13608.4786016698</v>
+        <v>13552.26510701591</v>
       </c>
       <c r="F20" t="n">
-        <v>12500.54322505646</v>
+        <v>12325.56785515941</v>
       </c>
       <c r="G20" t="n">
-        <v>12500.54322505646</v>
+        <v>12325.56785515941</v>
       </c>
       <c r="H20" t="n">
-        <v>-776.4067597918948</v>
+        <v>-778.3018814197079</v>
       </c>
       <c r="I20" t="n">
-        <v>-776.4067597918948</v>
+        <v>-778.3018814197079</v>
       </c>
       <c r="J20" t="n">
-        <v>-776.4067597918948</v>
+        <v>-778.3018814197079</v>
       </c>
       <c r="K20" t="n">
-        <v>-776.4067597918948</v>
+        <v>-778.3018814197079</v>
       </c>
       <c r="L20" t="n">
-        <v>-776.4067597918948</v>
+        <v>-778.3018814197079</v>
       </c>
       <c r="M20" t="n">
-        <v>-776.4067597918948</v>
+        <v>-778.3018814197079</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>11724.13646526456</v>
+        <v>11547.2659737397</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43313</v>
       </c>
       <c r="C21" t="n">
-        <v>12913.0688381713</v>
+        <v>12713.07871172898</v>
       </c>
       <c r="D21" t="n">
-        <v>10537.13656053067</v>
+        <v>10281.9454440522</v>
       </c>
       <c r="E21" t="n">
-        <v>14343.57389737218</v>
+        <v>14288.05142661576</v>
       </c>
       <c r="F21" t="n">
-        <v>12913.0688381713</v>
+        <v>12713.07871172898</v>
       </c>
       <c r="G21" t="n">
-        <v>12913.0688381713</v>
+        <v>12713.07871172898</v>
       </c>
       <c r="H21" t="n">
-        <v>-514.0053847813227</v>
+        <v>-498.9936665728967</v>
       </c>
       <c r="I21" t="n">
-        <v>-514.0053847813227</v>
+        <v>-498.9936665728967</v>
       </c>
       <c r="J21" t="n">
-        <v>-514.0053847813227</v>
+        <v>-498.9936665728967</v>
       </c>
       <c r="K21" t="n">
-        <v>-514.0053847813227</v>
+        <v>-498.9936665728967</v>
       </c>
       <c r="L21" t="n">
-        <v>-514.0053847813227</v>
+        <v>-498.9936665728967</v>
       </c>
       <c r="M21" t="n">
-        <v>-514.0053847813227</v>
+        <v>-498.9936665728967</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>12399.06345338998</v>
+        <v>12214.08504515608</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43344</v>
       </c>
       <c r="C22" t="n">
-        <v>13325.59445128614</v>
+        <v>13100.58956829855</v>
       </c>
       <c r="D22" t="n">
-        <v>10283.74637583051</v>
+        <v>10002.97604980067</v>
       </c>
       <c r="E22" t="n">
-        <v>14233.05492126286</v>
+        <v>14067.05576016113</v>
       </c>
       <c r="F22" t="n">
-        <v>13325.59445128614</v>
+        <v>13100.58956829855</v>
       </c>
       <c r="G22" t="n">
-        <v>13325.59445128614</v>
+        <v>13100.58956829855</v>
       </c>
       <c r="H22" t="n">
-        <v>-1108.224449638651</v>
+        <v>-1083.385055836855</v>
       </c>
       <c r="I22" t="n">
-        <v>-1108.224449638651</v>
+        <v>-1083.385055836855</v>
       </c>
       <c r="J22" t="n">
-        <v>-1108.224449638651</v>
+        <v>-1083.385055836855</v>
       </c>
       <c r="K22" t="n">
-        <v>-1108.224449638651</v>
+        <v>-1083.385055836855</v>
       </c>
       <c r="L22" t="n">
-        <v>-1108.224449638651</v>
+        <v>-1083.385055836855</v>
       </c>
       <c r="M22" t="n">
-        <v>-1108.224449638651</v>
+        <v>-1083.385055836855</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>12217.37000164749</v>
+        <v>12017.2045124617</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43374</v>
       </c>
       <c r="C23" t="n">
-        <v>13724.5512702679</v>
+        <v>13475.36522189608</v>
       </c>
       <c r="D23" t="n">
-        <v>13085.36932461063</v>
+        <v>12765.46557591277</v>
       </c>
       <c r="E23" t="n">
-        <v>16873.73491127739</v>
+        <v>16800.76836684773</v>
       </c>
       <c r="F23" t="n">
-        <v>13724.5512702679</v>
+        <v>13475.36522189608</v>
       </c>
       <c r="G23" t="n">
-        <v>13724.5512702679</v>
+        <v>13475.36522189608</v>
       </c>
       <c r="H23" t="n">
-        <v>1236.636846248279</v>
+        <v>1267.755601641762</v>
       </c>
       <c r="I23" t="n">
-        <v>1236.636846248279</v>
+        <v>1267.755601641762</v>
       </c>
       <c r="J23" t="n">
-        <v>1236.636846248279</v>
+        <v>1267.755601641762</v>
       </c>
       <c r="K23" t="n">
-        <v>1236.636846248279</v>
+        <v>1267.755601641762</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.636846248279</v>
+        <v>1267.755601641762</v>
       </c>
       <c r="M23" t="n">
-        <v>1236.636846248279</v>
+        <v>1267.755601641762</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>14961.18811651618</v>
+        <v>14743.12082353784</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43405</v>
       </c>
       <c r="C24" t="n">
-        <v>14136.80664988239</v>
+        <v>13862.63339728019</v>
       </c>
       <c r="D24" t="n">
-        <v>11656.26058028984</v>
+        <v>11160.34720518329</v>
       </c>
       <c r="E24" t="n">
-        <v>15479.87565300543</v>
+        <v>15190.61014885236</v>
       </c>
       <c r="F24" t="n">
-        <v>14136.80664988239</v>
+        <v>13862.63339728019</v>
       </c>
       <c r="G24" t="n">
-        <v>14136.80664988239</v>
+        <v>13862.63339728019</v>
       </c>
       <c r="H24" t="n">
-        <v>-689.3260664373928</v>
+        <v>-662.060381278478</v>
       </c>
       <c r="I24" t="n">
-        <v>-689.3260664373928</v>
+        <v>-662.060381278478</v>
       </c>
       <c r="J24" t="n">
-        <v>-689.3260664373928</v>
+        <v>-662.060381278478</v>
       </c>
       <c r="K24" t="n">
-        <v>-689.3260664373928</v>
+        <v>-662.060381278478</v>
       </c>
       <c r="L24" t="n">
-        <v>-689.3260664373928</v>
+        <v>-662.060381278478</v>
       </c>
       <c r="M24" t="n">
-        <v>-689.3260664373928</v>
+        <v>-662.060381278478</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>13447.48058344499</v>
+        <v>13200.57301600171</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43435</v>
       </c>
       <c r="C25" t="n">
-        <v>14480.8853874011</v>
+        <v>14237.24565346093</v>
       </c>
       <c r="D25" t="n">
-        <v>11204.25927670926</v>
+        <v>11037.4703046819</v>
       </c>
       <c r="E25" t="n">
-        <v>15123.33176235508</v>
+        <v>14922.1788399592</v>
       </c>
       <c r="F25" t="n">
-        <v>14480.8853874011</v>
+        <v>14237.24565346093</v>
       </c>
       <c r="G25" t="n">
-        <v>14480.8853874011</v>
+        <v>14237.24565346093</v>
       </c>
       <c r="H25" t="n">
-        <v>-1336.29663055527</v>
+        <v>-1337.579890684719</v>
       </c>
       <c r="I25" t="n">
-        <v>-1336.29663055527</v>
+        <v>-1337.579890684719</v>
       </c>
       <c r="J25" t="n">
-        <v>-1336.29663055527</v>
+        <v>-1337.579890684719</v>
       </c>
       <c r="K25" t="n">
-        <v>-1336.29663055527</v>
+        <v>-1337.579890684719</v>
       </c>
       <c r="L25" t="n">
-        <v>-1336.29663055527</v>
+        <v>-1337.579890684719</v>
       </c>
       <c r="M25" t="n">
-        <v>-1336.29663055527</v>
+        <v>-1337.579890684719</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>13144.58875684583</v>
+        <v>12899.66576277621</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43466</v>
       </c>
       <c r="C26" t="n">
-        <v>14836.43341617043</v>
+        <v>14624.34498484769</v>
       </c>
       <c r="D26" t="n">
-        <v>16267.86713810698</v>
+        <v>15916.16004080609</v>
       </c>
       <c r="E26" t="n">
-        <v>20058.43365638314</v>
+        <v>19910.11692538443</v>
       </c>
       <c r="F26" t="n">
-        <v>14836.43341617043</v>
+        <v>14624.34498484769</v>
       </c>
       <c r="G26" t="n">
-        <v>14836.43341617043</v>
+        <v>14624.34498484769</v>
       </c>
       <c r="H26" t="n">
-        <v>3394.763158808647</v>
+        <v>3321.338196578392</v>
       </c>
       <c r="I26" t="n">
-        <v>3394.763158808647</v>
+        <v>3321.338196578392</v>
       </c>
       <c r="J26" t="n">
-        <v>3394.763158808647</v>
+        <v>3321.338196578392</v>
       </c>
       <c r="K26" t="n">
-        <v>3394.763158808647</v>
+        <v>3321.338196578392</v>
       </c>
       <c r="L26" t="n">
-        <v>3394.763158808647</v>
+        <v>3321.338196578392</v>
       </c>
       <c r="M26" t="n">
-        <v>3394.763158808647</v>
+        <v>3321.338196578392</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>18231.19657497907</v>
+        <v>17945.68318142608</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43497</v>
       </c>
       <c r="C27" t="n">
-        <v>15191.66912792871</v>
+        <v>15011.33864299293</v>
       </c>
       <c r="D27" t="n">
-        <v>12750.85393713104</v>
+        <v>12330.14638694884</v>
       </c>
       <c r="E27" t="n">
-        <v>16464.44992479807</v>
+        <v>16296.85184765244</v>
       </c>
       <c r="F27" t="n">
-        <v>15191.66912792871</v>
+        <v>15011.33864299293</v>
       </c>
       <c r="G27" t="n">
-        <v>15191.66912792871</v>
+        <v>15011.33864299293</v>
       </c>
       <c r="H27" t="n">
-        <v>-589.1808644374122</v>
+        <v>-740.6882882323586</v>
       </c>
       <c r="I27" t="n">
-        <v>-589.1808644374122</v>
+        <v>-740.6882882323586</v>
       </c>
       <c r="J27" t="n">
-        <v>-589.1808644374122</v>
+        <v>-740.6882882323586</v>
       </c>
       <c r="K27" t="n">
-        <v>-589.1808644374122</v>
+        <v>-740.6882882323586</v>
       </c>
       <c r="L27" t="n">
-        <v>-589.1808644374122</v>
+        <v>-740.6882882323586</v>
       </c>
       <c r="M27" t="n">
-        <v>-589.1808644374122</v>
+        <v>-740.6882882323586</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14602.4882634913</v>
+        <v>14270.65035476057</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43525</v>
       </c>
       <c r="C28" t="n">
-        <v>15512.527190162</v>
+        <v>15360.88130196282</v>
       </c>
       <c r="D28" t="n">
-        <v>14461.35756846881</v>
+        <v>13980.28737693544</v>
       </c>
       <c r="E28" t="n">
-        <v>18109.22251956865</v>
+        <v>18054.65550773982</v>
       </c>
       <c r="F28" t="n">
-        <v>15512.527190162</v>
+        <v>15360.88130196282</v>
       </c>
       <c r="G28" t="n">
-        <v>15512.527190162</v>
+        <v>15360.88130196282</v>
       </c>
       <c r="H28" t="n">
-        <v>657.8181957161554</v>
+        <v>602.9304390310868</v>
       </c>
       <c r="I28" t="n">
-        <v>657.8181957161554</v>
+        <v>602.9304390310868</v>
       </c>
       <c r="J28" t="n">
-        <v>657.8181957161554</v>
+        <v>602.9304390310868</v>
       </c>
       <c r="K28" t="n">
-        <v>657.8181957161554</v>
+        <v>602.9304390310868</v>
       </c>
       <c r="L28" t="n">
-        <v>657.8181957161554</v>
+        <v>602.9304390310868</v>
       </c>
       <c r="M28" t="n">
-        <v>657.8181957161554</v>
+        <v>602.9304390310868</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16170.34538587816</v>
+        <v>15963.8117409939</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43556</v>
       </c>
       <c r="C29" t="n">
-        <v>15867.76290192028</v>
+        <v>15747.87496010805</v>
       </c>
       <c r="D29" t="n">
-        <v>14411.77234986358</v>
+        <v>14096.53666915113</v>
       </c>
       <c r="E29" t="n">
-        <v>18184.20581245603</v>
+        <v>18052.828250097</v>
       </c>
       <c r="F29" t="n">
-        <v>15867.76290192028</v>
+        <v>15747.87496010805</v>
       </c>
       <c r="G29" t="n">
-        <v>15867.76290192028</v>
+        <v>15747.87496010805</v>
       </c>
       <c r="H29" t="n">
-        <v>500.2801528999286</v>
+        <v>367.0213208444333</v>
       </c>
       <c r="I29" t="n">
-        <v>500.2801528999286</v>
+        <v>367.0213208444333</v>
       </c>
       <c r="J29" t="n">
-        <v>500.2801528999286</v>
+        <v>367.0213208444333</v>
       </c>
       <c r="K29" t="n">
-        <v>500.2801528999286</v>
+        <v>367.0213208444333</v>
       </c>
       <c r="L29" t="n">
-        <v>500.2801528999286</v>
+        <v>367.0213208444333</v>
       </c>
       <c r="M29" t="n">
-        <v>500.2801528999286</v>
+        <v>367.0213208444333</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>16368.04305482021</v>
+        <v>16114.89628095249</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43586</v>
       </c>
       <c r="C30" t="n">
-        <v>16211.47553433806</v>
+        <v>16122.34996841166</v>
       </c>
       <c r="D30" t="n">
-        <v>15317.18297470545</v>
+        <v>14810.00658673995</v>
       </c>
       <c r="E30" t="n">
-        <v>18932.12360661569</v>
+        <v>18778.15083145954</v>
       </c>
       <c r="F30" t="n">
-        <v>16211.47553433806</v>
+        <v>16122.34996841166</v>
       </c>
       <c r="G30" t="n">
-        <v>16211.47553433806</v>
+        <v>16122.34996841166</v>
       </c>
       <c r="H30" t="n">
-        <v>930.2119565748264</v>
+        <v>746.4132939564363</v>
       </c>
       <c r="I30" t="n">
-        <v>930.2119565748264</v>
+        <v>746.4132939564363</v>
       </c>
       <c r="J30" t="n">
-        <v>930.2119565748264</v>
+        <v>746.4132939564363</v>
       </c>
       <c r="K30" t="n">
-        <v>930.2119565748264</v>
+        <v>746.4132939564363</v>
       </c>
       <c r="L30" t="n">
-        <v>930.2119565748264</v>
+        <v>746.4132939564363</v>
       </c>
       <c r="M30" t="n">
-        <v>930.2119565748264</v>
+        <v>746.4132939564363</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>17141.68749091288</v>
+        <v>16868.76326236809</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43617</v>
       </c>
       <c r="C31" t="n">
-        <v>16566.6452545031</v>
+        <v>16509.30747699205</v>
       </c>
       <c r="D31" t="n">
-        <v>13859.22575545435</v>
+        <v>14456.67646124552</v>
       </c>
       <c r="E31" t="n">
-        <v>17555.12919160697</v>
+        <v>18285.43598583985</v>
       </c>
       <c r="F31" t="n">
-        <v>16566.6452545031</v>
+        <v>16509.30747699205</v>
       </c>
       <c r="G31" t="n">
-        <v>16566.6452545031</v>
+        <v>16509.30747699205</v>
       </c>
       <c r="H31" t="n">
-        <v>-797.1884661069869</v>
+        <v>-147.7717965055895</v>
       </c>
       <c r="I31" t="n">
-        <v>-797.1884661069869</v>
+        <v>-147.7717965055895</v>
       </c>
       <c r="J31" t="n">
-        <v>-797.1884661069869</v>
+        <v>-147.7717965055895</v>
       </c>
       <c r="K31" t="n">
-        <v>-797.1884661069869</v>
+        <v>-147.7717965055895</v>
       </c>
       <c r="L31" t="n">
-        <v>-797.1884661069869</v>
+        <v>-147.7717965055895</v>
       </c>
       <c r="M31" t="n">
-        <v>-797.1884661069869</v>
+        <v>-147.7717965055895</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>15769.45678839611</v>
+        <v>16361.53568048646</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43647</v>
       </c>
       <c r="C32" t="n">
-        <v>16910.12365333386</v>
+        <v>16883.6252821933</v>
       </c>
       <c r="D32" t="n">
-        <v>14277.78679954239</v>
+        <v>14168.66782432203</v>
       </c>
       <c r="E32" t="n">
-        <v>18079.92872718829</v>
+        <v>18306.13692015787</v>
       </c>
       <c r="F32" t="n">
-        <v>16910.12365333386</v>
+        <v>16883.6252821933</v>
       </c>
       <c r="G32" t="n">
-        <v>16910.12365333386</v>
+        <v>16883.6252821933</v>
       </c>
       <c r="H32" t="n">
-        <v>-654.4663415512872</v>
+        <v>-714.1703218671456</v>
       </c>
       <c r="I32" t="n">
-        <v>-654.4663415512872</v>
+        <v>-714.1703218671456</v>
       </c>
       <c r="J32" t="n">
-        <v>-654.4663415512872</v>
+        <v>-714.1703218671456</v>
       </c>
       <c r="K32" t="n">
-        <v>-654.4663415512872</v>
+        <v>-714.1703218671456</v>
       </c>
       <c r="L32" t="n">
-        <v>-654.4663415512872</v>
+        <v>-714.1703218671456</v>
       </c>
       <c r="M32" t="n">
-        <v>-654.4663415512872</v>
+        <v>-714.1703218671456</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>16255.65731178258</v>
+        <v>16169.45496032615</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43678</v>
       </c>
       <c r="C33" t="n">
-        <v>17265.05133212566</v>
+        <v>17270.42034756792</v>
       </c>
       <c r="D33" t="n">
-        <v>15108.67277301346</v>
+        <v>14959.50993357961</v>
       </c>
       <c r="E33" t="n">
-        <v>18848.70683372174</v>
+        <v>19068.34093268034</v>
       </c>
       <c r="F33" t="n">
-        <v>17265.05133212566</v>
+        <v>17270.42034756792</v>
       </c>
       <c r="G33" t="n">
-        <v>17265.05133212566</v>
+        <v>17270.42034756792</v>
       </c>
       <c r="H33" t="n">
-        <v>-231.2838736851787</v>
+        <v>-270.5610063196724</v>
       </c>
       <c r="I33" t="n">
-        <v>-231.2838736851787</v>
+        <v>-270.5610063196724</v>
       </c>
       <c r="J33" t="n">
-        <v>-231.2838736851787</v>
+        <v>-270.5610063196724</v>
       </c>
       <c r="K33" t="n">
-        <v>-231.2838736851787</v>
+        <v>-270.5610063196724</v>
       </c>
       <c r="L33" t="n">
-        <v>-231.2838736851787</v>
+        <v>-270.5610063196724</v>
       </c>
       <c r="M33" t="n">
-        <v>-231.2838736851787</v>
+        <v>-270.5610063196724</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>17033.76745844048</v>
+        <v>16999.85934124824</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43709</v>
       </c>
       <c r="C34" t="n">
-        <v>17619.70813518145</v>
+        <v>17657.1919344845</v>
       </c>
       <c r="D34" t="n">
-        <v>14384.91720858771</v>
+        <v>14342.82062973841</v>
       </c>
       <c r="E34" t="n">
-        <v>18283.67959214073</v>
+        <v>18248.80760935193</v>
       </c>
       <c r="F34" t="n">
-        <v>17619.70813518145</v>
+        <v>17657.1919344845</v>
       </c>
       <c r="G34" t="n">
-        <v>17619.70813518145</v>
+        <v>17657.1919344845</v>
       </c>
       <c r="H34" t="n">
-        <v>-1316.771535813151</v>
+        <v>-1307.442660354956</v>
       </c>
       <c r="I34" t="n">
-        <v>-1316.771535813151</v>
+        <v>-1307.442660354956</v>
       </c>
       <c r="J34" t="n">
-        <v>-1316.771535813151</v>
+        <v>-1307.442660354956</v>
       </c>
       <c r="K34" t="n">
-        <v>-1316.771535813151</v>
+        <v>-1307.442660354956</v>
       </c>
       <c r="L34" t="n">
-        <v>-1316.771535813151</v>
+        <v>-1307.442660354956</v>
       </c>
       <c r="M34" t="n">
-        <v>-1316.771535813151</v>
+        <v>-1307.442660354956</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16302.9365993683</v>
+        <v>16349.74927412954</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43739</v>
       </c>
       <c r="C35" t="n">
-        <v>17962.92439620318</v>
+        <v>18031.48701859732</v>
       </c>
       <c r="D35" t="n">
-        <v>17718.25308233803</v>
+        <v>17534.58672825479</v>
       </c>
       <c r="E35" t="n">
-        <v>21286.78881722057</v>
+        <v>21451.65587228886</v>
       </c>
       <c r="F35" t="n">
-        <v>17962.92439620318</v>
+        <v>18031.48701859732</v>
       </c>
       <c r="G35" t="n">
-        <v>17962.92439620318</v>
+        <v>18031.48701859732</v>
       </c>
       <c r="H35" t="n">
-        <v>1479.716518009669</v>
+        <v>1524.063520912815</v>
       </c>
       <c r="I35" t="n">
-        <v>1479.716518009669</v>
+        <v>1524.063520912815</v>
       </c>
       <c r="J35" t="n">
-        <v>1479.716518009669</v>
+        <v>1524.063520912815</v>
       </c>
       <c r="K35" t="n">
-        <v>1479.716518009669</v>
+        <v>1524.063520912815</v>
       </c>
       <c r="L35" t="n">
-        <v>1479.716518009669</v>
+        <v>1524.063520912815</v>
       </c>
       <c r="M35" t="n">
-        <v>1479.716518009669</v>
+        <v>1524.063520912815</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>19442.64091421285</v>
+        <v>19555.55053951013</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43770</v>
       </c>
       <c r="C36" t="n">
-        <v>18317.35334352064</v>
+        <v>18417.98896852257</v>
       </c>
       <c r="D36" t="n">
-        <v>15165.73700412373</v>
+        <v>15315.61772046214</v>
       </c>
       <c r="E36" t="n">
-        <v>19024.85109601145</v>
+        <v>19267.11699622339</v>
       </c>
       <c r="F36" t="n">
-        <v>18317.35334352064</v>
+        <v>18417.98896852257</v>
       </c>
       <c r="G36" t="n">
-        <v>18317.35334352064</v>
+        <v>18417.98896852257</v>
       </c>
       <c r="H36" t="n">
-        <v>-1160.29086128528</v>
+        <v>-1106.562944710995</v>
       </c>
       <c r="I36" t="n">
-        <v>-1160.29086128528</v>
+        <v>-1106.562944710995</v>
       </c>
       <c r="J36" t="n">
-        <v>-1160.29086128528</v>
+        <v>-1106.562944710995</v>
       </c>
       <c r="K36" t="n">
-        <v>-1160.29086128528</v>
+        <v>-1106.562944710995</v>
       </c>
       <c r="L36" t="n">
-        <v>-1160.29086128528</v>
+        <v>-1106.562944710995</v>
       </c>
       <c r="M36" t="n">
-        <v>-1160.29086128528</v>
+        <v>-1106.562944710995</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>17157.06248223536</v>
+        <v>17311.42602381157</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43800</v>
       </c>
       <c r="C37" t="n">
-        <v>18660.34909898915</v>
+        <v>18792.02311361151</v>
       </c>
       <c r="D37" t="n">
-        <v>15337.03386250547</v>
+        <v>15279.62413034485</v>
       </c>
       <c r="E37" t="n">
-        <v>18918.59167943961</v>
+        <v>19252.07965048519</v>
       </c>
       <c r="F37" t="n">
-        <v>18660.34909898915</v>
+        <v>18792.02311361151</v>
       </c>
       <c r="G37" t="n">
-        <v>18660.34909898915</v>
+        <v>18792.02311361151</v>
       </c>
       <c r="H37" t="n">
-        <v>-1487.457567233734</v>
+        <v>-1473.246670589865</v>
       </c>
       <c r="I37" t="n">
-        <v>-1487.457567233734</v>
+        <v>-1473.246670589865</v>
       </c>
       <c r="J37" t="n">
-        <v>-1487.457567233734</v>
+        <v>-1473.246670589865</v>
       </c>
       <c r="K37" t="n">
-        <v>-1487.457567233734</v>
+        <v>-1473.246670589865</v>
       </c>
       <c r="L37" t="n">
-        <v>-1487.457567233734</v>
+        <v>-1473.246670589865</v>
       </c>
       <c r="M37" t="n">
-        <v>-1487.457567233734</v>
+        <v>-1473.246670589865</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17172.89153175541</v>
+        <v>17318.77644302165</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>43831</v>
       </c>
       <c r="C38" t="n">
-        <v>18942.8184855258</v>
+        <v>19178.1803414122</v>
       </c>
       <c r="D38" t="n">
-        <v>21403.20922442886</v>
+        <v>21350.79978670613</v>
       </c>
       <c r="E38" t="n">
-        <v>25016.55659290686</v>
+        <v>25253.62214397234</v>
       </c>
       <c r="F38" t="n">
-        <v>18942.8184855258</v>
+        <v>19178.1803414122</v>
       </c>
       <c r="G38" t="n">
-        <v>18942.8184855258</v>
+        <v>19178.1803414122</v>
       </c>
       <c r="H38" t="n">
-        <v>4205.521379896642</v>
+        <v>4141.81102097104</v>
       </c>
       <c r="I38" t="n">
-        <v>4205.521379896642</v>
+        <v>4141.81102097104</v>
       </c>
       <c r="J38" t="n">
-        <v>4205.521379896642</v>
+        <v>4141.81102097104</v>
       </c>
       <c r="K38" t="n">
-        <v>4205.521379896642</v>
+        <v>4141.81102097104</v>
       </c>
       <c r="L38" t="n">
-        <v>4205.521379896642</v>
+        <v>4141.81102097104</v>
       </c>
       <c r="M38" t="n">
-        <v>4205.521379896642</v>
+        <v>4141.81102097104</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23148.33986542244</v>
+        <v>23319.99136238324</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>43862</v>
       </c>
       <c r="C39" t="n">
-        <v>19225.28787206246</v>
+        <v>19564.33756921287</v>
       </c>
       <c r="D39" t="n">
-        <v>16473.58069929749</v>
+        <v>16644.67165385378</v>
       </c>
       <c r="E39" t="n">
-        <v>20215.73364136718</v>
+        <v>20568.88867589624</v>
       </c>
       <c r="F39" t="n">
-        <v>19225.28787206246</v>
+        <v>19564.33756921287</v>
       </c>
       <c r="G39" t="n">
-        <v>19225.28787206246</v>
+        <v>19564.33756921287</v>
       </c>
       <c r="H39" t="n">
-        <v>-854.7477876263762</v>
+        <v>-1054.812276116517</v>
       </c>
       <c r="I39" t="n">
-        <v>-854.7477876263762</v>
+        <v>-1054.812276116517</v>
       </c>
       <c r="J39" t="n">
-        <v>-854.7477876263762</v>
+        <v>-1054.812276116517</v>
       </c>
       <c r="K39" t="n">
-        <v>-854.7477876263762</v>
+        <v>-1054.812276116517</v>
       </c>
       <c r="L39" t="n">
-        <v>-854.7477876263762</v>
+        <v>-1054.812276116517</v>
       </c>
       <c r="M39" t="n">
-        <v>-854.7477876263762</v>
+        <v>-1054.812276116517</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>18370.54008443608</v>
+        <v>18509.52529309635</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>43891</v>
       </c>
       <c r="C40" t="n">
-        <v>19489.32959458007</v>
+        <v>19726.73002705161</v>
       </c>
       <c r="D40" t="n">
-        <v>18893.15900159206</v>
+        <v>18855.19562026002</v>
       </c>
       <c r="E40" t="n">
-        <v>22712.3917855291</v>
+        <v>22854.64900005107</v>
       </c>
       <c r="F40" t="n">
-        <v>19489.32959458007</v>
+        <v>19726.73002705161</v>
       </c>
       <c r="G40" t="n">
-        <v>19489.32959458007</v>
+        <v>19726.73002705161</v>
       </c>
       <c r="H40" t="n">
-        <v>1234.820457464585</v>
+        <v>1083.363034075026</v>
       </c>
       <c r="I40" t="n">
-        <v>1234.820457464585</v>
+        <v>1083.363034075026</v>
       </c>
       <c r="J40" t="n">
-        <v>1234.820457464585</v>
+        <v>1083.363034075026</v>
       </c>
       <c r="K40" t="n">
-        <v>1234.820457464585</v>
+        <v>1083.363034075026</v>
       </c>
       <c r="L40" t="n">
-        <v>1234.820457464585</v>
+        <v>1083.363034075026</v>
       </c>
       <c r="M40" t="n">
-        <v>1234.820457464585</v>
+        <v>1083.363034075026</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20724.15005204466</v>
+        <v>20810.09306112663</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>43922</v>
       </c>
       <c r="C41" t="n">
-        <v>19771.58109106441</v>
+        <v>19900.32196474129</v>
       </c>
       <c r="D41" t="n">
-        <v>18491.55044439595</v>
+        <v>18498.06346995254</v>
       </c>
       <c r="E41" t="n">
-        <v>22302.71030422835</v>
+        <v>22652.29921850749</v>
       </c>
       <c r="F41" t="n">
-        <v>19771.58109106441</v>
+        <v>19900.32196474129</v>
       </c>
       <c r="G41" t="n">
-        <v>19771.58109106441</v>
+        <v>19900.32196474129</v>
       </c>
       <c r="H41" t="n">
-        <v>648.6491204720527</v>
+        <v>590.2857174688726</v>
       </c>
       <c r="I41" t="n">
-        <v>648.6491204720527</v>
+        <v>590.2857174688726</v>
       </c>
       <c r="J41" t="n">
-        <v>648.6491204720527</v>
+        <v>590.2857174688726</v>
       </c>
       <c r="K41" t="n">
-        <v>648.6491204720527</v>
+        <v>590.2857174688726</v>
       </c>
       <c r="L41" t="n">
-        <v>648.6491204720527</v>
+        <v>590.2857174688726</v>
       </c>
       <c r="M41" t="n">
-        <v>648.6491204720527</v>
+        <v>590.2857174688726</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>20420.23021153646</v>
+        <v>20490.60768221016</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>43952</v>
       </c>
       <c r="C42" t="n">
-        <v>20044.48127596171</v>
+        <v>20068.17336168963</v>
       </c>
       <c r="D42" t="n">
-        <v>17919.39868132826</v>
+        <v>17836.15826787249</v>
       </c>
       <c r="E42" t="n">
-        <v>21607.60999169675</v>
+        <v>21873.27950899188</v>
       </c>
       <c r="F42" t="n">
-        <v>20044.48127596171</v>
+        <v>20068.17336168963</v>
       </c>
       <c r="G42" t="n">
-        <v>20044.48127596171</v>
+        <v>20068.17336168963</v>
       </c>
       <c r="H42" t="n">
-        <v>-196.7349521228051</v>
+        <v>-186.0138708614201</v>
       </c>
       <c r="I42" t="n">
-        <v>-196.7349521228051</v>
+        <v>-186.0138708614201</v>
       </c>
       <c r="J42" t="n">
-        <v>-196.7349521228051</v>
+        <v>-186.0138708614201</v>
       </c>
       <c r="K42" t="n">
-        <v>-196.7349521228051</v>
+        <v>-186.0138708614201</v>
       </c>
       <c r="L42" t="n">
-        <v>-196.7349521228051</v>
+        <v>-186.0138708614201</v>
       </c>
       <c r="M42" t="n">
-        <v>-196.7349521228051</v>
+        <v>-186.0138708614201</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19847.7463238389</v>
+        <v>19882.15949082821</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>43983</v>
       </c>
       <c r="C43" t="n">
-        <v>20326.47813368891</v>
+        <v>20241.61980520292</v>
       </c>
       <c r="D43" t="n">
-        <v>18877.62699346932</v>
+        <v>18663.62947794365</v>
       </c>
       <c r="E43" t="n">
-        <v>22740.30390107101</v>
+        <v>22779.23697788494</v>
       </c>
       <c r="F43" t="n">
-        <v>20326.47813368891</v>
+        <v>20241.61980520292</v>
       </c>
       <c r="G43" t="n">
-        <v>20326.47813368891</v>
+        <v>20241.61980520292</v>
       </c>
       <c r="H43" t="n">
-        <v>435.5376015540957</v>
+        <v>583.3042710047373</v>
       </c>
       <c r="I43" t="n">
-        <v>435.5376015540957</v>
+        <v>583.3042710047373</v>
       </c>
       <c r="J43" t="n">
-        <v>435.5376015540957</v>
+        <v>583.3042710047373</v>
       </c>
       <c r="K43" t="n">
-        <v>435.5376015540957</v>
+        <v>583.3042710047373</v>
       </c>
       <c r="L43" t="n">
-        <v>435.5376015540957</v>
+        <v>583.3042710047373</v>
       </c>
       <c r="M43" t="n">
-        <v>435.5376015540957</v>
+        <v>583.3042710047373</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>20762.01573524301</v>
+        <v>20824.92407620766</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44013</v>
       </c>
       <c r="C44" t="n">
-        <v>20599.36312234664</v>
+        <v>20409.14896238176</v>
       </c>
       <c r="D44" t="n">
-        <v>17842.59634984911</v>
+        <v>17558.62288729877</v>
       </c>
       <c r="E44" t="n">
-        <v>21515.28170654548</v>
+        <v>21376.73435359424</v>
       </c>
       <c r="F44" t="n">
-        <v>20599.36312234664</v>
+        <v>20409.14896238176</v>
       </c>
       <c r="G44" t="n">
-        <v>20599.36312234664</v>
+        <v>20409.14896238176</v>
       </c>
       <c r="H44" t="n">
-        <v>-997.3622374677534</v>
+        <v>-892.1504857072825</v>
       </c>
       <c r="I44" t="n">
-        <v>-997.3622374677534</v>
+        <v>-892.1504857072825</v>
       </c>
       <c r="J44" t="n">
-        <v>-997.3622374677534</v>
+        <v>-892.1504857072825</v>
       </c>
       <c r="K44" t="n">
-        <v>-997.3622374677534</v>
+        <v>-892.1504857072825</v>
       </c>
       <c r="L44" t="n">
-        <v>-997.3622374677534</v>
+        <v>-892.1504857072825</v>
       </c>
       <c r="M44" t="n">
-        <v>-997.3622374677534</v>
+        <v>-892.1504857072825</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>19602.00088487889</v>
+        <v>19516.99847667448</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44044</v>
       </c>
       <c r="C45" t="n">
-        <v>20881.34427729297</v>
+        <v>20582.2624247999</v>
       </c>
       <c r="D45" t="n">
-        <v>17988.70676002332</v>
+        <v>17709.62815653337</v>
       </c>
       <c r="E45" t="n">
-        <v>21700.54417992786</v>
+        <v>21706.47545159634</v>
       </c>
       <c r="F45" t="n">
-        <v>20881.34427729297</v>
+        <v>20582.2624247999</v>
       </c>
       <c r="G45" t="n">
-        <v>20881.34427729297</v>
+        <v>20582.2624247999</v>
       </c>
       <c r="H45" t="n">
-        <v>-1088.161417180896</v>
+        <v>-964.8132601054369</v>
       </c>
       <c r="I45" t="n">
-        <v>-1088.161417180896</v>
+        <v>-964.8132601054369</v>
       </c>
       <c r="J45" t="n">
-        <v>-1088.161417180896</v>
+        <v>-964.8132601054369</v>
       </c>
       <c r="K45" t="n">
-        <v>-1088.161417180896</v>
+        <v>-964.8132601054369</v>
       </c>
       <c r="L45" t="n">
-        <v>-1088.161417180896</v>
+        <v>-964.8132601054369</v>
       </c>
       <c r="M45" t="n">
-        <v>-1088.161417180896</v>
+        <v>-964.8132601054369</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19793.18286011207</v>
+        <v>19617.44916469446</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44075</v>
       </c>
       <c r="C46" t="n">
-        <v>21015.03535999482</v>
+        <v>20755.19542049225</v>
       </c>
       <c r="D46" t="n">
-        <v>18521.26428657647</v>
+        <v>17968.27037018039</v>
       </c>
       <c r="E46" t="n">
-        <v>22197.42462392535</v>
+        <v>22127.80717856773</v>
       </c>
       <c r="F46" t="n">
-        <v>21015.03535999482</v>
+        <v>20755.19542049225</v>
       </c>
       <c r="G46" t="n">
-        <v>21015.03535999482</v>
+        <v>20755.19542049225</v>
       </c>
       <c r="H46" t="n">
-        <v>-698.8030615761563</v>
+        <v>-639.6464823528368</v>
       </c>
       <c r="I46" t="n">
-        <v>-698.8030615761563</v>
+        <v>-639.6464823528368</v>
       </c>
       <c r="J46" t="n">
-        <v>-698.8030615761563</v>
+        <v>-639.6464823528368</v>
       </c>
       <c r="K46" t="n">
-        <v>-698.8030615761563</v>
+        <v>-639.6464823528368</v>
       </c>
       <c r="L46" t="n">
-        <v>-698.8030615761563</v>
+        <v>-639.6464823528368</v>
       </c>
       <c r="M46" t="n">
-        <v>-698.8030615761563</v>
+        <v>-639.6464823528368</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>20316.23229841866</v>
+        <v>20115.54893813942</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44105</v>
       </c>
       <c r="C47" t="n">
-        <v>21144.41382712565</v>
+        <v>20922.5499324526</v>
       </c>
       <c r="D47" t="n">
-        <v>19956.22984771287</v>
+        <v>19577.04542854466</v>
       </c>
       <c r="E47" t="n">
-        <v>23707.22307279234</v>
+        <v>23538.89254204753</v>
       </c>
       <c r="F47" t="n">
-        <v>21144.41382712565</v>
+        <v>20922.5499324526</v>
       </c>
       <c r="G47" t="n">
-        <v>21144.41382712565</v>
+        <v>20922.5499324526</v>
       </c>
       <c r="H47" t="n">
-        <v>733.0232326210408</v>
+        <v>740.6970134090875</v>
       </c>
       <c r="I47" t="n">
-        <v>733.0232326210408</v>
+        <v>740.6970134090875</v>
       </c>
       <c r="J47" t="n">
-        <v>733.0232326210408</v>
+        <v>740.6970134090875</v>
       </c>
       <c r="K47" t="n">
-        <v>733.0232326210408</v>
+        <v>740.6970134090875</v>
       </c>
       <c r="L47" t="n">
-        <v>733.0232326210408</v>
+        <v>740.6970134090875</v>
       </c>
       <c r="M47" t="n">
-        <v>733.0232326210408</v>
+        <v>740.6970134090875</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>21877.43705974669</v>
+        <v>21663.24694586169</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44136</v>
       </c>
       <c r="C48" t="n">
-        <v>21278.08494687601</v>
+        <v>21095.352299005</v>
       </c>
       <c r="D48" t="n">
-        <v>19604.96255281433</v>
+        <v>19393.58486530324</v>
       </c>
       <c r="E48" t="n">
-        <v>23539.0179742915</v>
+        <v>23328.14566342923</v>
       </c>
       <c r="F48" t="n">
-        <v>21278.08494687601</v>
+        <v>21095.352299005</v>
       </c>
       <c r="G48" t="n">
-        <v>21278.08494687601</v>
+        <v>21095.352299005</v>
       </c>
       <c r="H48" t="n">
-        <v>245.7288321843641</v>
+        <v>220.8970105589695</v>
       </c>
       <c r="I48" t="n">
-        <v>245.7288321843641</v>
+        <v>220.8970105589695</v>
       </c>
       <c r="J48" t="n">
-        <v>245.7288321843641</v>
+        <v>220.8970105589695</v>
       </c>
       <c r="K48" t="n">
-        <v>245.7288321843641</v>
+        <v>220.8970105589695</v>
       </c>
       <c r="L48" t="n">
-        <v>245.7288321843641</v>
+        <v>220.8970105589695</v>
       </c>
       <c r="M48" t="n">
-        <v>245.7288321843641</v>
+        <v>220.8970105589695</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>21523.81377906038</v>
+        <v>21316.24930956397</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44166</v>
       </c>
       <c r="C49" t="n">
-        <v>21407.44409502154</v>
+        <v>21262.58039566861</v>
       </c>
       <c r="D49" t="n">
-        <v>18634.85026635812</v>
+        <v>18145.86806382904</v>
       </c>
       <c r="E49" t="n">
-        <v>22281.90615616099</v>
+        <v>22115.19303672832</v>
       </c>
       <c r="F49" t="n">
-        <v>21407.44409502154</v>
+        <v>21262.58039566861</v>
       </c>
       <c r="G49" t="n">
-        <v>21407.44409502154</v>
+        <v>21262.58039566861</v>
       </c>
       <c r="H49" t="n">
-        <v>-983.251386679653</v>
+        <v>-1017.053365534155</v>
       </c>
       <c r="I49" t="n">
-        <v>-983.251386679653</v>
+        <v>-1017.053365534155</v>
       </c>
       <c r="J49" t="n">
-        <v>-983.251386679653</v>
+        <v>-1017.053365534155</v>
       </c>
       <c r="K49" t="n">
-        <v>-983.251386679653</v>
+        <v>-1017.053365534155</v>
       </c>
       <c r="L49" t="n">
-        <v>-983.251386679653</v>
+        <v>-1017.053365534155</v>
       </c>
       <c r="M49" t="n">
-        <v>-983.251386679653</v>
+        <v>-1017.053365534155</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>20424.19270834189</v>
+        <v>20245.52703013446</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44197</v>
       </c>
       <c r="C50" t="n">
-        <v>21540.82145229776</v>
+        <v>21435.35095422297</v>
       </c>
       <c r="D50" t="n">
-        <v>21623.66299877377</v>
+        <v>21091.30432780564</v>
       </c>
       <c r="E50" t="n">
-        <v>25202.67923795258</v>
+        <v>25018.0867408745</v>
       </c>
       <c r="F50" t="n">
-        <v>21540.82145229776</v>
+        <v>21435.35095422297</v>
       </c>
       <c r="G50" t="n">
-        <v>21540.82145229776</v>
+        <v>21435.35095422297</v>
       </c>
       <c r="H50" t="n">
-        <v>1768.317335774158</v>
+        <v>1672.268550601306</v>
       </c>
       <c r="I50" t="n">
-        <v>1768.317335774158</v>
+        <v>1672.268550601306</v>
       </c>
       <c r="J50" t="n">
-        <v>1768.317335774158</v>
+        <v>1672.268550601306</v>
       </c>
       <c r="K50" t="n">
-        <v>1768.317335774158</v>
+        <v>1672.268550601306</v>
       </c>
       <c r="L50" t="n">
-        <v>1768.317335774158</v>
+        <v>1672.268550601306</v>
       </c>
       <c r="M50" t="n">
-        <v>1768.317335774158</v>
+        <v>1672.268550601306</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>23309.13878807192</v>
+        <v>23107.61950482428</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44228</v>
       </c>
       <c r="C51" t="n">
-        <v>21674.19880957398</v>
+        <v>21608.12151277732</v>
       </c>
       <c r="D51" t="n">
-        <v>19792.55247131084</v>
+        <v>19457.889159509</v>
       </c>
       <c r="E51" t="n">
-        <v>23427.50107986879</v>
+        <v>23589.30151880208</v>
       </c>
       <c r="F51" t="n">
-        <v>21674.19880957398</v>
+        <v>21608.12151277732</v>
       </c>
       <c r="G51" t="n">
-        <v>21674.19880957398</v>
+        <v>21608.12151277732</v>
       </c>
       <c r="H51" t="n">
-        <v>-94.18204835935558</v>
+        <v>-148.8963905064616</v>
       </c>
       <c r="I51" t="n">
-        <v>-94.18204835935558</v>
+        <v>-148.8963905064616</v>
       </c>
       <c r="J51" t="n">
-        <v>-94.18204835935558</v>
+        <v>-148.8963905064616</v>
       </c>
       <c r="K51" t="n">
-        <v>-94.18204835935558</v>
+        <v>-148.8963905064616</v>
       </c>
       <c r="L51" t="n">
-        <v>-94.18204835935558</v>
+        <v>-148.8963905064616</v>
       </c>
       <c r="M51" t="n">
-        <v>-94.18204835935558</v>
+        <v>-148.8963905064616</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>21580.01676121462</v>
+        <v>21459.22512227086</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44256</v>
       </c>
       <c r="C52" t="n">
-        <v>21794.57624191857</v>
+        <v>21764.01424837671</v>
       </c>
       <c r="D52" t="n">
-        <v>21008.52726533206</v>
+        <v>20689.12658949994</v>
       </c>
       <c r="E52" t="n">
-        <v>24818.62872620518</v>
+        <v>24769.06425243975</v>
       </c>
       <c r="F52" t="n">
-        <v>21794.57624191857</v>
+        <v>21764.01424837671</v>
       </c>
       <c r="G52" t="n">
-        <v>21794.57624191857</v>
+        <v>21764.01424837671</v>
       </c>
       <c r="H52" t="n">
-        <v>1040.897055812313</v>
+        <v>921.4553564849606</v>
       </c>
       <c r="I52" t="n">
-        <v>1040.897055812313</v>
+        <v>921.4553564849606</v>
       </c>
       <c r="J52" t="n">
-        <v>1040.897055812313</v>
+        <v>921.4553564849606</v>
       </c>
       <c r="K52" t="n">
-        <v>1040.897055812313</v>
+        <v>921.4553564849606</v>
       </c>
       <c r="L52" t="n">
-        <v>1040.897055812313</v>
+        <v>921.4553564849606</v>
       </c>
       <c r="M52" t="n">
-        <v>1040.897055812313</v>
+        <v>921.4553564849606</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>22835.47329773088</v>
+        <v>22685.46960486167</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44287</v>
       </c>
       <c r="C53" t="n">
-        <v>21927.85125630009</v>
+        <v>21936.60977707602</v>
       </c>
       <c r="D53" t="n">
-        <v>20690.02119110156</v>
+        <v>20623.20159635971</v>
       </c>
       <c r="E53" t="n">
-        <v>24435.89737800149</v>
+        <v>24542.21277332864</v>
       </c>
       <c r="F53" t="n">
-        <v>21927.85125630009</v>
+        <v>21936.60977707602</v>
       </c>
       <c r="G53" t="n">
-        <v>21927.85125630009</v>
+        <v>21936.60977707602</v>
       </c>
       <c r="H53" t="n">
-        <v>592.3680058250364</v>
+        <v>509.5008837398821</v>
       </c>
       <c r="I53" t="n">
-        <v>592.3680058250364</v>
+        <v>509.5008837398821</v>
       </c>
       <c r="J53" t="n">
-        <v>592.3680058250364</v>
+        <v>509.5008837398821</v>
       </c>
       <c r="K53" t="n">
-        <v>592.3680058250364</v>
+        <v>509.5008837398821</v>
       </c>
       <c r="L53" t="n">
-        <v>592.3680058250364</v>
+        <v>509.5008837398821</v>
       </c>
       <c r="M53" t="n">
-        <v>592.3680058250364</v>
+        <v>509.5008837398821</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>22520.21926212513</v>
+        <v>22446.11066081591</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44317</v>
       </c>
       <c r="C54" t="n">
-        <v>22056.7719767392</v>
+        <v>22103.61454746588</v>
       </c>
       <c r="D54" t="n">
-        <v>20361.82881587032</v>
+        <v>20159.4105129721</v>
       </c>
       <c r="E54" t="n">
-        <v>24098.47172403042</v>
+        <v>24319.84206614385</v>
       </c>
       <c r="F54" t="n">
-        <v>22056.7719767392</v>
+        <v>22103.61454746588</v>
       </c>
       <c r="G54" t="n">
-        <v>22056.7719767392</v>
+        <v>22103.61454746588</v>
       </c>
       <c r="H54" t="n">
-        <v>182.2842723920193</v>
+        <v>125.6931892161662</v>
       </c>
       <c r="I54" t="n">
-        <v>182.2842723920193</v>
+        <v>125.6931892161662</v>
       </c>
       <c r="J54" t="n">
-        <v>182.2842723920193</v>
+        <v>125.6931892161662</v>
       </c>
       <c r="K54" t="n">
-        <v>182.2842723920193</v>
+        <v>125.6931892161662</v>
       </c>
       <c r="L54" t="n">
-        <v>182.2842723920193</v>
+        <v>125.6931892161662</v>
       </c>
       <c r="M54" t="n">
-        <v>182.2842723920193</v>
+        <v>125.6931892161662</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>22239.05624913122</v>
+        <v>22229.30773668205</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44348</v>
       </c>
       <c r="C55" t="n">
-        <v>22189.99005452628</v>
+        <v>22276.18614353541</v>
       </c>
       <c r="D55" t="n">
-        <v>20358.86993910109</v>
+        <v>20629.40476909911</v>
       </c>
       <c r="E55" t="n">
-        <v>24046.37520977527</v>
+        <v>24630.18824531635</v>
       </c>
       <c r="F55" t="n">
-        <v>22189.99005452628</v>
+        <v>22276.18614353541</v>
       </c>
       <c r="G55" t="n">
-        <v>22189.99005452628</v>
+        <v>22276.18614353541</v>
       </c>
       <c r="H55" t="n">
-        <v>26.9486434974116</v>
+        <v>341.9760160026628</v>
       </c>
       <c r="I55" t="n">
-        <v>26.9486434974116</v>
+        <v>341.9760160026628</v>
       </c>
       <c r="J55" t="n">
-        <v>26.9486434974116</v>
+        <v>341.9760160026628</v>
       </c>
       <c r="K55" t="n">
-        <v>26.9486434974116</v>
+        <v>341.9760160026628</v>
       </c>
       <c r="L55" t="n">
-        <v>26.9486434974116</v>
+        <v>341.9760160026628</v>
       </c>
       <c r="M55" t="n">
-        <v>26.9486434974116</v>
+        <v>341.9760160026628</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>22216.93869802369</v>
+        <v>22618.16215953807</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44378</v>
       </c>
       <c r="C56" t="n">
-        <v>22318.91077496538</v>
+        <v>22443.19091392526</v>
       </c>
       <c r="D56" t="n">
-        <v>19607.74994861296</v>
+        <v>19686.36545146843</v>
       </c>
       <c r="E56" t="n">
-        <v>23238.00995010022</v>
+        <v>23558.13733684483</v>
       </c>
       <c r="F56" t="n">
-        <v>22318.91077496538</v>
+        <v>22443.19091392526</v>
       </c>
       <c r="G56" t="n">
-        <v>22318.91077496538</v>
+        <v>22443.19091392526</v>
       </c>
       <c r="H56" t="n">
-        <v>-890.7431516118029</v>
+        <v>-837.6530470631178</v>
       </c>
       <c r="I56" t="n">
-        <v>-890.7431516118029</v>
+        <v>-837.6530470631178</v>
       </c>
       <c r="J56" t="n">
-        <v>-890.7431516118029</v>
+        <v>-837.6530470631178</v>
       </c>
       <c r="K56" t="n">
-        <v>-890.7431516118029</v>
+        <v>-837.6530470631178</v>
       </c>
       <c r="L56" t="n">
-        <v>-890.7431516118029</v>
+        <v>-837.6530470631178</v>
       </c>
       <c r="M56" t="n">
-        <v>-890.7431516118029</v>
+        <v>-837.6530470631178</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>21428.16762335358</v>
+        <v>21605.53786686215</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44409</v>
       </c>
       <c r="C57" t="n">
-        <v>22452.12885275246</v>
+        <v>22615.76250999479</v>
       </c>
       <c r="D57" t="n">
-        <v>19699.07652860772</v>
+        <v>19961.54041650335</v>
       </c>
       <c r="E57" t="n">
-        <v>23589.5330354828</v>
+        <v>23809.67882953675</v>
       </c>
       <c r="F57" t="n">
-        <v>22452.12885275246</v>
+        <v>22615.76250999479</v>
       </c>
       <c r="G57" t="n">
-        <v>22452.12885275246</v>
+        <v>22615.76250999479</v>
       </c>
       <c r="H57" t="n">
-        <v>-799.7352404105125</v>
+        <v>-730.4874825562172</v>
       </c>
       <c r="I57" t="n">
-        <v>-799.7352404105125</v>
+        <v>-730.4874825562172</v>
       </c>
       <c r="J57" t="n">
-        <v>-799.7352404105125</v>
+        <v>-730.4874825562172</v>
       </c>
       <c r="K57" t="n">
-        <v>-799.7352404105125</v>
+        <v>-730.4874825562172</v>
       </c>
       <c r="L57" t="n">
-        <v>-799.7352404105125</v>
+        <v>-730.4874825562172</v>
       </c>
       <c r="M57" t="n">
-        <v>-799.7352404105125</v>
+        <v>-730.4874825562172</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>21652.39361234195</v>
+        <v>21885.27502743857</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44440</v>
       </c>
       <c r="C58" t="n">
-        <v>22585.34693053954</v>
+        <v>22788.33410606431</v>
       </c>
       <c r="D58" t="n">
-        <v>19822.02925334727</v>
+        <v>19749.18166389062</v>
       </c>
       <c r="E58" t="n">
-        <v>23623.01027175307</v>
+        <v>23974.4706277301</v>
       </c>
       <c r="F58" t="n">
-        <v>22585.34693053954</v>
+        <v>22788.33410606431</v>
       </c>
       <c r="G58" t="n">
-        <v>22585.34693053954</v>
+        <v>22788.33410606431</v>
       </c>
       <c r="H58" t="n">
-        <v>-902.2073013776817</v>
+        <v>-860.746402460096</v>
       </c>
       <c r="I58" t="n">
-        <v>-902.2073013776817</v>
+        <v>-860.746402460096</v>
       </c>
       <c r="J58" t="n">
-        <v>-902.2073013776817</v>
+        <v>-860.746402460096</v>
       </c>
       <c r="K58" t="n">
-        <v>-902.2073013776817</v>
+        <v>-860.746402460096</v>
       </c>
       <c r="L58" t="n">
-        <v>-902.2073013776817</v>
+        <v>-860.746402460096</v>
       </c>
       <c r="M58" t="n">
-        <v>-902.2073013776817</v>
+        <v>-860.746402460096</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>21683.13962916185</v>
+        <v>21927.58770360422</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44470</v>
       </c>
       <c r="C59" t="n">
-        <v>22714.26765097864</v>
+        <v>22955.33887645417</v>
       </c>
       <c r="D59" t="n">
-        <v>21880.7937308654</v>
+        <v>21919.43223826324</v>
       </c>
       <c r="E59" t="n">
-        <v>25455.55079975219</v>
+        <v>25783.80244081919</v>
       </c>
       <c r="F59" t="n">
-        <v>22714.26765097864</v>
+        <v>22955.33887645417</v>
       </c>
       <c r="G59" t="n">
-        <v>22714.26765097864</v>
+        <v>22955.33887645417</v>
       </c>
       <c r="H59" t="n">
-        <v>987.7083735779912</v>
+        <v>1006.59681137427</v>
       </c>
       <c r="I59" t="n">
-        <v>987.7083735779912</v>
+        <v>1006.59681137427</v>
       </c>
       <c r="J59" t="n">
-        <v>987.7083735779912</v>
+        <v>1006.59681137427</v>
       </c>
       <c r="K59" t="n">
-        <v>987.7083735779912</v>
+        <v>1006.59681137427</v>
       </c>
       <c r="L59" t="n">
-        <v>987.7083735779912</v>
+        <v>1006.59681137427</v>
       </c>
       <c r="M59" t="n">
-        <v>987.7083735779912</v>
+        <v>1006.59681137427</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>23701.97602455664</v>
+        <v>23961.93568782844</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44501</v>
       </c>
       <c r="C60" t="n">
-        <v>22847.48572876572</v>
+        <v>23127.91047252369</v>
       </c>
       <c r="D60" t="n">
-        <v>20705.9696323312</v>
+        <v>21014.85505877481</v>
       </c>
       <c r="E60" t="n">
-        <v>24552.25437143015</v>
+        <v>24996.39681744658</v>
       </c>
       <c r="F60" t="n">
-        <v>22847.48572876572</v>
+        <v>23127.91047252369</v>
       </c>
       <c r="G60" t="n">
-        <v>22847.48572876572</v>
+        <v>23127.91047252369</v>
       </c>
       <c r="H60" t="n">
-        <v>-220.4701490799225</v>
+        <v>-219.4047196258651</v>
       </c>
       <c r="I60" t="n">
-        <v>-220.4701490799225</v>
+        <v>-219.4047196258651</v>
       </c>
       <c r="J60" t="n">
-        <v>-220.4701490799225</v>
+        <v>-219.4047196258651</v>
       </c>
       <c r="K60" t="n">
-        <v>-220.4701490799225</v>
+        <v>-219.4047196258651</v>
       </c>
       <c r="L60" t="n">
-        <v>-220.4701490799225</v>
+        <v>-219.4047196258651</v>
       </c>
       <c r="M60" t="n">
-        <v>-220.4701490799225</v>
+        <v>-219.4047196258651</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>22627.01557968579</v>
+        <v>22908.50575289783</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44531</v>
       </c>
       <c r="C61" t="n">
-        <v>22976.40644920482</v>
+        <v>23294.91524291355</v>
       </c>
       <c r="D61" t="n">
-        <v>19932.03043083853</v>
+        <v>20139.91721537273</v>
       </c>
       <c r="E61" t="n">
-        <v>23689.53549350781</v>
+        <v>24171.25838957087</v>
       </c>
       <c r="F61" t="n">
-        <v>22976.40644920482</v>
+        <v>23294.91524291355</v>
       </c>
       <c r="G61" t="n">
-        <v>22976.40644920482</v>
+        <v>23294.91524291355</v>
       </c>
       <c r="H61" t="n">
-        <v>-1168.206259488852</v>
+        <v>-1185.503752370852</v>
       </c>
       <c r="I61" t="n">
-        <v>-1168.206259488852</v>
+        <v>-1185.503752370852</v>
       </c>
       <c r="J61" t="n">
-        <v>-1168.206259488852</v>
+        <v>-1185.503752370852</v>
       </c>
       <c r="K61" t="n">
-        <v>-1168.206259488852</v>
+        <v>-1185.503752370852</v>
       </c>
       <c r="L61" t="n">
-        <v>-1168.206259488852</v>
+        <v>-1185.503752370852</v>
       </c>
       <c r="M61" t="n">
-        <v>-1168.206259488852</v>
+        <v>-1185.503752370852</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>21808.20018971597</v>
+        <v>22109.4114905427</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44562</v>
       </c>
       <c r="C62" t="n">
-        <v>23109.6245269919</v>
+        <v>23467.48683898308</v>
       </c>
       <c r="D62" t="n">
-        <v>23812.55501103951</v>
+        <v>23871.0832591471</v>
       </c>
       <c r="E62" t="n">
-        <v>27518.54131859567</v>
+        <v>27854.01812546799</v>
       </c>
       <c r="F62" t="n">
-        <v>23109.6245269919</v>
+        <v>23467.48683898308</v>
       </c>
       <c r="G62" t="n">
-        <v>23109.6245269919</v>
+        <v>23467.48683898308</v>
       </c>
       <c r="H62" t="n">
-        <v>2582.084750040365</v>
+        <v>2497.87892604577</v>
       </c>
       <c r="I62" t="n">
-        <v>2582.084750040365</v>
+        <v>2497.87892604577</v>
       </c>
       <c r="J62" t="n">
-        <v>2582.084750040365</v>
+        <v>2497.87892604577</v>
       </c>
       <c r="K62" t="n">
-        <v>2582.084750040365</v>
+        <v>2497.87892604577</v>
       </c>
       <c r="L62" t="n">
-        <v>2582.084750040365</v>
+        <v>2497.87892604577</v>
       </c>
       <c r="M62" t="n">
-        <v>2582.084750040365</v>
+        <v>2497.87892604577</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>25691.70927703227</v>
+        <v>25965.36576502885</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44593</v>
       </c>
       <c r="C63" t="n">
-        <v>23242.84260477898</v>
+        <v>23640.0584350526</v>
       </c>
       <c r="D63" t="n">
-        <v>20961.71336788609</v>
+        <v>21184.59239092373</v>
       </c>
       <c r="E63" t="n">
-        <v>24780.83557850359</v>
+        <v>25316.02430114707</v>
       </c>
       <c r="F63" t="n">
-        <v>23242.84260477898</v>
+        <v>23640.0584350526</v>
       </c>
       <c r="G63" t="n">
-        <v>23242.84260477898</v>
+        <v>23640.0584350526</v>
       </c>
       <c r="H63" t="n">
-        <v>-335.6207698328119</v>
+        <v>-438.6618370843172</v>
       </c>
       <c r="I63" t="n">
-        <v>-335.6207698328119</v>
+        <v>-438.6618370843172</v>
       </c>
       <c r="J63" t="n">
-        <v>-335.6207698328119</v>
+        <v>-438.6618370843172</v>
       </c>
       <c r="K63" t="n">
-        <v>-335.6207698328119</v>
+        <v>-438.6618370843172</v>
       </c>
       <c r="L63" t="n">
-        <v>-335.6207698328119</v>
+        <v>-438.6618370843172</v>
       </c>
       <c r="M63" t="n">
-        <v>-335.6207698328119</v>
+        <v>-438.6618370843172</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>22907.22183494617</v>
+        <v>23201.39659796828</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44621</v>
       </c>
       <c r="C64" t="n">
-        <v>23363.16861052215</v>
+        <v>23795.92955408313</v>
       </c>
       <c r="D64" t="n">
-        <v>22407.08260700712</v>
+        <v>22502.39527712697</v>
       </c>
       <c r="E64" t="n">
-        <v>26048.25264068567</v>
+        <v>26582.03673286042</v>
       </c>
       <c r="F64" t="n">
-        <v>23363.16861052215</v>
+        <v>23795.92955408313</v>
       </c>
       <c r="G64" t="n">
-        <v>23363.16861052215</v>
+        <v>23795.92955408313</v>
       </c>
       <c r="H64" t="n">
-        <v>848.4616199834013</v>
+        <v>761.2152364218241</v>
       </c>
       <c r="I64" t="n">
-        <v>848.4616199834013</v>
+        <v>761.2152364218241</v>
       </c>
       <c r="J64" t="n">
-        <v>848.4616199834013</v>
+        <v>761.2152364218241</v>
       </c>
       <c r="K64" t="n">
-        <v>848.4616199834013</v>
+        <v>761.2152364218241</v>
       </c>
       <c r="L64" t="n">
-        <v>848.4616199834013</v>
+        <v>761.2152364218241</v>
       </c>
       <c r="M64" t="n">
-        <v>848.4616199834013</v>
+        <v>761.2152364218241</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>24211.63023050555</v>
+        <v>24557.14479050496</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44652</v>
       </c>
       <c r="C65" t="n">
-        <v>23496.38668830922</v>
+        <v>23968.50115015266</v>
       </c>
       <c r="D65" t="n">
-        <v>22202.00614476352</v>
+        <v>22408.01268244809</v>
       </c>
       <c r="E65" t="n">
-        <v>26145.35021555363</v>
+        <v>26318.42619166151</v>
       </c>
       <c r="F65" t="n">
-        <v>23496.38668830922</v>
+        <v>23968.50115015266</v>
       </c>
       <c r="G65" t="n">
-        <v>23496.38668830922</v>
+        <v>23968.50115015266</v>
       </c>
       <c r="H65" t="n">
-        <v>542.8980745238123</v>
+        <v>435.0535516538641</v>
       </c>
       <c r="I65" t="n">
-        <v>542.8980745238123</v>
+        <v>435.0535516538641</v>
       </c>
       <c r="J65" t="n">
-        <v>542.8980745238123</v>
+        <v>435.0535516538641</v>
       </c>
       <c r="K65" t="n">
-        <v>542.8980745238123</v>
+        <v>435.0535516538641</v>
       </c>
       <c r="L65" t="n">
-        <v>542.8980745238123</v>
+        <v>435.0535516538641</v>
       </c>
       <c r="M65" t="n">
-        <v>542.8980745238123</v>
+        <v>435.0535516538641</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>24039.28476283303</v>
+        <v>24403.55470180652</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44682</v>
       </c>
       <c r="C66" t="n">
-        <v>23625.30740874833</v>
+        <v>24135.50592054252</v>
       </c>
       <c r="D66" t="n">
-        <v>22163.84396131918</v>
+        <v>22414.71495934685</v>
       </c>
       <c r="E66" t="n">
-        <v>26094.81928020793</v>
+        <v>26562.84917754668</v>
       </c>
       <c r="F66" t="n">
-        <v>23625.30740874833</v>
+        <v>24135.50592054252</v>
       </c>
       <c r="G66" t="n">
-        <v>23625.30740874833</v>
+        <v>24135.50592054252</v>
       </c>
       <c r="H66" t="n">
-        <v>558.0344483029555</v>
+        <v>436.5936965439246</v>
       </c>
       <c r="I66" t="n">
-        <v>558.0344483029555</v>
+        <v>436.5936965439246</v>
       </c>
       <c r="J66" t="n">
-        <v>558.0344483029555</v>
+        <v>436.5936965439246</v>
       </c>
       <c r="K66" t="n">
-        <v>558.0344483029555</v>
+        <v>436.5936965439246</v>
       </c>
       <c r="L66" t="n">
-        <v>558.0344483029555</v>
+        <v>436.5936965439246</v>
       </c>
       <c r="M66" t="n">
-        <v>558.0344483029555</v>
+        <v>436.5936965439246</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>24183.34185705128</v>
+        <v>24572.09961708644</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44713</v>
       </c>
       <c r="C67" t="n">
-        <v>23758.5254865354</v>
+        <v>24308.07751661204</v>
       </c>
       <c r="D67" t="n">
-        <v>21547.91423524182</v>
+        <v>22351.16505964342</v>
       </c>
       <c r="E67" t="n">
-        <v>25173.70598391916</v>
+        <v>26245.68749805806</v>
       </c>
       <c r="F67" t="n">
-        <v>23755.96123834702</v>
+        <v>24308.07751661204</v>
       </c>
       <c r="G67" t="n">
-        <v>23761.3422847707</v>
+        <v>24308.07751661204</v>
       </c>
       <c r="H67" t="n">
-        <v>-384.0767964750327</v>
+        <v>98.22302984928575</v>
       </c>
       <c r="I67" t="n">
-        <v>-384.0767964750327</v>
+        <v>98.22302984928575</v>
       </c>
       <c r="J67" t="n">
-        <v>-384.0767964750327</v>
+        <v>98.22302984928575</v>
       </c>
       <c r="K67" t="n">
-        <v>-384.0767964750327</v>
+        <v>98.22302984928575</v>
       </c>
       <c r="L67" t="n">
-        <v>-384.0767964750327</v>
+        <v>98.22302984928575</v>
       </c>
       <c r="M67" t="n">
-        <v>-384.0767964750327</v>
+        <v>98.22302984928575</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>23374.44869006037</v>
+        <v>24406.30054646133</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44743</v>
       </c>
       <c r="C68" t="n">
-        <v>23887.44620697451</v>
+        <v>24475.0822870019</v>
       </c>
       <c r="D68" t="n">
-        <v>21303.63302622065</v>
+        <v>21699.14927699804</v>
       </c>
       <c r="E68" t="n">
-        <v>24881.70468028114</v>
+        <v>25619.85025789041</v>
       </c>
       <c r="F68" t="n">
-        <v>23873.56865056164</v>
+        <v>24472.77209518062</v>
       </c>
       <c r="G68" t="n">
-        <v>23902.62652755027</v>
+        <v>24476.11898323103</v>
       </c>
       <c r="H68" t="n">
-        <v>-776.4067597933416</v>
+        <v>-778.301881421218</v>
       </c>
       <c r="I68" t="n">
-        <v>-776.4067597933416</v>
+        <v>-778.301881421218</v>
       </c>
       <c r="J68" t="n">
-        <v>-776.4067597933416</v>
+        <v>-778.301881421218</v>
       </c>
       <c r="K68" t="n">
-        <v>-776.4067597933416</v>
+        <v>-778.301881421218</v>
       </c>
       <c r="L68" t="n">
-        <v>-776.4067597933416</v>
+        <v>-778.301881421218</v>
       </c>
       <c r="M68" t="n">
-        <v>-776.4067597933416</v>
+        <v>-778.301881421218</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>23111.03944718117</v>
+        <v>23696.78040558068</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44774</v>
       </c>
       <c r="C69" t="n">
-        <v>24020.66428476159</v>
+        <v>24647.65388307142</v>
       </c>
       <c r="D69" t="n">
-        <v>21696.79793169294</v>
+        <v>22082.39756861301</v>
       </c>
       <c r="E69" t="n">
-        <v>25464.57004967643</v>
+        <v>26186.20149186442</v>
       </c>
       <c r="F69" t="n">
-        <v>23991.27819873367</v>
+        <v>24637.14004840618</v>
       </c>
       <c r="G69" t="n">
-        <v>24051.56139650628</v>
+        <v>24654.9999607968</v>
       </c>
       <c r="H69" t="n">
-        <v>-514.0053847814459</v>
+        <v>-498.9936665729575</v>
       </c>
       <c r="I69" t="n">
-        <v>-514.0053847814459</v>
+        <v>-498.9936665729575</v>
       </c>
       <c r="J69" t="n">
-        <v>-514.0053847814459</v>
+        <v>-498.9936665729575</v>
       </c>
       <c r="K69" t="n">
-        <v>-514.0053847814459</v>
+        <v>-498.9936665729575</v>
       </c>
       <c r="L69" t="n">
-        <v>-514.0053847814459</v>
+        <v>-498.9936665729575</v>
       </c>
       <c r="M69" t="n">
-        <v>-514.0053847814459</v>
+        <v>-498.9936665729575</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>23506.65889998014</v>
+        <v>24148.66021649846</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44805</v>
       </c>
       <c r="C70" t="n">
-        <v>24153.88236254867</v>
+        <v>24820.22547914095</v>
       </c>
       <c r="D70" t="n">
-        <v>21239.14034154734</v>
+        <v>21624.99330916467</v>
       </c>
       <c r="E70" t="n">
-        <v>24977.10242226312</v>
+        <v>25776.67582439259</v>
       </c>
       <c r="F70" t="n">
-        <v>24106.80385734624</v>
+        <v>24797.26372758031</v>
       </c>
       <c r="G70" t="n">
-        <v>24201.66165158401</v>
+        <v>24839.88109705236</v>
       </c>
       <c r="H70" t="n">
-        <v>-1108.224449641457</v>
+        <v>-1083.385055839338</v>
       </c>
       <c r="I70" t="n">
-        <v>-1108.224449641457</v>
+        <v>-1083.385055839338</v>
       </c>
       <c r="J70" t="n">
-        <v>-1108.224449641457</v>
+        <v>-1083.385055839338</v>
       </c>
       <c r="K70" t="n">
-        <v>-1108.224449641457</v>
+        <v>-1083.385055839338</v>
       </c>
       <c r="L70" t="n">
-        <v>-1108.224449641457</v>
+        <v>-1083.385055839338</v>
       </c>
       <c r="M70" t="n">
-        <v>-1108.224449641457</v>
+        <v>-1083.385055839338</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>23045.65791290721</v>
+        <v>23736.84042330161</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>44835</v>
       </c>
       <c r="C71" t="n">
-        <v>24282.80308298777</v>
+        <v>24987.23024953081</v>
       </c>
       <c r="D71" t="n">
-        <v>23535.51153640826</v>
+        <v>24311.74124217275</v>
       </c>
       <c r="E71" t="n">
-        <v>27286.42883337665</v>
+        <v>28335.1628673337</v>
       </c>
       <c r="F71" t="n">
-        <v>24215.71003657184</v>
+        <v>24947.97623188628</v>
       </c>
       <c r="G71" t="n">
-        <v>24351.16274542426</v>
+        <v>25020.26743238038</v>
       </c>
       <c r="H71" t="n">
-        <v>1236.636846244948</v>
+        <v>1267.75560163848</v>
       </c>
       <c r="I71" t="n">
-        <v>1236.636846244948</v>
+        <v>1267.75560163848</v>
       </c>
       <c r="J71" t="n">
-        <v>1236.636846244948</v>
+        <v>1267.75560163848</v>
       </c>
       <c r="K71" t="n">
-        <v>1236.636846244948</v>
+        <v>1267.75560163848</v>
       </c>
       <c r="L71" t="n">
-        <v>1236.636846244948</v>
+        <v>1267.75560163848</v>
       </c>
       <c r="M71" t="n">
-        <v>1236.636846244948</v>
+        <v>1267.75560163848</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>25519.43992923272</v>
+        <v>26254.98585116929</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>44866</v>
       </c>
       <c r="C72" t="n">
-        <v>24416.02116077485</v>
+        <v>25159.80184560033</v>
       </c>
       <c r="D72" t="n">
-        <v>21820.06994253566</v>
+        <v>22592.35149601185</v>
       </c>
       <c r="E72" t="n">
-        <v>25665.11315137413</v>
+        <v>26572.85073540908</v>
       </c>
       <c r="F72" t="n">
-        <v>24322.52173950384</v>
+        <v>25104.69811267028</v>
       </c>
       <c r="G72" t="n">
-        <v>24512.4368437254</v>
+        <v>25210.95045380739</v>
       </c>
       <c r="H72" t="n">
-        <v>-689.3260664397335</v>
+        <v>-662.0603812808945</v>
       </c>
       <c r="I72" t="n">
-        <v>-689.3260664397335</v>
+        <v>-662.0603812808945</v>
       </c>
       <c r="J72" t="n">
-        <v>-689.3260664397335</v>
+        <v>-662.0603812808945</v>
       </c>
       <c r="K72" t="n">
-        <v>-689.3260664397335</v>
+        <v>-662.0603812808945</v>
       </c>
       <c r="L72" t="n">
-        <v>-689.3260664397335</v>
+        <v>-662.0603812808945</v>
       </c>
       <c r="M72" t="n">
-        <v>-689.3260664397335</v>
+        <v>-662.0603812808945</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>23726.69509433511</v>
+        <v>24497.74146431943</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>44896</v>
       </c>
       <c r="C73" t="n">
-        <v>24544.94188121396</v>
+        <v>25326.80661599019</v>
       </c>
       <c r="D73" t="n">
-        <v>21342.96243083365</v>
+        <v>22110.41456684738</v>
       </c>
       <c r="E73" t="n">
-        <v>24876.50486471794</v>
+        <v>26060.57117526532</v>
       </c>
       <c r="F73" t="n">
-        <v>24421.19195900507</v>
+        <v>25254.18837208612</v>
       </c>
       <c r="G73" t="n">
-        <v>24667.21119336223</v>
+        <v>25392.09852218944</v>
       </c>
       <c r="H73" t="n">
-        <v>-1336.29663055392</v>
+        <v>-1337.579890683768</v>
       </c>
       <c r="I73" t="n">
-        <v>-1336.29663055392</v>
+        <v>-1337.579890683768</v>
       </c>
       <c r="J73" t="n">
-        <v>-1336.29663055392</v>
+        <v>-1337.579890683768</v>
       </c>
       <c r="K73" t="n">
-        <v>-1336.29663055392</v>
+        <v>-1337.579890683768</v>
       </c>
       <c r="L73" t="n">
-        <v>-1336.29663055392</v>
+        <v>-1337.579890683768</v>
       </c>
       <c r="M73" t="n">
-        <v>-1336.29663055392</v>
+        <v>-1337.579890683768</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>23208.64525066004</v>
+        <v>23989.22672530642</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>44927</v>
       </c>
       <c r="C74" t="n">
-        <v>24678.15995900103</v>
+        <v>25499.37821205971</v>
       </c>
       <c r="D74" t="n">
-        <v>26165.23282995825</v>
+        <v>26814.64435015909</v>
       </c>
       <c r="E74" t="n">
-        <v>29965.85828953571</v>
+        <v>30700.56350782766</v>
       </c>
       <c r="F74" t="n">
-        <v>24524.3623623678</v>
+        <v>25402.38476607795</v>
       </c>
       <c r="G74" t="n">
-        <v>24828.46723726358</v>
+        <v>25582.64337161028</v>
       </c>
       <c r="H74" t="n">
-        <v>3394.763158808949</v>
+        <v>3321.338196578486</v>
       </c>
       <c r="I74" t="n">
-        <v>3394.763158808949</v>
+        <v>3321.338196578486</v>
       </c>
       <c r="J74" t="n">
-        <v>3394.763158808949</v>
+        <v>3321.338196578486</v>
       </c>
       <c r="K74" t="n">
-        <v>3394.763158808949</v>
+        <v>3321.338196578486</v>
       </c>
       <c r="L74" t="n">
-        <v>3394.763158808949</v>
+        <v>3321.338196578486</v>
       </c>
       <c r="M74" t="n">
-        <v>3394.763158808949</v>
+        <v>3321.338196578486</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>28072.92311780998</v>
+        <v>28820.7164086382</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>44958</v>
       </c>
       <c r="C75" t="n">
-        <v>24811.37803678811</v>
+        <v>25671.94980812923</v>
       </c>
       <c r="D75" t="n">
-        <v>22236.11970515253</v>
+        <v>22987.34323239151</v>
       </c>
       <c r="E75" t="n">
-        <v>26076.28871587449</v>
+        <v>26899.57054665217</v>
       </c>
       <c r="F75" t="n">
-        <v>24630.74632496236</v>
+        <v>25554.6927545558</v>
       </c>
       <c r="G75" t="n">
-        <v>24995.65981075987</v>
+        <v>25772.72257767542</v>
       </c>
       <c r="H75" t="n">
-        <v>-589.1808644369902</v>
+        <v>-740.6882882313299</v>
       </c>
       <c r="I75" t="n">
-        <v>-589.1808644369902</v>
+        <v>-740.6882882313299</v>
       </c>
       <c r="J75" t="n">
-        <v>-589.1808644369902</v>
+        <v>-740.6882882313299</v>
       </c>
       <c r="K75" t="n">
-        <v>-589.1808644369902</v>
+        <v>-740.6882882313299</v>
       </c>
       <c r="L75" t="n">
-        <v>-589.1808644369902</v>
+        <v>-740.6882882313299</v>
       </c>
       <c r="M75" t="n">
-        <v>-589.1808644369902</v>
+        <v>-740.6882882313299</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>24222.19717235112</v>
+        <v>24931.2615198979</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>44986</v>
       </c>
       <c r="C76" t="n">
-        <v>24931.70404253127</v>
+        <v>25827.82092715977</v>
       </c>
       <c r="D76" t="n">
-        <v>23647.0088729784</v>
+        <v>24405.72364464193</v>
       </c>
       <c r="E76" t="n">
-        <v>27539.26122354799</v>
+        <v>28413.88931861092</v>
       </c>
       <c r="F76" t="n">
-        <v>24728.06683723046</v>
+        <v>25685.10604608289</v>
       </c>
       <c r="G76" t="n">
-        <v>25144.11047072504</v>
+        <v>25945.20187680672</v>
       </c>
       <c r="H76" t="n">
-        <v>657.8181957154397</v>
+        <v>602.9304390309236</v>
       </c>
       <c r="I76" t="n">
-        <v>657.8181957154397</v>
+        <v>602.9304390309236</v>
       </c>
       <c r="J76" t="n">
-        <v>657.8181957154397</v>
+        <v>602.9304390309236</v>
       </c>
       <c r="K76" t="n">
-        <v>657.8181957154397</v>
+        <v>602.9304390309236</v>
       </c>
       <c r="L76" t="n">
-        <v>657.8181957154397</v>
+        <v>602.9304390309236</v>
       </c>
       <c r="M76" t="n">
-        <v>657.8181957154397</v>
+        <v>602.9304390309236</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>25589.52223824671</v>
+        <v>26430.7513661907</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45017</v>
       </c>
       <c r="C77" t="n">
-        <v>25064.92212031835</v>
+        <v>26000.39252322929</v>
       </c>
       <c r="D77" t="n">
-        <v>23584.05927828245</v>
+        <v>24403.75526527069</v>
       </c>
       <c r="E77" t="n">
-        <v>27485.74117299067</v>
+        <v>28423.7980807563</v>
       </c>
       <c r="F77" t="n">
-        <v>24823.81459054588</v>
+        <v>25829.55771311455</v>
       </c>
       <c r="G77" t="n">
-        <v>25313.86376638466</v>
+        <v>26141.22495399176</v>
       </c>
       <c r="H77" t="n">
-        <v>500.2801529031661</v>
+        <v>367.0213208475754</v>
       </c>
       <c r="I77" t="n">
-        <v>500.2801529031661</v>
+        <v>367.0213208475754</v>
       </c>
       <c r="J77" t="n">
-        <v>500.2801529031661</v>
+        <v>367.0213208475754</v>
       </c>
       <c r="K77" t="n">
-        <v>500.2801529031661</v>
+        <v>367.0213208475754</v>
       </c>
       <c r="L77" t="n">
-        <v>500.2801529031661</v>
+        <v>367.0213208475754</v>
       </c>
       <c r="M77" t="n">
-        <v>500.2801529031661</v>
+        <v>367.0213208475754</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>25565.20227322152</v>
+        <v>26367.41384407687</v>
       </c>
     </row>
     <row r="78">
@@ -4555,37 +4555,37 @@
         <v>45047</v>
       </c>
       <c r="C78" t="n">
-        <v>25193.84284075746</v>
+        <v>26167.39729361915</v>
       </c>
       <c r="D78" t="n">
-        <v>24249.33558707974</v>
+        <v>24840.52490685801</v>
       </c>
       <c r="E78" t="n">
-        <v>28030.74122949868</v>
+        <v>28881.58809776719</v>
       </c>
       <c r="F78" t="n">
-        <v>24923.72927194604</v>
+        <v>25972.62241399394</v>
       </c>
       <c r="G78" t="n">
-        <v>25479.56038587475</v>
+        <v>26334.5541674972</v>
       </c>
       <c r="H78" t="n">
-        <v>930.2119565706605</v>
+        <v>746.4132939522847</v>
       </c>
       <c r="I78" t="n">
-        <v>930.2119565706605</v>
+        <v>746.4132939522847</v>
       </c>
       <c r="J78" t="n">
-        <v>930.2119565706605</v>
+        <v>746.4132939522847</v>
       </c>
       <c r="K78" t="n">
-        <v>930.2119565706605</v>
+        <v>746.4132939522847</v>
       </c>
       <c r="L78" t="n">
-        <v>930.2119565706605</v>
+        <v>746.4132939522847</v>
       </c>
       <c r="M78" t="n">
-        <v>930.2119565706605</v>
+        <v>746.4132939522847</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>26124.05479732812</v>
+        <v>26913.81058757144</v>
       </c>
     </row>
     <row r="79">
@@ -4608,37 +4608,37 @@
         <v>45078</v>
       </c>
       <c r="C79" t="n">
-        <v>25327.06091854453</v>
+        <v>26339.96888968868</v>
       </c>
       <c r="D79" t="n">
-        <v>22725.0637436539</v>
+        <v>24208.19320649508</v>
       </c>
       <c r="E79" t="n">
-        <v>26403.8584406682</v>
+        <v>28166.06118010815</v>
       </c>
       <c r="F79" t="n">
-        <v>25016.53202829338</v>
+        <v>26118.05681017025</v>
       </c>
       <c r="G79" t="n">
-        <v>25649.22005721757</v>
+        <v>26538.4668316367</v>
       </c>
       <c r="H79" t="n">
-        <v>-797.188466105583</v>
+        <v>-147.7717965041372</v>
       </c>
       <c r="I79" t="n">
-        <v>-797.188466105583</v>
+        <v>-147.7717965041372</v>
       </c>
       <c r="J79" t="n">
-        <v>-797.188466105583</v>
+        <v>-147.7717965041372</v>
       </c>
       <c r="K79" t="n">
-        <v>-797.188466105583</v>
+        <v>-147.7717965041372</v>
       </c>
       <c r="L79" t="n">
-        <v>-797.188466105583</v>
+        <v>-147.7717965041372</v>
       </c>
       <c r="M79" t="n">
-        <v>-797.188466105583</v>
+        <v>-147.7717965041372</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>24529.87245243895</v>
+        <v>26192.19709318454</v>
       </c>
     </row>
     <row r="80">
@@ -4661,37 +4661,37 @@
         <v>45108</v>
       </c>
       <c r="C80" t="n">
-        <v>25455.98163898364</v>
+        <v>26506.97366007854</v>
       </c>
       <c r="D80" t="n">
-        <v>22957.24385122368</v>
+        <v>23828.04732576265</v>
       </c>
       <c r="E80" t="n">
-        <v>26569.20402374114</v>
+        <v>27978.31618709997</v>
       </c>
       <c r="F80" t="n">
-        <v>25096.29149871624</v>
+        <v>26259.82681283137</v>
       </c>
       <c r="G80" t="n">
-        <v>25811.81693585143</v>
+        <v>26737.47764440173</v>
       </c>
       <c r="H80" t="n">
-        <v>-654.4663415505269</v>
+        <v>-714.1703218661613</v>
       </c>
       <c r="I80" t="n">
-        <v>-654.4663415505269</v>
+        <v>-714.1703218661613</v>
       </c>
       <c r="J80" t="n">
-        <v>-654.4663415505269</v>
+        <v>-714.1703218661613</v>
       </c>
       <c r="K80" t="n">
-        <v>-654.4663415505269</v>
+        <v>-714.1703218661613</v>
       </c>
       <c r="L80" t="n">
-        <v>-654.4663415505269</v>
+        <v>-714.1703218661613</v>
       </c>
       <c r="M80" t="n">
-        <v>-654.4663415505269</v>
+        <v>-714.1703218661613</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>24801.51529743311</v>
+        <v>25792.80333821238</v>
       </c>
     </row>
     <row r="81">
@@ -4714,37 +4714,37 @@
         <v>45139</v>
       </c>
       <c r="C81" t="n">
-        <v>25589.19971677072</v>
+        <v>26679.54525614806</v>
       </c>
       <c r="D81" t="n">
-        <v>23504.88849098119</v>
+        <v>24431.17626973935</v>
       </c>
       <c r="E81" t="n">
-        <v>27358.76774147067</v>
+        <v>28525.12176424883</v>
       </c>
       <c r="F81" t="n">
-        <v>25201.15985674111</v>
+        <v>26402.90072924972</v>
       </c>
       <c r="G81" t="n">
-        <v>25991.12128042808</v>
+        <v>26942.12564787885</v>
       </c>
       <c r="H81" t="n">
-        <v>-231.2838736852863</v>
+        <v>-270.5610063197307</v>
       </c>
       <c r="I81" t="n">
-        <v>-231.2838736852863</v>
+        <v>-270.5610063197307</v>
       </c>
       <c r="J81" t="n">
-        <v>-231.2838736852863</v>
+        <v>-270.5610063197307</v>
       </c>
       <c r="K81" t="n">
-        <v>-231.2838736852863</v>
+        <v>-270.5610063197307</v>
       </c>
       <c r="L81" t="n">
-        <v>-231.2838736852863</v>
+        <v>-270.5610063197307</v>
       </c>
       <c r="M81" t="n">
-        <v>-231.2838736852863</v>
+        <v>-270.5610063197307</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>25357.91584308543</v>
+        <v>26408.98424982833</v>
       </c>
     </row>
     <row r="82">
@@ -4767,37 +4767,37 @@
         <v>45170</v>
       </c>
       <c r="C82" t="n">
-        <v>25722.41779455779</v>
+        <v>26852.11685221758</v>
       </c>
       <c r="D82" t="n">
-        <v>22276.80863330062</v>
+        <v>23553.90461008311</v>
       </c>
       <c r="E82" t="n">
-        <v>26310.78168164194</v>
+        <v>27569.22790851594</v>
       </c>
       <c r="F82" t="n">
-        <v>25279.72918607389</v>
+        <v>26544.85861794066</v>
       </c>
       <c r="G82" t="n">
-        <v>26159.45264454977</v>
+        <v>27143.5334179146</v>
       </c>
       <c r="H82" t="n">
-        <v>-1316.771535814011</v>
+        <v>-1307.442660356179</v>
       </c>
       <c r="I82" t="n">
-        <v>-1316.771535814011</v>
+        <v>-1307.442660356179</v>
       </c>
       <c r="J82" t="n">
-        <v>-1316.771535814011</v>
+        <v>-1307.442660356179</v>
       </c>
       <c r="K82" t="n">
-        <v>-1316.771535814011</v>
+        <v>-1307.442660356179</v>
       </c>
       <c r="L82" t="n">
-        <v>-1316.771535814011</v>
+        <v>-1307.442660356179</v>
       </c>
       <c r="M82" t="n">
-        <v>-1316.771535814011</v>
+        <v>-1307.442660356179</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>24405.64625874378</v>
+        <v>25544.6741918614</v>
       </c>
     </row>
     <row r="83">
@@ -4820,37 +4820,37 @@
         <v>45200</v>
       </c>
       <c r="C83" t="n">
-        <v>25851.3385149969</v>
+        <v>27019.12162260744</v>
       </c>
       <c r="D83" t="n">
-        <v>25218.53833404229</v>
+        <v>26456.03220723931</v>
       </c>
       <c r="E83" t="n">
-        <v>29204.80349262882</v>
+        <v>30485.4221890337</v>
       </c>
       <c r="F83" t="n">
-        <v>25369.29063412395</v>
+        <v>26687.49060594685</v>
       </c>
       <c r="G83" t="n">
-        <v>26339.82692879755</v>
+        <v>27339.23043517228</v>
       </c>
       <c r="H83" t="n">
-        <v>1479.716518007132</v>
+        <v>1524.063520910981</v>
       </c>
       <c r="I83" t="n">
-        <v>1479.716518007132</v>
+        <v>1524.063520910981</v>
       </c>
       <c r="J83" t="n">
-        <v>1479.716518007132</v>
+        <v>1524.063520910981</v>
       </c>
       <c r="K83" t="n">
-        <v>1479.716518007132</v>
+        <v>1524.063520910981</v>
       </c>
       <c r="L83" t="n">
-        <v>1479.716518007132</v>
+        <v>1524.063520910981</v>
       </c>
       <c r="M83" t="n">
-        <v>1479.716518007132</v>
+        <v>1524.063520910981</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -4862,7 +4862,60 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>27331.05503300403</v>
+        <v>28543.18514351842</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C84" t="n">
+        <v>27191.69321867696</v>
+      </c>
+      <c r="D84" t="n">
+        <v>24225.04775282539</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28128.38948862017</v>
+      </c>
+      <c r="F84" t="n">
+        <v>26839.2227133121</v>
+      </c>
+      <c r="G84" t="n">
+        <v>27554.04143612512</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-1106.562944708203</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-1106.562944708203</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1106.562944708203</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-1106.562944708203</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-1106.562944708203</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-1106.562944708203</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>26085.13027396876</v>
       </c>
     </row>
   </sheetData>
